--- a/Family Fantasy 2024.xlsx
+++ b/Family Fantasy 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="52">
   <si>
     <t>Breeces Pieces</t>
   </si>
@@ -58,10 +58,13 @@
     <t>AnaKen SkyWalkers</t>
   </si>
   <si>
-    <t>0-1-0</t>
-  </si>
-  <si>
-    <t>1-0-0</t>
+    <t>0-2-0</t>
+  </si>
+  <si>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>2-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -127,7 +130,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Week</t>
@@ -573,22 +600,22 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -617,19 +644,19 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -661,16 +688,16 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -678,16 +705,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -696,22 +723,22 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -784,16 +811,16 @@
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -804,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -819,22 +846,22 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -842,40 +869,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -913,7 +940,7 @@
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -924,40 +951,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -965,40 +992,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1030,16 +1057,16 @@
         <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1057,13 +1084,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1071,13 +1098,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0.08333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1088,10 +1115,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1099,13 +1126,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1113,13 +1140,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1127,13 +1154,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1141,13 +1168,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1155,10 +1182,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1169,10 +1196,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>0.5833333333333334</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1183,10 +1210,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.6666666666666666</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1197,10 +1224,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>0.75</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1211,13 +1238,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>0.9166666666666666</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1225,13 +1252,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>0.9166666666666666</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1249,16 +1276,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1269,13 +1296,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1283,16 +1310,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.9166666666666666</v>
+        <v>1.5</v>
       </c>
       <c r="D3">
-        <v>-0.08333333333333337</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1300,13 +1327,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D4">
-        <v>-0.25</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1317,16 +1344,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D5">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1334,16 +1361,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.3333333333333334</v>
+        <v>-0.8333333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1351,13 +1378,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>0.5833333333333334</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.4166666666666666</v>
+        <v>0.08333333333333326</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1368,16 +1395,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1385,16 +1412,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1405,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D10">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1419,16 +1446,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>-0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1436,13 +1463,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1453,16 +1480,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1480,46 +1507,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1527,28 +1554,28 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>63.06</v>
+        <v>49.91999999999999</v>
       </c>
       <c r="C2">
-        <v>35.03</v>
+        <v>27.54</v>
       </c>
       <c r="D2">
-        <v>1.9</v>
+        <v>13.27</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>6.140000000000001</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1563,183 +1590,183 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>96.86999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>27.58</v>
+        <v>19.56</v>
       </c>
       <c r="C3">
-        <v>29.51</v>
+        <v>21.41</v>
       </c>
       <c r="D3">
-        <v>28.48</v>
+        <v>22.2</v>
       </c>
       <c r="E3">
-        <v>10.96</v>
+        <v>16.57</v>
       </c>
       <c r="F3">
-        <v>2.71</v>
+        <v>9.719999999999999</v>
       </c>
       <c r="G3">
-        <v>0.66</v>
+        <v>5.56</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>2.89</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>96.53</v>
+        <v>79.74000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>7.22</v>
+        <v>19.17</v>
       </c>
       <c r="C4">
-        <v>20.78</v>
+        <v>22.68</v>
       </c>
       <c r="D4">
-        <v>30.49</v>
+        <v>19.71</v>
       </c>
       <c r="E4">
-        <v>23.01</v>
+        <v>14.93</v>
       </c>
       <c r="F4">
-        <v>12.38</v>
+        <v>10.4</v>
       </c>
       <c r="G4">
-        <v>4.68</v>
+        <v>6.34</v>
       </c>
       <c r="H4">
-        <v>1.22</v>
+        <v>3.82</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="J4">
+        <v>0.79</v>
+      </c>
+      <c r="K4">
+        <v>0.16</v>
+      </c>
+      <c r="L4">
         <v>0.02</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>81.5</v>
+        <v>76.49000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>1.79</v>
+        <v>7.539999999999999</v>
       </c>
       <c r="C5">
-        <v>9.74</v>
+        <v>17.33</v>
       </c>
       <c r="D5">
-        <v>21.25</v>
+        <v>21.7</v>
       </c>
       <c r="E5">
-        <v>25.46</v>
+        <v>24.01</v>
       </c>
       <c r="F5">
-        <v>21.95</v>
+        <v>14.37</v>
       </c>
       <c r="G5">
-        <v>12.66</v>
+        <v>7.61</v>
       </c>
       <c r="H5">
-        <v>5.25</v>
+        <v>4.31</v>
       </c>
       <c r="I5">
-        <v>1.55</v>
+        <v>2.16</v>
       </c>
       <c r="J5">
-        <v>0.32</v>
+        <v>0.8</v>
       </c>
       <c r="K5">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>58.24</v>
+        <v>70.58</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0.28</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>3.73</v>
+        <v>2.91</v>
       </c>
       <c r="D6">
-        <v>11.26</v>
+        <v>5.5</v>
       </c>
       <c r="E6">
-        <v>21.06</v>
+        <v>9.02</v>
       </c>
       <c r="F6">
-        <v>23.75</v>
+        <v>13.19</v>
       </c>
       <c r="G6">
-        <v>20.36</v>
+        <v>15.35</v>
       </c>
       <c r="H6">
-        <v>12.16</v>
+        <v>16.14</v>
       </c>
       <c r="I6">
-        <v>5.609999999999999</v>
+        <v>15.29</v>
       </c>
       <c r="J6">
-        <v>1.55</v>
+        <v>11.98</v>
       </c>
       <c r="K6">
-        <v>0.24</v>
+        <v>6.660000000000001</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="N6">
-        <v>36.33</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1747,131 +1774,131 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0.06999999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="C7">
-        <v>0.9299999999999999</v>
+        <v>2.93</v>
       </c>
       <c r="D7">
-        <v>4.75</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="E7">
-        <v>11.82</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="F7">
-        <v>19.83</v>
+        <v>12.21</v>
       </c>
       <c r="G7">
-        <v>23.14</v>
+        <v>15.37</v>
       </c>
       <c r="H7">
-        <v>19.79</v>
+        <v>15.66</v>
       </c>
       <c r="I7">
-        <v>12.48</v>
+        <v>16.26</v>
       </c>
       <c r="J7">
-        <v>5.43</v>
+        <v>12.79</v>
       </c>
       <c r="K7">
-        <v>1.56</v>
+        <v>6.94</v>
       </c>
       <c r="L7">
-        <v>0.2</v>
+        <v>2.54</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N7">
-        <v>17.57</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="C8">
-        <v>0.24</v>
+        <v>2.46</v>
       </c>
       <c r="D8">
-        <v>1.53</v>
+        <v>5.16</v>
       </c>
       <c r="E8">
-        <v>5.77</v>
+        <v>8.110000000000001</v>
       </c>
       <c r="F8">
-        <v>12.44</v>
+        <v>13.91</v>
       </c>
       <c r="G8">
-        <v>19.6</v>
+        <v>15.72</v>
       </c>
       <c r="H8">
-        <v>24.1</v>
+        <v>16.84</v>
       </c>
       <c r="I8">
-        <v>18.91</v>
+        <v>14.7</v>
       </c>
       <c r="J8">
-        <v>11.36</v>
+        <v>11.61</v>
       </c>
       <c r="K8">
-        <v>4.87</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="L8">
-        <v>1.16</v>
+        <v>3.09</v>
       </c>
       <c r="M8">
-        <v>0.02</v>
+        <v>0.32</v>
       </c>
       <c r="N8">
-        <v>7.540000000000001</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="C9">
-        <v>0.04</v>
+        <v>2.25</v>
       </c>
       <c r="D9">
-        <v>0.31</v>
+        <v>5.17</v>
       </c>
       <c r="E9">
-        <v>1.54</v>
+        <v>8.73</v>
       </c>
       <c r="F9">
-        <v>5.35</v>
+        <v>14.67</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>16.36</v>
       </c>
       <c r="H9">
-        <v>20.2</v>
+        <v>16.12</v>
       </c>
       <c r="I9">
-        <v>24.26</v>
+        <v>14.06</v>
       </c>
       <c r="J9">
-        <v>20.09</v>
+        <v>11.52</v>
       </c>
       <c r="K9">
-        <v>12.28</v>
+        <v>6.710000000000001</v>
       </c>
       <c r="L9">
-        <v>3.64</v>
+        <v>3.26</v>
       </c>
       <c r="M9">
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
       <c r="N9">
-        <v>1.89</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1879,136 +1906,136 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="D10">
-        <v>0.03</v>
+        <v>1.34</v>
       </c>
       <c r="E10">
-        <v>0.35</v>
+        <v>3.65</v>
       </c>
       <c r="F10">
-        <v>1.38</v>
+        <v>7.85</v>
       </c>
       <c r="G10">
-        <v>5.43</v>
+        <v>11.34</v>
       </c>
       <c r="H10">
-        <v>12.44</v>
+        <v>14.46</v>
       </c>
       <c r="I10">
-        <v>21.55</v>
+        <v>16.65</v>
       </c>
       <c r="J10">
-        <v>26.15</v>
+        <v>17.22</v>
       </c>
       <c r="K10">
-        <v>20.81</v>
+        <v>15.2</v>
       </c>
       <c r="L10">
-        <v>10.22</v>
+        <v>10.19</v>
       </c>
       <c r="M10">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="N10">
-        <v>0.38</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E11">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="G11">
-        <v>1.36</v>
+        <v>2.85</v>
       </c>
       <c r="H11">
-        <v>4.279999999999999</v>
+        <v>4.82</v>
       </c>
       <c r="I11">
-        <v>12.48</v>
+        <v>9.180000000000001</v>
       </c>
       <c r="J11">
-        <v>24.18</v>
+        <v>17.6</v>
       </c>
       <c r="K11">
-        <v>29.62</v>
+        <v>29.29</v>
       </c>
       <c r="L11">
-        <v>20.48</v>
+        <v>23.92</v>
       </c>
       <c r="M11">
-        <v>7.380000000000001</v>
+        <v>11.09</v>
       </c>
       <c r="N11">
-        <v>0.02</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
+        <v>0.88</v>
       </c>
       <c r="G12">
-        <v>0.11</v>
+        <v>2.67</v>
       </c>
       <c r="H12">
-        <v>0.46</v>
+        <v>4.61</v>
       </c>
       <c r="I12">
-        <v>2.96</v>
+        <v>8.27</v>
       </c>
       <c r="J12">
-        <v>10.89</v>
+        <v>14.46</v>
       </c>
       <c r="K12">
-        <v>28.48</v>
+        <v>22.99</v>
       </c>
       <c r="L12">
-        <v>30.72</v>
+        <v>32.88</v>
       </c>
       <c r="M12">
-        <v>26.37</v>
+        <v>12.96</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2026,25 +2053,25 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="J13">
-        <v>0.01</v>
+        <v>0.62</v>
       </c>
       <c r="K13">
-        <v>2.11</v>
+        <v>4.61</v>
       </c>
       <c r="L13">
-        <v>33.58</v>
+        <v>21.33</v>
       </c>
       <c r="M13">
-        <v>64.3</v>
+        <v>73.36</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2065,16 +2092,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2082,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -2090,8 +2117,8 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2099,16 +2126,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2116,16 +2143,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2136,13 +2163,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2150,16 +2177,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2167,16 +2194,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2184,7 +2211,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2192,8 +2219,8 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2201,16 +2228,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2226,8 +2253,8 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="E10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2235,16 +2262,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2252,16 +2279,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>-9</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2269,16 +2296,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2288,54 +2315,66 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2343,54 +2382,69 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B9">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -2398,40 +2452,52 @@
         <v>-2</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>-11</v>
+      </c>
+      <c r="C12">
+        <v>-9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>-9</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>-11</v>
-      </c>
       <c r="C13">
-        <v>0</v>
+        <v>-12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2449,25 +2515,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Family Fantasy 2024.xlsx
+++ b/Family Fantasy 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="53">
   <si>
     <t>Breeces Pieces</t>
   </si>
@@ -58,13 +58,16 @@
     <t>AnaKen SkyWalkers</t>
   </si>
   <si>
-    <t>0-2-0</t>
-  </si>
-  <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>2-0-0</t>
+    <t>0-3-0</t>
+  </si>
+  <si>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -130,31 +133,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑2</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>↓9</t>
   </si>
   <si>
-    <t>↓3</t>
+    <t>↓11</t>
   </si>
   <si>
     <t>Week 1</t>
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Week</t>
@@ -588,7 +591,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -597,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -623,40 +626,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -664,34 +667,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
@@ -720,13 +723,13 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -746,34 +749,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
@@ -843,10 +846,10 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -869,37 +872,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
         <v>13</v>
@@ -916,22 +919,22 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -951,40 +954,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1007,10 +1010,10 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
@@ -1036,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
@@ -1084,13 +1087,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1098,13 +1101,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.5833333333333334</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1112,13 +1115,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1126,13 +1129,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1140,13 +1143,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1154,13 +1157,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1168,10 +1171,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1182,13 +1185,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>1.083333333333333</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1196,13 +1199,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1.083333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1210,13 +1213,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>1.166666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1224,13 +1227,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>1.166666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1238,13 +1241,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>1.166666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1252,13 +1255,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>1.583333333333333</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1276,16 +1279,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1293,13 +1296,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="D2">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1310,13 +1313,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1327,16 +1330,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1.416666666666667</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1344,16 +1347,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>1.333333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D5">
-        <v>0.3333333333333333</v>
+        <v>-0.08333333333333326</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1361,13 +1364,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1.166666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D6">
-        <v>-0.8333333333333333</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1378,16 +1381,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>1.083333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D7">
-        <v>0.08333333333333326</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1395,16 +1398,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1412,16 +1415,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1432,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.75</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D10">
-        <v>0.75</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1449,10 +1452,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1463,16 +1466,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D12">
-        <v>0.3333333333333333</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1480,16 +1483,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1507,398 +1510,398 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>49.91999999999999</v>
+        <v>33.92</v>
       </c>
       <c r="C2">
-        <v>27.54</v>
+        <v>22.69</v>
       </c>
       <c r="D2">
-        <v>13.27</v>
+        <v>16.45</v>
       </c>
       <c r="E2">
-        <v>6.140000000000001</v>
+        <v>11.06</v>
       </c>
       <c r="F2">
-        <v>1.93</v>
+        <v>7.3</v>
       </c>
       <c r="G2">
-        <v>0.8200000000000001</v>
+        <v>4.09</v>
       </c>
       <c r="H2">
-        <v>0.33</v>
+        <v>2.5</v>
       </c>
       <c r="I2">
-        <v>0.05</v>
+        <v>1.37</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>96.86999999999999</v>
+        <v>84.12</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>19.56</v>
+        <v>33.55</v>
       </c>
       <c r="C3">
-        <v>21.41</v>
+        <v>28.54</v>
       </c>
       <c r="D3">
-        <v>22.2</v>
+        <v>17.17</v>
       </c>
       <c r="E3">
-        <v>16.57</v>
+        <v>9.75</v>
       </c>
       <c r="F3">
-        <v>9.719999999999999</v>
+        <v>5.54</v>
       </c>
       <c r="G3">
-        <v>5.56</v>
+        <v>3.23</v>
       </c>
       <c r="H3">
-        <v>2.89</v>
+        <v>1.37</v>
       </c>
       <c r="I3">
-        <v>1.33</v>
+        <v>0.61</v>
       </c>
       <c r="J3">
-        <v>0.61</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="L3">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>79.74000000000001</v>
+        <v>89.01000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>19.17</v>
+        <v>9.91</v>
       </c>
       <c r="C4">
-        <v>22.68</v>
+        <v>13.33</v>
       </c>
       <c r="D4">
-        <v>19.71</v>
+        <v>14.58</v>
       </c>
       <c r="E4">
-        <v>14.93</v>
+        <v>14.91</v>
       </c>
       <c r="F4">
-        <v>10.4</v>
+        <v>13.02</v>
       </c>
       <c r="G4">
-        <v>6.34</v>
+        <v>11.25</v>
       </c>
       <c r="H4">
-        <v>3.82</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I4">
-        <v>1.98</v>
+        <v>7.109999999999999</v>
       </c>
       <c r="J4">
-        <v>0.79</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="K4">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="L4">
-        <v>0.02</v>
+        <v>0.74</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="N4">
-        <v>76.49000000000001</v>
+        <v>52.73</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>7.539999999999999</v>
+        <v>7.13</v>
       </c>
       <c r="C5">
-        <v>17.33</v>
+        <v>8.469999999999999</v>
       </c>
       <c r="D5">
-        <v>21.7</v>
+        <v>11.44</v>
       </c>
       <c r="E5">
-        <v>24.01</v>
+        <v>12.54</v>
       </c>
       <c r="F5">
-        <v>14.37</v>
+        <v>14.26</v>
       </c>
       <c r="G5">
-        <v>7.61</v>
+        <v>13.11</v>
       </c>
       <c r="H5">
-        <v>4.31</v>
+        <v>13.07</v>
       </c>
       <c r="I5">
-        <v>2.16</v>
+        <v>10.22</v>
       </c>
       <c r="J5">
-        <v>0.8</v>
+        <v>5.73</v>
       </c>
       <c r="K5">
-        <v>0.15</v>
+        <v>2.79</v>
       </c>
       <c r="L5">
-        <v>0.02</v>
+        <v>0.98</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="N5">
-        <v>70.58</v>
+        <v>39.58</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>7.12</v>
       </c>
       <c r="C6">
-        <v>2.91</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="D6">
-        <v>5.5</v>
+        <v>12.77</v>
       </c>
       <c r="E6">
-        <v>9.02</v>
+        <v>13.58</v>
       </c>
       <c r="F6">
-        <v>13.19</v>
+        <v>13.84</v>
       </c>
       <c r="G6">
-        <v>15.35</v>
+        <v>13.31</v>
       </c>
       <c r="H6">
-        <v>16.14</v>
+        <v>11.58</v>
       </c>
       <c r="I6">
-        <v>15.29</v>
+        <v>8.85</v>
       </c>
       <c r="J6">
-        <v>11.98</v>
+        <v>5.55</v>
       </c>
       <c r="K6">
-        <v>6.660000000000001</v>
+        <v>2.55</v>
       </c>
       <c r="L6">
-        <v>2.71</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="M6">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="N6">
-        <v>18.45</v>
+        <v>43.18</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>1.01</v>
+        <v>3.41</v>
       </c>
       <c r="C7">
-        <v>2.93</v>
+        <v>6.460000000000001</v>
       </c>
       <c r="D7">
-        <v>5.800000000000001</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="E7">
-        <v>8.359999999999999</v>
+        <v>11.46</v>
       </c>
       <c r="F7">
-        <v>12.21</v>
+        <v>12.44</v>
       </c>
       <c r="G7">
-        <v>15.37</v>
+        <v>13.52</v>
       </c>
       <c r="H7">
-        <v>15.66</v>
+        <v>13.03</v>
       </c>
       <c r="I7">
-        <v>16.26</v>
+        <v>12.45</v>
       </c>
       <c r="J7">
-        <v>12.79</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="K7">
-        <v>6.94</v>
+        <v>5.21</v>
       </c>
       <c r="L7">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="M7">
-        <v>0.13</v>
+        <v>0.79</v>
       </c>
       <c r="N7">
-        <v>18.1</v>
+        <v>30.46</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.8999999999999999</v>
+        <v>2.35</v>
       </c>
       <c r="C8">
-        <v>2.46</v>
+        <v>5.01</v>
       </c>
       <c r="D8">
-        <v>5.16</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="E8">
-        <v>8.110000000000001</v>
+        <v>11.24</v>
       </c>
       <c r="F8">
-        <v>13.91</v>
+        <v>13.01</v>
       </c>
       <c r="G8">
-        <v>15.72</v>
+        <v>14.11</v>
       </c>
       <c r="H8">
-        <v>16.84</v>
+        <v>13.43</v>
       </c>
       <c r="I8">
-        <v>14.7</v>
+        <v>12.02</v>
       </c>
       <c r="J8">
-        <v>11.61</v>
+        <v>10.12</v>
       </c>
       <c r="K8">
-        <v>7.180000000000001</v>
+        <v>5.86</v>
       </c>
       <c r="L8">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="M8">
-        <v>0.32</v>
+        <v>1.49</v>
       </c>
       <c r="N8">
-        <v>16.63</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0.7799999999999999</v>
+        <v>2.35</v>
       </c>
       <c r="C9">
-        <v>2.25</v>
+        <v>4.78</v>
       </c>
       <c r="D9">
-        <v>5.17</v>
+        <v>7.630000000000001</v>
       </c>
       <c r="E9">
-        <v>8.73</v>
+        <v>10.06</v>
       </c>
       <c r="F9">
-        <v>14.67</v>
+        <v>11.94</v>
       </c>
       <c r="G9">
-        <v>16.36</v>
+        <v>13.54</v>
       </c>
       <c r="H9">
-        <v>16.12</v>
+        <v>13.77</v>
       </c>
       <c r="I9">
-        <v>14.06</v>
+        <v>13.09</v>
       </c>
       <c r="J9">
-        <v>11.52</v>
+        <v>11.09</v>
       </c>
       <c r="K9">
-        <v>6.710000000000001</v>
+        <v>6.73</v>
       </c>
       <c r="L9">
-        <v>3.26</v>
+        <v>3.54</v>
       </c>
       <c r="M9">
-        <v>0.37</v>
+        <v>1.48</v>
       </c>
       <c r="N9">
-        <v>16.93</v>
+        <v>24.82</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1906,87 +1909,87 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C10">
-        <v>0.46</v>
+        <v>0.96</v>
       </c>
       <c r="D10">
-        <v>1.34</v>
+        <v>2.27</v>
       </c>
       <c r="E10">
-        <v>3.65</v>
+        <v>4.32</v>
       </c>
       <c r="F10">
-        <v>7.85</v>
+        <v>6.260000000000001</v>
       </c>
       <c r="G10">
-        <v>11.34</v>
+        <v>8.57</v>
       </c>
       <c r="H10">
-        <v>14.46</v>
+        <v>11.95</v>
       </c>
       <c r="I10">
-        <v>16.65</v>
+        <v>15.08</v>
       </c>
       <c r="J10">
-        <v>17.22</v>
+        <v>16.55</v>
       </c>
       <c r="K10">
-        <v>15.2</v>
+        <v>15.02</v>
       </c>
       <c r="L10">
-        <v>10.19</v>
+        <v>11.08</v>
       </c>
       <c r="M10">
-        <v>1.54</v>
+        <v>7.69</v>
       </c>
       <c r="N10">
-        <v>5.55</v>
+        <v>7.800000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
+        <v>0.01</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>0.02</v>
-      </c>
       <c r="D11">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="E11">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="F11">
-        <v>0.8699999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="G11">
-        <v>2.85</v>
+        <v>1.18</v>
       </c>
       <c r="H11">
-        <v>4.82</v>
+        <v>2.44</v>
       </c>
       <c r="I11">
-        <v>9.180000000000001</v>
+        <v>5.12</v>
       </c>
       <c r="J11">
-        <v>17.6</v>
+        <v>10.38</v>
       </c>
       <c r="K11">
-        <v>29.29</v>
+        <v>18.27</v>
       </c>
       <c r="L11">
-        <v>23.92</v>
+        <v>26.87</v>
       </c>
       <c r="M11">
-        <v>11.09</v>
+        <v>35.06</v>
       </c>
       <c r="N11">
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1997,84 +2000,84 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D12">
-        <v>0.06999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="E12">
-        <v>0.2</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F12">
-        <v>0.88</v>
+        <v>1.65</v>
       </c>
       <c r="G12">
-        <v>2.67</v>
+        <v>3.1</v>
       </c>
       <c r="H12">
-        <v>4.61</v>
+        <v>5.41</v>
       </c>
       <c r="I12">
-        <v>8.27</v>
+        <v>9.07</v>
       </c>
       <c r="J12">
-        <v>14.46</v>
+        <v>14.36</v>
       </c>
       <c r="K12">
-        <v>22.99</v>
+        <v>19.03</v>
       </c>
       <c r="L12">
-        <v>32.88</v>
+        <v>21.29</v>
       </c>
       <c r="M12">
-        <v>12.96</v>
+        <v>25.15</v>
       </c>
       <c r="N12">
-        <v>0.28</v>
+        <v>0.9400000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G13">
-        <v>0.01</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="I13">
-        <v>0.06999999999999999</v>
+        <v>5.01</v>
       </c>
       <c r="J13">
-        <v>0.62</v>
+        <v>11.77</v>
       </c>
       <c r="K13">
-        <v>4.61</v>
+        <v>22.8</v>
       </c>
       <c r="L13">
-        <v>21.33</v>
+        <v>29.08</v>
       </c>
       <c r="M13">
-        <v>73.36</v>
+        <v>27.66</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -2092,16 +2095,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2109,16 +2112,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2129,13 +2132,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2143,16 +2146,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2160,16 +2163,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2177,16 +2180,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2194,16 +2197,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2211,16 +2214,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2228,16 +2231,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>-1</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2245,16 +2248,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>-2</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2265,13 +2268,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2279,16 +2282,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2296,13 +2299,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>42</v>
@@ -2315,13 +2318,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -2329,24 +2332,30 @@
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2356,109 +2365,133 @@
       <c r="C3">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>-2</v>
+      </c>
+      <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B7">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>-4</v>
-      </c>
       <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-1</v>
       </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
+      <c r="D10">
         <v>-2</v>
       </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2468,35 +2501,44 @@
       <c r="C11">
         <v>-8</v>
       </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11">
+        <v>-4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>-9</v>
+      </c>
+      <c r="C12">
+        <v>-12</v>
+      </c>
+      <c r="D12">
+        <v>-11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>-11</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>-9</v>
       </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>-9</v>
-      </c>
-      <c r="C13">
-        <v>-12</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>-20</v>
+      </c>
+      <c r="E13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2507,33 +2549,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-11</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Family Fantasy 2024.xlsx
+++ b/Family Fantasy 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="58">
   <si>
     <t>Breeces Pieces</t>
   </si>
@@ -58,16 +58,19 @@
     <t>AnaKen SkyWalkers</t>
   </si>
   <si>
-    <t>0-3-0</t>
-  </si>
-  <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>3-0-0</t>
+    <t>0-4-0</t>
+  </si>
+  <si>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -133,24 +136,33 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑6</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓11</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -158,6 +170,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week</t>
@@ -588,10 +603,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -600,25 +615,25 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -629,37 +644,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -667,37 +682,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
         <v>13</v>
@@ -708,22 +723,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -732,16 +747,16 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -749,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -776,10 +791,10 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
         <v>12</v>
@@ -793,37 +808,37 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -831,40 +846,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -872,37 +887,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
         <v>13</v>
@@ -919,19 +934,19 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -943,7 +958,7 @@
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -954,40 +969,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -995,37 +1010,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
         <v>13</v>
@@ -1036,40 +1051,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1087,13 +1102,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1101,13 +1116,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>1.166666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1115,13 +1130,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.166666666666667</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1132,10 +1147,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1.166666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1146,10 +1161,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>1.25</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1157,13 +1172,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1171,13 +1186,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>1.333333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1185,13 +1200,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1.583333333333333</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1202,10 +1217,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1.666666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1213,10 +1228,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1227,13 +1242,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>1.833333333333333</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1241,13 +1256,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>1.833333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1255,13 +1270,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1279,16 +1294,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1296,16 +1311,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1313,16 +1328,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1330,16 +1345,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-0.4166666666666665</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1347,16 +1362,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>1.916666666666667</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D5">
-        <v>-0.08333333333333326</v>
+        <v>0.5833333333333335</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1367,13 +1382,13 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1381,16 +1396,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>1.666666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="D7">
-        <v>-0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1398,16 +1413,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1418,13 +1433,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>1.583333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="D9">
-        <v>-0.4166666666666667</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1432,13 +1447,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>1.083333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D10">
-        <v>1.083333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1449,16 +1464,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>0.9166666666666666</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D11">
-        <v>0.9166666666666666</v>
+        <v>-1.833333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1466,16 +1481,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.8333333333333334</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D12">
-        <v>-1.166666666666667</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1486,13 +1501,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D13">
-        <v>0.3333333333333333</v>
+        <v>-0.08333333333333337</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1510,46 +1525,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1557,43 +1572,43 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>33.92</v>
+        <v>38.92</v>
       </c>
       <c r="C2">
-        <v>22.69</v>
+        <v>26.38</v>
       </c>
       <c r="D2">
-        <v>16.45</v>
+        <v>16.13</v>
       </c>
       <c r="E2">
-        <v>11.06</v>
+        <v>9.66</v>
       </c>
       <c r="F2">
-        <v>7.3</v>
+        <v>4.83</v>
       </c>
       <c r="G2">
-        <v>4.09</v>
+        <v>2.34</v>
       </c>
       <c r="H2">
-        <v>2.5</v>
+        <v>1.18</v>
       </c>
       <c r="I2">
-        <v>1.37</v>
+        <v>0.32</v>
       </c>
       <c r="J2">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="K2">
-        <v>0.11</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>0.01</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
-        <v>84.12</v>
+        <v>91.08999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1601,43 +1616,43 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>33.55</v>
+        <v>20.22</v>
       </c>
       <c r="C3">
-        <v>28.54</v>
+        <v>19.07</v>
       </c>
       <c r="D3">
-        <v>17.17</v>
+        <v>17.58</v>
       </c>
       <c r="E3">
-        <v>9.75</v>
+        <v>15.02</v>
       </c>
       <c r="F3">
-        <v>5.54</v>
+        <v>11.8</v>
       </c>
       <c r="G3">
-        <v>3.23</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="H3">
-        <v>1.37</v>
+        <v>4.17</v>
       </c>
       <c r="I3">
-        <v>0.61</v>
+        <v>2.24</v>
       </c>
       <c r="J3">
+        <v>0.97</v>
+      </c>
+      <c r="K3">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="L3">
         <v>0.2</v>
       </c>
-      <c r="K3">
-        <v>0.04</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="N3">
-        <v>89.01000000000001</v>
+        <v>71.89</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1645,219 +1660,219 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.91</v>
+        <v>15.31</v>
       </c>
       <c r="C4">
-        <v>13.33</v>
+        <v>16.14</v>
       </c>
       <c r="D4">
-        <v>14.58</v>
+        <v>16.34</v>
       </c>
       <c r="E4">
-        <v>14.91</v>
+        <v>15.12</v>
       </c>
       <c r="F4">
-        <v>13.02</v>
+        <v>12.65</v>
       </c>
       <c r="G4">
-        <v>11.25</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="H4">
-        <v>9.300000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="I4">
-        <v>7.109999999999999</v>
+        <v>4.34</v>
       </c>
       <c r="J4">
-        <v>4.109999999999999</v>
+        <v>2.42</v>
       </c>
       <c r="K4">
-        <v>1.59</v>
+        <v>1.17</v>
       </c>
       <c r="L4">
-        <v>0.74</v>
+        <v>0.49</v>
       </c>
       <c r="M4">
         <v>0.15</v>
       </c>
       <c r="N4">
-        <v>52.73</v>
+        <v>62.91000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>11.95</v>
+      </c>
+      <c r="C5">
+        <v>14.16</v>
+      </c>
+      <c r="D5">
+        <v>15.44</v>
+      </c>
+      <c r="E5">
+        <v>15.31</v>
+      </c>
+      <c r="F5">
+        <v>13.42</v>
+      </c>
+      <c r="G5">
+        <v>11.24</v>
+      </c>
+      <c r="H5">
+        <v>8.5</v>
+      </c>
+      <c r="I5">
+        <v>4.96</v>
+      </c>
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>7.13</v>
-      </c>
-      <c r="C5">
-        <v>8.469999999999999</v>
-      </c>
-      <c r="D5">
-        <v>11.44</v>
-      </c>
-      <c r="E5">
-        <v>12.54</v>
-      </c>
-      <c r="F5">
-        <v>14.26</v>
-      </c>
-      <c r="G5">
-        <v>13.11</v>
-      </c>
-      <c r="H5">
-        <v>13.07</v>
-      </c>
-      <c r="I5">
-        <v>10.22</v>
-      </c>
-      <c r="J5">
-        <v>5.73</v>
-      </c>
       <c r="K5">
-        <v>2.79</v>
+        <v>1.34</v>
       </c>
       <c r="L5">
-        <v>0.98</v>
+        <v>0.46</v>
       </c>
       <c r="M5">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="N5">
-        <v>39.58</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>7.12</v>
+        <v>7.580000000000001</v>
       </c>
       <c r="C6">
-        <v>9.710000000000001</v>
+        <v>11.16</v>
       </c>
       <c r="D6">
-        <v>12.77</v>
+        <v>13.68</v>
       </c>
       <c r="E6">
-        <v>13.58</v>
+        <v>13.63</v>
       </c>
       <c r="F6">
-        <v>13.84</v>
+        <v>13.06</v>
       </c>
       <c r="G6">
-        <v>13.31</v>
+        <v>12.65</v>
       </c>
       <c r="H6">
-        <v>11.58</v>
+        <v>10.2</v>
       </c>
       <c r="I6">
-        <v>8.85</v>
+        <v>7.86</v>
       </c>
       <c r="J6">
-        <v>5.55</v>
+        <v>5.09</v>
       </c>
       <c r="K6">
-        <v>2.55</v>
+        <v>3.04</v>
       </c>
       <c r="L6">
-        <v>0.8699999999999999</v>
+        <v>1.52</v>
       </c>
       <c r="M6">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="N6">
-        <v>43.18</v>
+        <v>46.05</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>3.41</v>
+        <v>3.52</v>
       </c>
       <c r="C7">
-        <v>6.460000000000001</v>
+        <v>6.83</v>
       </c>
       <c r="D7">
-        <v>9.130000000000001</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="E7">
-        <v>11.46</v>
+        <v>11.37</v>
       </c>
       <c r="F7">
-        <v>12.44</v>
+        <v>13.28</v>
       </c>
       <c r="G7">
-        <v>13.52</v>
+        <v>13.2</v>
       </c>
       <c r="H7">
-        <v>13.03</v>
+        <v>12.81</v>
       </c>
       <c r="I7">
-        <v>12.45</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="J7">
-        <v>9.640000000000001</v>
+        <v>8.51</v>
       </c>
       <c r="K7">
-        <v>5.21</v>
+        <v>5.73</v>
       </c>
       <c r="L7">
-        <v>2.46</v>
+        <v>3.73</v>
       </c>
       <c r="M7">
-        <v>0.79</v>
+        <v>1.79</v>
       </c>
       <c r="N7">
-        <v>30.46</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>2.35</v>
+        <v>1.52</v>
       </c>
       <c r="C8">
-        <v>5.01</v>
+        <v>3.39</v>
       </c>
       <c r="D8">
-        <v>8.279999999999999</v>
+        <v>5.02</v>
       </c>
       <c r="E8">
-        <v>11.24</v>
+        <v>7.84</v>
       </c>
       <c r="F8">
-        <v>13.01</v>
+        <v>10.68</v>
       </c>
       <c r="G8">
-        <v>14.11</v>
+        <v>12.2</v>
       </c>
       <c r="H8">
-        <v>13.43</v>
+        <v>12.49</v>
       </c>
       <c r="I8">
-        <v>12.02</v>
+        <v>12.68</v>
       </c>
       <c r="J8">
-        <v>10.12</v>
+        <v>12</v>
       </c>
       <c r="K8">
-        <v>5.86</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="L8">
-        <v>3.08</v>
+        <v>7.59</v>
       </c>
       <c r="M8">
-        <v>1.49</v>
+        <v>4.95</v>
       </c>
       <c r="N8">
-        <v>26.88</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1865,219 +1880,219 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>2.35</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C9">
-        <v>4.78</v>
+        <v>1.79</v>
       </c>
       <c r="D9">
-        <v>7.630000000000001</v>
+        <v>3.71</v>
       </c>
       <c r="E9">
-        <v>10.06</v>
+        <v>6.23</v>
       </c>
       <c r="F9">
-        <v>11.94</v>
+        <v>9.15</v>
       </c>
       <c r="G9">
-        <v>13.54</v>
+        <v>11.2</v>
       </c>
       <c r="H9">
-        <v>13.77</v>
+        <v>12.22</v>
       </c>
       <c r="I9">
-        <v>13.09</v>
+        <v>13.53</v>
       </c>
       <c r="J9">
-        <v>11.09</v>
+        <v>12.66</v>
       </c>
       <c r="K9">
-        <v>6.73</v>
+        <v>11.72</v>
       </c>
       <c r="L9">
-        <v>3.54</v>
+        <v>9.379999999999999</v>
       </c>
       <c r="M9">
-        <v>1.48</v>
+        <v>7.71</v>
       </c>
       <c r="N9">
-        <v>24.82</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="C10">
-        <v>0.96</v>
+        <v>0.52</v>
       </c>
       <c r="D10">
-        <v>2.27</v>
+        <v>1.52</v>
       </c>
       <c r="E10">
-        <v>4.32</v>
+        <v>2.78</v>
       </c>
       <c r="F10">
-        <v>6.260000000000001</v>
+        <v>4.52</v>
       </c>
       <c r="G10">
-        <v>8.57</v>
+        <v>7.16</v>
       </c>
       <c r="H10">
-        <v>11.95</v>
+        <v>9.99</v>
       </c>
       <c r="I10">
-        <v>15.08</v>
+        <v>12.52</v>
       </c>
       <c r="J10">
-        <v>16.55</v>
+        <v>14.43</v>
       </c>
       <c r="K10">
-        <v>15.02</v>
+        <v>15.25</v>
       </c>
       <c r="L10">
-        <v>11.08</v>
+        <v>14.9</v>
       </c>
       <c r="M10">
-        <v>7.69</v>
+        <v>16.24</v>
       </c>
       <c r="N10">
-        <v>7.800000000000001</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0.01</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="D11">
-        <v>0.05</v>
+        <v>0.61</v>
       </c>
       <c r="E11">
-        <v>0.18</v>
+        <v>1.38</v>
       </c>
       <c r="F11">
-        <v>0.44</v>
+        <v>3.07</v>
       </c>
       <c r="G11">
-        <v>1.18</v>
+        <v>5.56</v>
       </c>
       <c r="H11">
-        <v>2.44</v>
+        <v>9.35</v>
       </c>
       <c r="I11">
-        <v>5.12</v>
+        <v>11.79</v>
       </c>
       <c r="J11">
-        <v>10.38</v>
+        <v>13.86</v>
       </c>
       <c r="K11">
-        <v>18.27</v>
+        <v>15.49</v>
       </c>
       <c r="L11">
-        <v>26.87</v>
+        <v>18.08</v>
       </c>
       <c r="M11">
-        <v>35.06</v>
+        <v>20.4</v>
       </c>
       <c r="N11">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C12">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="D12">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="E12">
-        <v>0.7000000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="F12">
-        <v>1.65</v>
+        <v>2.48</v>
       </c>
       <c r="G12">
-        <v>3.1</v>
+        <v>4.55</v>
       </c>
       <c r="H12">
-        <v>5.41</v>
+        <v>8.110000000000001</v>
       </c>
       <c r="I12">
-        <v>9.07</v>
+        <v>11.65</v>
       </c>
       <c r="J12">
-        <v>14.36</v>
+        <v>14.3</v>
       </c>
       <c r="K12">
-        <v>19.03</v>
+        <v>17.6</v>
       </c>
       <c r="L12">
-        <v>21.29</v>
+        <v>18.83</v>
       </c>
       <c r="M12">
-        <v>25.15</v>
+        <v>20.57</v>
       </c>
       <c r="N12">
-        <v>0.9400000000000001</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D13">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="E13">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="F13">
-        <v>0.3</v>
+        <v>1.06</v>
       </c>
       <c r="G13">
-        <v>0.9900000000000001</v>
+        <v>2.29</v>
       </c>
       <c r="H13">
-        <v>2.15</v>
+        <v>4.58</v>
       </c>
       <c r="I13">
-        <v>5.01</v>
+        <v>8.24</v>
       </c>
       <c r="J13">
-        <v>11.77</v>
+        <v>12.6</v>
       </c>
       <c r="K13">
-        <v>22.8</v>
+        <v>18.39</v>
       </c>
       <c r="L13">
-        <v>29.08</v>
+        <v>24.82</v>
       </c>
       <c r="M13">
-        <v>27.66</v>
+        <v>27.4</v>
       </c>
       <c r="N13">
-        <v>0.24</v>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -2095,16 +2110,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2115,13 +2130,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2129,16 +2144,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2146,16 +2161,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2163,16 +2178,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2180,16 +2195,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2197,16 +2212,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2214,13 +2229,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
@@ -2231,16 +2246,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>-1</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2248,16 +2263,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2268,13 +2283,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2285,13 +2300,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>-11</v>
+        <v>-18</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2302,13 +2317,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2318,27 +2333,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2351,147 +2369,174 @@
       <c r="D2">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="C4">
         <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>-4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
         <v>-2</v>
       </c>
-      <c r="C6">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>-2</v>
       </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>-4</v>
-      </c>
-      <c r="C7">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>-2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="D10">
         <v>-1</v>
       </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-      <c r="D10">
-        <v>-2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10">
+        <v>-3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2504,11 +2549,14 @@
       <c r="D11">
         <v>-4</v>
       </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11">
+        <v>-5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2521,11 +2569,14 @@
       <c r="D12">
         <v>-11</v>
       </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12">
+        <v>-18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2538,8 +2589,11 @@
       <c r="D13">
         <v>-20</v>
       </c>
-      <c r="E13" t="s">
-        <v>42</v>
+      <c r="E13">
+        <v>-19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2549,7 +2603,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2557,25 +2611,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2583,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -2595,10 +2649,10 @@
         <v>-1</v>
       </c>
       <c r="F2">
-        <v>-11</v>
+        <v>-18</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -2609,24 +2663,102 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>-19</v>
+      </c>
+      <c r="F3">
+        <v>-5</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-11</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E6">
         <v>6</v>
       </c>
-      <c r="F3">
+      <c r="F6">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H6" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Family Fantasy 2024.xlsx
+++ b/Family Fantasy 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="60">
   <si>
     <t>Breeces Pieces</t>
   </si>
@@ -58,19 +58,22 @@
     <t>AnaKen SkyWalkers</t>
   </si>
   <si>
-    <t>0-4-0</t>
-  </si>
-  <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -136,33 +139,33 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑3</t>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓11</t>
   </si>
   <si>
     <t>↓9</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <t>Week</t>
@@ -603,37 +609,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -650,7 +656,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -662,7 +668,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -671,7 +677,7 @@
         <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
         <v>15</v>
@@ -685,19 +691,19 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -715,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -729,10 +735,10 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -756,7 +762,7 @@
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -767,25 +773,25 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -794,10 +800,10 @@
         <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -808,37 +814,37 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -846,40 +852,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -890,19 +896,19 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -920,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -931,19 +937,19 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -961,7 +967,7 @@
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -975,13 +981,13 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -999,10 +1005,10 @@
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1013,37 +1019,37 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1102,13 +1108,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1116,10 +1122,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>1.25</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1130,13 +1136,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1.416666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1144,10 +1150,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1158,13 +1164,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1.583333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1172,13 +1178,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.75</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1189,7 +1195,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1.75</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1200,13 +1206,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>2.083333333333333</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1214,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>2.25</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1231,10 +1237,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1242,13 +1248,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>2.583333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1256,13 +1262,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>2.666666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1273,7 +1279,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>2.666666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1294,16 +1300,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1314,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1331,10 +1337,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>2.75</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.25</v>
+        <v>-0.6666666666666665</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1345,16 +1351,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>2.583333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D4">
-        <v>-0.4166666666666665</v>
+        <v>0.3333333333333335</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1362,13 +1368,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>2.583333333333333</v>
+        <v>3.25</v>
       </c>
       <c r="D5">
-        <v>0.5833333333333335</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1382,13 +1388,13 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1396,13 +1402,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>2.25</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D7">
-        <v>0.25</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1416,13 +1422,13 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1430,16 +1436,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1.75</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D9">
-        <v>-0.25</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1447,16 +1453,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>1.333333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="D10">
-        <v>1.333333333333333</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1467,13 +1473,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>1.166666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="D11">
-        <v>-1.833333333333333</v>
+        <v>-1.5</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1484,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.166666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D12">
-        <v>1.166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1501,13 +1507,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>0.9166666666666666</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.08333333333333337</v>
+        <v>0.08333333333333326</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1525,46 +1531,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1572,43 +1578,43 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>38.92</v>
+        <v>42.1</v>
       </c>
       <c r="C2">
-        <v>26.38</v>
+        <v>25.68</v>
       </c>
       <c r="D2">
-        <v>16.13</v>
+        <v>15.1</v>
       </c>
       <c r="E2">
-        <v>9.66</v>
+        <v>8.540000000000001</v>
       </c>
       <c r="F2">
-        <v>4.83</v>
+        <v>4.74</v>
       </c>
       <c r="G2">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="H2">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="I2">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="J2">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
-        <v>0.06999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="L2">
+        <v>0.03</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0.01</v>
-      </c>
       <c r="N2">
-        <v>91.08999999999999</v>
+        <v>91.42</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1616,43 +1622,43 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>20.22</v>
+        <v>18.48</v>
       </c>
       <c r="C3">
-        <v>19.07</v>
+        <v>17.63</v>
       </c>
       <c r="D3">
-        <v>17.58</v>
+        <v>16.82</v>
       </c>
       <c r="E3">
-        <v>15.02</v>
+        <v>15.46</v>
       </c>
       <c r="F3">
-        <v>11.8</v>
+        <v>12.81</v>
       </c>
       <c r="G3">
-        <v>8.140000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="H3">
-        <v>4.17</v>
+        <v>5.74</v>
       </c>
       <c r="I3">
-        <v>2.24</v>
+        <v>2.74</v>
       </c>
       <c r="J3">
-        <v>0.97</v>
+        <v>1.18</v>
       </c>
       <c r="K3">
-        <v>0.5599999999999999</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="L3">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="M3">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="N3">
-        <v>71.89</v>
+        <v>68.39</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1660,43 +1666,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.31</v>
+        <v>11.4</v>
       </c>
       <c r="C4">
-        <v>16.14</v>
+        <v>13.38</v>
       </c>
       <c r="D4">
-        <v>16.34</v>
+        <v>14.77</v>
       </c>
       <c r="E4">
-        <v>15.12</v>
+        <v>14.91</v>
       </c>
       <c r="F4">
-        <v>12.65</v>
+        <v>13.68</v>
       </c>
       <c r="G4">
-        <v>9.470000000000001</v>
+        <v>12</v>
       </c>
       <c r="H4">
-        <v>6.4</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="I4">
-        <v>4.34</v>
+        <v>5.71</v>
       </c>
       <c r="J4">
-        <v>2.42</v>
+        <v>2.87</v>
       </c>
       <c r="K4">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="L4">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="M4">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="N4">
-        <v>62.91000000000001</v>
+        <v>54.45999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1704,131 +1710,131 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>11.95</v>
+        <v>10.3</v>
       </c>
       <c r="C5">
-        <v>14.16</v>
+        <v>13.54</v>
       </c>
       <c r="D5">
-        <v>15.44</v>
+        <v>13.78</v>
       </c>
       <c r="E5">
-        <v>15.31</v>
+        <v>14.93</v>
       </c>
       <c r="F5">
-        <v>13.42</v>
+        <v>12.99</v>
       </c>
       <c r="G5">
-        <v>11.24</v>
+        <v>12.26</v>
       </c>
       <c r="H5">
-        <v>8.5</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I5">
-        <v>4.96</v>
+        <v>5.850000000000001</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>3.44</v>
       </c>
       <c r="K5">
-        <v>1.34</v>
+        <v>2.03</v>
       </c>
       <c r="L5">
-        <v>0.46</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="M5">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="N5">
-        <v>56.86</v>
+        <v>52.55</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>7.580000000000001</v>
+        <v>9.030000000000001</v>
       </c>
       <c r="C6">
-        <v>11.16</v>
+        <v>12.65</v>
       </c>
       <c r="D6">
-        <v>13.68</v>
+        <v>14.04</v>
       </c>
       <c r="E6">
-        <v>13.63</v>
+        <v>13.81</v>
       </c>
       <c r="F6">
-        <v>13.06</v>
+        <v>13.43</v>
       </c>
       <c r="G6">
-        <v>12.65</v>
+        <v>11.98</v>
       </c>
       <c r="H6">
-        <v>10.2</v>
+        <v>9.33</v>
       </c>
       <c r="I6">
-        <v>7.86</v>
+        <v>7.08</v>
       </c>
       <c r="J6">
-        <v>5.09</v>
+        <v>4.2</v>
       </c>
       <c r="K6">
-        <v>3.04</v>
+        <v>2.41</v>
       </c>
       <c r="L6">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="M6">
-        <v>0.53</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="N6">
-        <v>46.05</v>
+        <v>49.53</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>3.52</v>
+        <v>4.29</v>
       </c>
       <c r="C7">
-        <v>6.83</v>
+        <v>7.75</v>
       </c>
       <c r="D7">
-        <v>9.359999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="E7">
-        <v>11.37</v>
+        <v>12.09</v>
       </c>
       <c r="F7">
-        <v>13.28</v>
+        <v>13.14</v>
       </c>
       <c r="G7">
-        <v>13.2</v>
+        <v>13.19</v>
       </c>
       <c r="H7">
-        <v>12.81</v>
+        <v>11.98</v>
       </c>
       <c r="I7">
-        <v>9.869999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J7">
-        <v>8.51</v>
+        <v>7.06</v>
       </c>
       <c r="K7">
-        <v>5.73</v>
+        <v>5.24</v>
       </c>
       <c r="L7">
-        <v>3.73</v>
+        <v>3.14</v>
       </c>
       <c r="M7">
-        <v>1.79</v>
+        <v>2.03</v>
       </c>
       <c r="N7">
-        <v>31.08</v>
+        <v>34.33</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1836,131 +1842,131 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>1.52</v>
+        <v>3.88</v>
       </c>
       <c r="C8">
-        <v>3.39</v>
+        <v>7.539999999999999</v>
       </c>
       <c r="D8">
-        <v>5.02</v>
+        <v>10.65</v>
       </c>
       <c r="E8">
-        <v>7.84</v>
+        <v>11.61</v>
       </c>
       <c r="F8">
-        <v>10.68</v>
+        <v>12.78</v>
       </c>
       <c r="G8">
-        <v>12.2</v>
+        <v>13.53</v>
       </c>
       <c r="H8">
-        <v>12.49</v>
+        <v>11.61</v>
       </c>
       <c r="I8">
-        <v>12.68</v>
+        <v>9.83</v>
       </c>
       <c r="J8">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="K8">
-        <v>9.640000000000001</v>
+        <v>5.510000000000001</v>
       </c>
       <c r="L8">
-        <v>7.59</v>
+        <v>3.51</v>
       </c>
       <c r="M8">
-        <v>4.95</v>
+        <v>2.05</v>
       </c>
       <c r="N8">
-        <v>17.77</v>
+        <v>33.68</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.7000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="C9">
-        <v>1.79</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="D9">
-        <v>3.71</v>
+        <v>2.24</v>
       </c>
       <c r="E9">
-        <v>6.23</v>
+        <v>3.83</v>
       </c>
       <c r="F9">
-        <v>9.15</v>
+        <v>6.279999999999999</v>
       </c>
       <c r="G9">
-        <v>11.2</v>
+        <v>7.99</v>
       </c>
       <c r="H9">
-        <v>12.22</v>
+        <v>11.31</v>
       </c>
       <c r="I9">
-        <v>13.53</v>
+        <v>12.52</v>
       </c>
       <c r="J9">
-        <v>12.66</v>
+        <v>13.8</v>
       </c>
       <c r="K9">
-        <v>11.72</v>
+        <v>13.88</v>
       </c>
       <c r="L9">
-        <v>9.379999999999999</v>
+        <v>13.3</v>
       </c>
       <c r="M9">
-        <v>7.71</v>
+        <v>13.54</v>
       </c>
       <c r="N9">
-        <v>12.43</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="C10">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="D10">
-        <v>1.52</v>
+        <v>1.08</v>
       </c>
       <c r="E10">
-        <v>2.78</v>
+        <v>1.72</v>
       </c>
       <c r="F10">
-        <v>4.52</v>
+        <v>3.88</v>
       </c>
       <c r="G10">
-        <v>7.16</v>
+        <v>5.87</v>
       </c>
       <c r="H10">
-        <v>9.99</v>
+        <v>9.07</v>
       </c>
       <c r="I10">
-        <v>12.52</v>
+        <v>11.55</v>
       </c>
       <c r="J10">
-        <v>14.43</v>
+        <v>14.45</v>
       </c>
       <c r="K10">
-        <v>15.25</v>
+        <v>15.35</v>
       </c>
       <c r="L10">
-        <v>14.9</v>
+        <v>16.48</v>
       </c>
       <c r="M10">
-        <v>16.24</v>
+        <v>20.02</v>
       </c>
       <c r="N10">
-        <v>4.99</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1968,43 +1974,43 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0.06999999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="C11">
-        <v>0.34</v>
+        <v>0.14</v>
       </c>
       <c r="D11">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
       <c r="E11">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="F11">
-        <v>3.07</v>
+        <v>2.26</v>
       </c>
       <c r="G11">
-        <v>5.56</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="H11">
-        <v>9.35</v>
+        <v>6.239999999999999</v>
       </c>
       <c r="I11">
-        <v>11.79</v>
+        <v>9.94</v>
       </c>
       <c r="J11">
-        <v>13.86</v>
+        <v>14.09</v>
       </c>
       <c r="K11">
-        <v>15.49</v>
+        <v>16.52</v>
       </c>
       <c r="L11">
-        <v>18.08</v>
+        <v>20.07</v>
       </c>
       <c r="M11">
-        <v>20.4</v>
+        <v>24.96</v>
       </c>
       <c r="N11">
-        <v>2.4</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2015,40 +2021,40 @@
         <v>0.04</v>
       </c>
       <c r="C12">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="D12">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
       <c r="E12">
-        <v>1.24</v>
+        <v>0.91</v>
       </c>
       <c r="F12">
-        <v>2.48</v>
+        <v>1.93</v>
       </c>
       <c r="G12">
-        <v>4.55</v>
+        <v>3.94</v>
       </c>
       <c r="H12">
-        <v>8.110000000000001</v>
+        <v>7.61</v>
       </c>
       <c r="I12">
-        <v>11.65</v>
+        <v>12.59</v>
       </c>
       <c r="J12">
-        <v>14.3</v>
+        <v>16.52</v>
       </c>
       <c r="K12">
-        <v>17.6</v>
+        <v>18.6</v>
       </c>
       <c r="L12">
-        <v>18.83</v>
+        <v>20.27</v>
       </c>
       <c r="M12">
-        <v>20.57</v>
+        <v>17.14</v>
       </c>
       <c r="N12">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2056,43 +2062,43 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C13">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="D13">
-        <v>0.16</v>
+        <v>0.42</v>
       </c>
       <c r="E13">
-        <v>0.42</v>
+        <v>1.09</v>
       </c>
       <c r="F13">
-        <v>1.06</v>
+        <v>2.08</v>
       </c>
       <c r="G13">
-        <v>2.29</v>
+        <v>4.25</v>
       </c>
       <c r="H13">
-        <v>4.58</v>
+        <v>7.449999999999999</v>
       </c>
       <c r="I13">
-        <v>8.24</v>
+        <v>11.97</v>
       </c>
       <c r="J13">
-        <v>12.6</v>
+        <v>14.79</v>
       </c>
       <c r="K13">
-        <v>18.39</v>
+        <v>18.55</v>
       </c>
       <c r="L13">
-        <v>24.82</v>
+        <v>20.17</v>
       </c>
       <c r="M13">
-        <v>27.4</v>
+        <v>19.03</v>
       </c>
       <c r="N13">
-        <v>0.62</v>
+        <v>1.71</v>
       </c>
     </row>
   </sheetData>
@@ -2110,16 +2116,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2127,16 +2133,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2144,16 +2150,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2161,16 +2167,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2181,13 +2187,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2195,16 +2201,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2212,13 +2218,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -2232,13 +2238,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2246,16 +2252,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2263,16 +2269,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2280,16 +2286,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2300,10 +2306,10 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -2317,13 +2323,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>-19</v>
+        <v>-21</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2333,90 +2339,102 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
       <c r="C2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>5</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2432,51 +2450,60 @@
       <c r="E5">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>-4</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2492,71 +2519,83 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8">
+        <v>-4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
+        <v>-8</v>
+      </c>
+      <c r="D9">
+        <v>-4</v>
+      </c>
+      <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9">
+        <v>-7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>-11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>-2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>-1</v>
       </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>-2</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="E10">
+      <c r="E11">
         <v>-3</v>
       </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>-8</v>
-      </c>
-      <c r="D11">
-        <v>-4</v>
-      </c>
-      <c r="E11">
-        <v>-5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11">
+        <v>-12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2572,11 +2611,14 @@
       <c r="E12">
         <v>-18</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12">
+        <v>-20</v>
+      </c>
+      <c r="G12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2592,8 +2634,11 @@
       <c r="E13">
         <v>-19</v>
       </c>
-      <c r="F13" t="s">
-        <v>46</v>
+      <c r="F13">
+        <v>-21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2603,7 +2648,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2611,25 +2656,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2741,25 +2786,77 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>-4</v>
+      </c>
+      <c r="F6">
+        <v>-7</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>-12</v>
+      </c>
+      <c r="F8">
+        <v>-11</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Family Fantasy 2024.xlsx
+++ b/Family Fantasy 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="60">
   <si>
     <t>Breeces Pieces</t>
   </si>
@@ -58,22 +58,25 @@
     <t>AnaKen SkyWalkers</t>
   </si>
   <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -139,33 +142,27 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑10</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -609,22 +609,22 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -650,19 +650,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -671,16 +671,16 @@
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -688,40 +688,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -729,40 +729,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -770,40 +770,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -817,31 +817,31 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
@@ -852,13 +852,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -879,13 +879,13 @@
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -893,40 +893,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -934,19 +934,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -958,16 +958,16 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -978,7 +978,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -987,16 +987,16 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -1008,7 +1008,7 @@
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1016,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1028,13 +1028,13 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -1043,13 +1043,13 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1057,10 +1057,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1069,28 +1069,28 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1108,13 +1108,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1125,10 +1125,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>1.666666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1136,10 +1136,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1150,13 +1150,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.166666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2.333333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2.416666666666667</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>2.583333333333333</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>2.666666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>2.833333333333333</v>
+        <v>3.25</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>3.166666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>3.166666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1279,10 +1279,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>3.25</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1300,16 +1300,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1320,13 +1320,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.916666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.08333333333333348</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1334,16 +1334,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>3.333333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.6666666666666665</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1351,16 +1351,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>3.333333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D4">
-        <v>0.3333333333333335</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1371,13 +1371,13 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>3.25</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>0.5833333333333335</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1385,16 +1385,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>3.083333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D6">
-        <v>0.08333333333333348</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1402,16 +1402,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2.833333333333333</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.1666666666666665</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1422,13 +1422,13 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>2.75</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D8">
-        <v>0.75</v>
+        <v>0.8333333333333335</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1436,16 +1436,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>1.833333333333333</v>
+        <v>2.75</v>
       </c>
       <c r="D9">
-        <v>0.8333333333333333</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1453,16 +1453,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="D10">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1473,13 +1473,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1490,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.333333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="D12">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1507,13 +1507,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1.083333333333333</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D13">
-        <v>0.08333333333333326</v>
+        <v>-0.5833333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1531,46 +1531,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1578,43 +1578,43 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>42.1</v>
+        <v>44.91</v>
       </c>
       <c r="C2">
-        <v>25.68</v>
+        <v>29.89</v>
       </c>
       <c r="D2">
-        <v>15.1</v>
+        <v>13.59</v>
       </c>
       <c r="E2">
-        <v>8.540000000000001</v>
+        <v>6.38</v>
       </c>
       <c r="F2">
-        <v>4.74</v>
+        <v>2.65</v>
       </c>
       <c r="G2">
-        <v>2.48</v>
+        <v>1.54</v>
       </c>
       <c r="H2">
-        <v>0.89</v>
+        <v>0.52</v>
       </c>
       <c r="I2">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="L2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>91.42</v>
+        <v>94.77</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1622,219 +1622,219 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>18.48</v>
+        <v>29.21</v>
       </c>
       <c r="C3">
-        <v>17.63</v>
+        <v>22.28</v>
       </c>
       <c r="D3">
-        <v>16.82</v>
+        <v>17.74</v>
       </c>
       <c r="E3">
-        <v>15.46</v>
+        <v>10.86</v>
       </c>
       <c r="F3">
-        <v>12.81</v>
+        <v>7.99</v>
       </c>
       <c r="G3">
-        <v>8.41</v>
+        <v>5.13</v>
       </c>
       <c r="H3">
-        <v>5.74</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>2.74</v>
+        <v>1.97</v>
       </c>
       <c r="J3">
-        <v>1.18</v>
+        <v>0.98</v>
       </c>
       <c r="K3">
-        <v>0.5499999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="L3">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="M3">
         <v>0.06</v>
       </c>
       <c r="N3">
-        <v>68.39</v>
+        <v>80.09</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>11.4</v>
+        <v>7.51</v>
       </c>
       <c r="C4">
-        <v>13.38</v>
+        <v>10.05</v>
       </c>
       <c r="D4">
-        <v>14.77</v>
+        <v>12.69</v>
       </c>
       <c r="E4">
-        <v>14.91</v>
+        <v>12.69</v>
       </c>
       <c r="F4">
-        <v>13.68</v>
+        <v>13.32</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>10.46</v>
       </c>
       <c r="H4">
-        <v>9.220000000000001</v>
+        <v>10.49</v>
       </c>
       <c r="I4">
-        <v>5.71</v>
+        <v>8.6</v>
       </c>
       <c r="J4">
-        <v>2.87</v>
+        <v>5.850000000000001</v>
       </c>
       <c r="K4">
-        <v>1.35</v>
+        <v>4.26</v>
       </c>
       <c r="L4">
-        <v>0.45</v>
+        <v>2.62</v>
       </c>
       <c r="M4">
-        <v>0.26</v>
+        <v>1.46</v>
       </c>
       <c r="N4">
-        <v>54.45999999999999</v>
+        <v>42.94</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>10.3</v>
+        <v>7.24</v>
       </c>
       <c r="C5">
-        <v>13.54</v>
+        <v>10.86</v>
       </c>
       <c r="D5">
-        <v>13.78</v>
+        <v>12.04</v>
       </c>
       <c r="E5">
-        <v>14.93</v>
+        <v>13.14</v>
       </c>
       <c r="F5">
-        <v>12.99</v>
+        <v>12.52</v>
       </c>
       <c r="G5">
-        <v>12.26</v>
+        <v>10.29</v>
       </c>
       <c r="H5">
-        <v>9.550000000000001</v>
+        <v>11.15</v>
       </c>
       <c r="I5">
-        <v>5.850000000000001</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="J5">
-        <v>3.44</v>
+        <v>6.16</v>
       </c>
       <c r="K5">
-        <v>2.03</v>
+        <v>4.95</v>
       </c>
       <c r="L5">
-        <v>0.9900000000000001</v>
+        <v>2.81</v>
       </c>
       <c r="M5">
-        <v>0.34</v>
+        <v>1.66</v>
       </c>
       <c r="N5">
-        <v>52.55</v>
+        <v>43.28</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>9.030000000000001</v>
+        <v>3.83</v>
       </c>
       <c r="C6">
-        <v>12.65</v>
+        <v>7.580000000000001</v>
       </c>
       <c r="D6">
-        <v>14.04</v>
+        <v>9.68</v>
       </c>
       <c r="E6">
-        <v>13.81</v>
+        <v>11.9</v>
       </c>
       <c r="F6">
-        <v>13.43</v>
+        <v>10.78</v>
       </c>
       <c r="G6">
-        <v>11.98</v>
+        <v>11.28</v>
       </c>
       <c r="H6">
-        <v>9.33</v>
+        <v>11.16</v>
       </c>
       <c r="I6">
-        <v>7.08</v>
+        <v>8.44</v>
       </c>
       <c r="J6">
-        <v>4.2</v>
+        <v>9.180000000000001</v>
       </c>
       <c r="K6">
-        <v>2.41</v>
+        <v>7.149999999999999</v>
       </c>
       <c r="L6">
-        <v>1.47</v>
+        <v>5.23</v>
       </c>
       <c r="M6">
-        <v>0.5700000000000001</v>
+        <v>3.79</v>
       </c>
       <c r="N6">
-        <v>49.53</v>
+        <v>32.98999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>4.29</v>
+        <v>2.71</v>
       </c>
       <c r="C7">
-        <v>7.75</v>
+        <v>5.84</v>
       </c>
       <c r="D7">
-        <v>10.2</v>
+        <v>8.02</v>
       </c>
       <c r="E7">
-        <v>12.09</v>
+        <v>10.65</v>
       </c>
       <c r="F7">
-        <v>13.14</v>
+        <v>9.43</v>
       </c>
       <c r="G7">
-        <v>13.19</v>
+        <v>11.9</v>
       </c>
       <c r="H7">
-        <v>11.98</v>
+        <v>11.03</v>
       </c>
       <c r="I7">
-        <v>9.890000000000001</v>
+        <v>9.02</v>
       </c>
       <c r="J7">
-        <v>7.06</v>
+        <v>10.19</v>
       </c>
       <c r="K7">
-        <v>5.24</v>
+        <v>8.35</v>
       </c>
       <c r="L7">
-        <v>3.14</v>
+        <v>7.109999999999999</v>
       </c>
       <c r="M7">
-        <v>2.03</v>
+        <v>5.75</v>
       </c>
       <c r="N7">
-        <v>34.33</v>
+        <v>27.22</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1842,43 +1842,43 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>3.88</v>
+        <v>1.56</v>
       </c>
       <c r="C8">
-        <v>7.539999999999999</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="D8">
-        <v>10.65</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E8">
-        <v>11.61</v>
+        <v>9.31</v>
       </c>
       <c r="F8">
-        <v>12.78</v>
+        <v>10.6</v>
       </c>
       <c r="G8">
-        <v>13.53</v>
+        <v>11.81</v>
       </c>
       <c r="H8">
-        <v>11.61</v>
+        <v>9.59</v>
       </c>
       <c r="I8">
-        <v>9.83</v>
+        <v>10.89</v>
       </c>
       <c r="J8">
-        <v>7.5</v>
+        <v>10.48</v>
       </c>
       <c r="K8">
-        <v>5.510000000000001</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="L8">
-        <v>3.51</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="M8">
-        <v>2.05</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="N8">
-        <v>33.68</v>
+        <v>23.31</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1886,43 +1886,43 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.32</v>
+        <v>1.47</v>
       </c>
       <c r="C9">
-        <v>0.9900000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="D9">
-        <v>2.24</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="E9">
-        <v>3.83</v>
+        <v>8.709999999999999</v>
       </c>
       <c r="F9">
-        <v>6.279999999999999</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="G9">
-        <v>7.99</v>
+        <v>11.91</v>
       </c>
       <c r="H9">
-        <v>11.31</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="I9">
-        <v>12.52</v>
+        <v>10.37</v>
       </c>
       <c r="J9">
-        <v>13.8</v>
+        <v>11.5</v>
       </c>
       <c r="K9">
-        <v>13.88</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="L9">
-        <v>13.3</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="M9">
-        <v>13.54</v>
+        <v>7.86</v>
       </c>
       <c r="N9">
-        <v>7.38</v>
+        <v>20.97</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1930,175 +1930,175 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.09</v>
+        <v>1.29</v>
       </c>
       <c r="C10">
-        <v>0.44</v>
+        <v>3.74</v>
       </c>
       <c r="D10">
-        <v>1.08</v>
+        <v>7.17</v>
       </c>
       <c r="E10">
-        <v>1.72</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F10">
-        <v>3.88</v>
+        <v>10.43</v>
       </c>
       <c r="G10">
-        <v>5.87</v>
+        <v>10.55</v>
       </c>
       <c r="H10">
-        <v>9.07</v>
+        <v>9.65</v>
       </c>
       <c r="I10">
-        <v>11.55</v>
+        <v>12.27</v>
       </c>
       <c r="J10">
-        <v>14.45</v>
+        <v>9.790000000000001</v>
       </c>
       <c r="K10">
-        <v>15.35</v>
+        <v>9.48</v>
       </c>
       <c r="L10">
-        <v>16.48</v>
+        <v>9</v>
       </c>
       <c r="M10">
-        <v>20.02</v>
+        <v>7.68</v>
       </c>
       <c r="N10">
-        <v>3.33</v>
+        <v>21.15</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="C11">
-        <v>0.14</v>
+        <v>0.49</v>
       </c>
       <c r="D11">
-        <v>0.53</v>
+        <v>1.64</v>
       </c>
       <c r="E11">
-        <v>1.1</v>
+        <v>3.02</v>
       </c>
       <c r="F11">
-        <v>2.26</v>
+        <v>4.92</v>
       </c>
       <c r="G11">
-        <v>4.100000000000001</v>
+        <v>5.73</v>
       </c>
       <c r="H11">
-        <v>6.239999999999999</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="I11">
-        <v>9.94</v>
+        <v>11.32</v>
       </c>
       <c r="J11">
-        <v>14.09</v>
+        <v>11.39</v>
       </c>
       <c r="K11">
-        <v>16.52</v>
+        <v>15.94</v>
       </c>
       <c r="L11">
-        <v>20.07</v>
+        <v>17.88</v>
       </c>
       <c r="M11">
-        <v>24.96</v>
+        <v>18.98</v>
       </c>
       <c r="N11">
-        <v>1.82</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="C12">
-        <v>0.08</v>
+        <v>0.62</v>
       </c>
       <c r="D12">
-        <v>0.37</v>
+        <v>1.64</v>
       </c>
       <c r="E12">
-        <v>0.91</v>
+        <v>2.5</v>
       </c>
       <c r="F12">
-        <v>1.93</v>
+        <v>5.12</v>
       </c>
       <c r="G12">
-        <v>3.94</v>
+        <v>5.13</v>
       </c>
       <c r="H12">
-        <v>7.61</v>
+        <v>7.46</v>
       </c>
       <c r="I12">
-        <v>12.59</v>
+        <v>10.08</v>
       </c>
       <c r="J12">
-        <v>16.52</v>
+        <v>10.99</v>
       </c>
       <c r="K12">
-        <v>18.6</v>
+        <v>14.53</v>
       </c>
       <c r="L12">
-        <v>20.27</v>
+        <v>17.2</v>
       </c>
       <c r="M12">
-        <v>17.14</v>
+        <v>24.65</v>
       </c>
       <c r="N12">
-        <v>1.4</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C13">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="D13">
-        <v>0.42</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="E13">
-        <v>1.09</v>
+        <v>1.89</v>
       </c>
       <c r="F13">
-        <v>2.08</v>
+        <v>2.7</v>
       </c>
       <c r="G13">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="H13">
-        <v>7.449999999999999</v>
+        <v>7.62</v>
       </c>
       <c r="I13">
-        <v>11.97</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="J13">
-        <v>14.79</v>
+        <v>13.35</v>
       </c>
       <c r="K13">
-        <v>18.55</v>
+        <v>17.45</v>
       </c>
       <c r="L13">
-        <v>20.17</v>
+        <v>20.85</v>
       </c>
       <c r="M13">
-        <v>19.03</v>
+        <v>21.11</v>
       </c>
       <c r="N13">
-        <v>1.71</v>
+        <v>3.13</v>
       </c>
     </row>
   </sheetData>
@@ -2116,16 +2116,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2133,16 +2133,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2150,16 +2150,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2167,16 +2167,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2184,16 +2184,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2201,16 +2201,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2218,16 +2218,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2235,16 +2235,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>-4</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2255,13 +2255,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2269,16 +2269,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2295,7 +2295,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2306,13 +2306,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2323,10 +2323,10 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>-21</v>
+        <v>-28</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -2339,194 +2339,218 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="G3">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
         <v>9</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
       </c>
       <c r="F4">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>-4</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>-1</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7">
+        <v>-2</v>
+      </c>
+      <c r="H7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>-4</v>
-      </c>
-      <c r="C7">
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8">
-        <v>-2</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
+        <v>-11</v>
+      </c>
+      <c r="G8">
         <v>-4</v>
       </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2545,34 +2569,40 @@
       <c r="F9">
         <v>-7</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9">
+        <v>-5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>-4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>-6</v>
+      </c>
+      <c r="H10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>-11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2591,11 +2621,14 @@
       <c r="F11">
         <v>-12</v>
       </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11">
+        <v>-12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2614,11 +2647,14 @@
       <c r="F12">
         <v>-20</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12">
+        <v>-15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2637,7 +2673,10 @@
       <c r="F13">
         <v>-21</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13">
+        <v>-28</v>
+      </c>
+      <c r="H13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2682,25 +2721,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>-28</v>
       </c>
       <c r="F2">
-        <v>-18</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2711,22 +2750,22 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>-19</v>
+        <v>-1</v>
       </c>
       <c r="F3">
-        <v>-5</v>
+        <v>-18</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2734,25 +2773,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>-19</v>
       </c>
       <c r="F4">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2760,25 +2799,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
       <c r="E5">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>-11</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2786,25 +2825,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>-4</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2812,25 +2851,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2841,22 +2880,22 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="F8">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Family Fantasy 2024.xlsx
+++ b/Family Fantasy 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="65">
   <si>
     <t>Breeces Pieces</t>
   </si>
@@ -58,25 +58,28 @@
     <t>AnaKen SkyWalkers</t>
   </si>
   <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>7-0-0</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -142,25 +145,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>↑7</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -179,6 +191,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -609,37 +624,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -650,37 +665,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
         <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -694,34 +709,34 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -735,34 +750,34 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -788,7 +803,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
@@ -803,7 +818,7 @@
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -817,7 +832,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -829,13 +844,13 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
@@ -858,7 +873,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -870,13 +885,13 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
@@ -885,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -940,25 +955,25 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -967,7 +982,7 @@
         <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -975,40 +990,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1034,13 +1049,13 @@
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
         <v>15</v>
@@ -1060,37 +1075,37 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1108,13 +1123,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1122,13 +1137,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>1.833333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1136,10 +1151,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1150,13 +1165,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.5</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1164,13 +1179,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1178,10 +1193,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2.916666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1192,13 +1207,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1206,10 +1221,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>3.083333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1220,13 +1235,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>3.166666666666667</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1234,13 +1249,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>3.25</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1251,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3.416666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1262,13 +1277,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1279,7 +1294,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>4.083333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1300,16 +1315,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1320,13 +1335,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.833333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D2">
-        <v>-0.166666666666667</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1337,13 +1352,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>4.166666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D3">
         <v>0.166666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1351,16 +1366,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>3.583333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="D4">
-        <v>-1.416666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1368,16 +1383,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3.583333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D5">
-        <v>0.5833333333333335</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1388,10 +1403,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1402,16 +1417,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>3.083333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D7">
-        <v>0.08333333333333348</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1422,10 +1437,10 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>2.833333333333333</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D8">
-        <v>0.8333333333333335</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -1439,13 +1454,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>2.75</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.25</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1456,13 +1471,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1470,16 +1485,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1487,16 +1502,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>1.75</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D12">
-        <v>0.75</v>
+        <v>-0.9166666666666665</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1507,10 +1522,10 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1.416666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D13">
-        <v>-0.5833333333333333</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -1531,398 +1546,398 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>44.91</v>
+        <v>38.44</v>
       </c>
       <c r="C2">
-        <v>29.89</v>
+        <v>22.73</v>
       </c>
       <c r="D2">
-        <v>13.59</v>
+        <v>15.61</v>
       </c>
       <c r="E2">
-        <v>6.38</v>
+        <v>10.58</v>
       </c>
       <c r="F2">
-        <v>2.65</v>
+        <v>5.27</v>
       </c>
       <c r="G2">
-        <v>1.54</v>
+        <v>3.51</v>
       </c>
       <c r="H2">
-        <v>0.52</v>
+        <v>2.12</v>
       </c>
       <c r="I2">
-        <v>0.34</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="J2">
-        <v>0.14</v>
+        <v>0.6</v>
       </c>
       <c r="K2">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N2">
-        <v>94.77</v>
+        <v>87.36</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>29.21</v>
+        <v>34.05</v>
       </c>
       <c r="C3">
-        <v>22.28</v>
+        <v>33.93</v>
       </c>
       <c r="D3">
-        <v>17.74</v>
+        <v>17.14</v>
       </c>
       <c r="E3">
-        <v>10.86</v>
+        <v>7.98</v>
       </c>
       <c r="F3">
-        <v>7.99</v>
+        <v>3.55</v>
       </c>
       <c r="G3">
-        <v>5.13</v>
+        <v>1.61</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="I3">
-        <v>1.97</v>
+        <v>0.41</v>
       </c>
       <c r="J3">
-        <v>0.98</v>
+        <v>0.23</v>
       </c>
       <c r="K3">
-        <v>0.52</v>
+        <v>0.08</v>
       </c>
       <c r="L3">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="M3">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>80.09</v>
+        <v>93.10000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>7.51</v>
+        <v>10.65</v>
       </c>
       <c r="C4">
-        <v>10.05</v>
+        <v>11.76</v>
       </c>
       <c r="D4">
-        <v>12.69</v>
+        <v>13.78</v>
       </c>
       <c r="E4">
-        <v>12.69</v>
+        <v>13.78</v>
       </c>
       <c r="F4">
-        <v>13.32</v>
+        <v>11.41</v>
       </c>
       <c r="G4">
-        <v>10.46</v>
+        <v>12.23</v>
       </c>
       <c r="H4">
-        <v>10.49</v>
+        <v>7.3</v>
       </c>
       <c r="I4">
-        <v>8.6</v>
+        <v>6.329999999999999</v>
       </c>
       <c r="J4">
-        <v>5.850000000000001</v>
+        <v>5.96</v>
       </c>
       <c r="K4">
-        <v>4.26</v>
+        <v>3.1</v>
       </c>
       <c r="L4">
-        <v>2.62</v>
+        <v>2.28</v>
       </c>
       <c r="M4">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="N4">
-        <v>42.94</v>
+        <v>49.97</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>7.24</v>
+        <v>6.41</v>
       </c>
       <c r="C5">
-        <v>10.86</v>
+        <v>8.67</v>
       </c>
       <c r="D5">
-        <v>12.04</v>
+        <v>11.68</v>
       </c>
       <c r="E5">
-        <v>13.14</v>
+        <v>10.76</v>
       </c>
       <c r="F5">
-        <v>12.52</v>
+        <v>12.19</v>
       </c>
       <c r="G5">
-        <v>10.29</v>
+        <v>12.41</v>
       </c>
       <c r="H5">
-        <v>11.15</v>
+        <v>7.93</v>
       </c>
       <c r="I5">
-        <v>7.180000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="J5">
-        <v>6.16</v>
+        <v>7.960000000000001</v>
       </c>
       <c r="K5">
-        <v>4.95</v>
+        <v>5.11</v>
       </c>
       <c r="L5">
-        <v>2.81</v>
+        <v>4.22</v>
       </c>
       <c r="M5">
-        <v>1.66</v>
+        <v>3.12</v>
       </c>
       <c r="N5">
-        <v>43.28</v>
+        <v>37.52</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>3.83</v>
+        <v>2.94</v>
       </c>
       <c r="C6">
-        <v>7.580000000000001</v>
+        <v>5.66</v>
       </c>
       <c r="D6">
-        <v>9.68</v>
+        <v>8.49</v>
       </c>
       <c r="E6">
-        <v>11.9</v>
+        <v>8.94</v>
       </c>
       <c r="F6">
-        <v>10.78</v>
+        <v>11.92</v>
       </c>
       <c r="G6">
-        <v>11.28</v>
+        <v>10.36</v>
       </c>
       <c r="H6">
-        <v>11.16</v>
+        <v>8.85</v>
       </c>
       <c r="I6">
-        <v>8.44</v>
+        <v>11.99</v>
       </c>
       <c r="J6">
-        <v>9.180000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="K6">
-        <v>7.149999999999999</v>
+        <v>7.920000000000001</v>
       </c>
       <c r="L6">
-        <v>5.23</v>
+        <v>7.86</v>
       </c>
       <c r="M6">
-        <v>3.79</v>
+        <v>6.19</v>
       </c>
       <c r="N6">
-        <v>32.98999999999999</v>
+        <v>26.03</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>2.71</v>
+        <v>2.19</v>
       </c>
       <c r="C7">
-        <v>5.84</v>
+        <v>4.34</v>
       </c>
       <c r="D7">
-        <v>8.02</v>
+        <v>6.88</v>
       </c>
       <c r="E7">
-        <v>10.65</v>
+        <v>7.82</v>
       </c>
       <c r="F7">
-        <v>9.43</v>
+        <v>11.59</v>
       </c>
       <c r="G7">
-        <v>11.9</v>
+        <v>8.9</v>
       </c>
       <c r="H7">
-        <v>11.03</v>
+        <v>9.82</v>
       </c>
       <c r="I7">
-        <v>9.02</v>
+        <v>12.74</v>
       </c>
       <c r="J7">
-        <v>10.19</v>
+        <v>8.57</v>
       </c>
       <c r="K7">
-        <v>8.35</v>
+        <v>9.569999999999999</v>
       </c>
       <c r="L7">
-        <v>7.109999999999999</v>
+        <v>8.98</v>
       </c>
       <c r="M7">
-        <v>5.75</v>
+        <v>8.6</v>
       </c>
       <c r="N7">
-        <v>27.22</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="C8">
-        <v>4.390000000000001</v>
+        <v>3.58</v>
       </c>
       <c r="D8">
-        <v>8.050000000000001</v>
+        <v>6.950000000000001</v>
       </c>
       <c r="E8">
-        <v>9.31</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="F8">
-        <v>10.6</v>
+        <v>10.74</v>
       </c>
       <c r="G8">
-        <v>11.81</v>
+        <v>7.93</v>
       </c>
       <c r="H8">
-        <v>9.59</v>
+        <v>11.68</v>
       </c>
       <c r="I8">
-        <v>10.89</v>
+        <v>12.3</v>
       </c>
       <c r="J8">
-        <v>10.48</v>
+        <v>7.93</v>
       </c>
       <c r="K8">
-        <v>8.039999999999999</v>
+        <v>10.26</v>
       </c>
       <c r="L8">
-        <v>8.279999999999999</v>
+        <v>8.94</v>
       </c>
       <c r="M8">
-        <v>7.000000000000001</v>
+        <v>8.75</v>
       </c>
       <c r="N8">
-        <v>23.31</v>
+        <v>21.47</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>3.34</v>
       </c>
       <c r="D9">
-        <v>6.890000000000001</v>
+        <v>6.17</v>
       </c>
       <c r="E9">
-        <v>8.709999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F9">
-        <v>9.539999999999999</v>
+        <v>9.66</v>
       </c>
       <c r="G9">
-        <v>11.91</v>
+        <v>8.49</v>
       </c>
       <c r="H9">
-        <v>9.700000000000001</v>
+        <v>12.37</v>
       </c>
       <c r="I9">
-        <v>10.37</v>
+        <v>9.94</v>
       </c>
       <c r="J9">
-        <v>11.5</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="K9">
-        <v>9.289999999999999</v>
+        <v>10.98</v>
       </c>
       <c r="L9">
-        <v>8.859999999999999</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="M9">
-        <v>7.86</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="N9">
-        <v>20.97</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1930,131 +1945,131 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="C10">
-        <v>3.74</v>
+        <v>3.52</v>
       </c>
       <c r="D10">
-        <v>7.17</v>
+        <v>6.52</v>
       </c>
       <c r="E10">
-        <v>8.949999999999999</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="F10">
-        <v>10.43</v>
+        <v>9.35</v>
       </c>
       <c r="G10">
-        <v>10.55</v>
+        <v>10.11</v>
       </c>
       <c r="H10">
-        <v>9.65</v>
+        <v>13.29</v>
       </c>
       <c r="I10">
-        <v>12.27</v>
+        <v>8.84</v>
       </c>
       <c r="J10">
-        <v>9.790000000000001</v>
+        <v>9.180000000000001</v>
       </c>
       <c r="K10">
-        <v>9.48</v>
+        <v>11.04</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>8.27</v>
       </c>
       <c r="M10">
-        <v>7.68</v>
+        <v>8.709999999999999</v>
       </c>
       <c r="N10">
-        <v>21.15</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0.16</v>
+        <v>0.47</v>
       </c>
       <c r="C11">
-        <v>0.49</v>
+        <v>1.72</v>
       </c>
       <c r="D11">
-        <v>1.64</v>
+        <v>3.91</v>
       </c>
       <c r="E11">
-        <v>3.02</v>
+        <v>6.68</v>
       </c>
       <c r="F11">
-        <v>4.92</v>
+        <v>6.49</v>
       </c>
       <c r="G11">
-        <v>5.73</v>
+        <v>10.25</v>
       </c>
       <c r="H11">
-        <v>8.529999999999999</v>
+        <v>11.42</v>
       </c>
       <c r="I11">
-        <v>11.32</v>
+        <v>8.33</v>
       </c>
       <c r="J11">
-        <v>11.39</v>
+        <v>12.39</v>
       </c>
       <c r="K11">
-        <v>15.94</v>
+        <v>12.58</v>
       </c>
       <c r="L11">
-        <v>17.88</v>
+        <v>11.96</v>
       </c>
       <c r="M11">
-        <v>18.98</v>
+        <v>13.8</v>
       </c>
       <c r="N11">
-        <v>5.31</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="C12">
-        <v>0.62</v>
+        <v>0.44</v>
       </c>
       <c r="D12">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="E12">
-        <v>2.5</v>
+        <v>3.03</v>
       </c>
       <c r="F12">
-        <v>5.12</v>
+        <v>3.89</v>
       </c>
       <c r="G12">
-        <v>5.13</v>
+        <v>7.33</v>
       </c>
       <c r="H12">
-        <v>7.46</v>
+        <v>7.64</v>
       </c>
       <c r="I12">
-        <v>10.08</v>
+        <v>7.89</v>
       </c>
       <c r="J12">
-        <v>10.99</v>
+        <v>14.46</v>
       </c>
       <c r="K12">
-        <v>14.53</v>
+        <v>14.13</v>
       </c>
       <c r="L12">
-        <v>17.2</v>
+        <v>17.69</v>
       </c>
       <c r="M12">
-        <v>24.65</v>
+        <v>21.9</v>
       </c>
       <c r="N12">
-        <v>4.84</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2062,43 +2077,43 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="C13">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="D13">
-        <v>0.8500000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="E13">
-        <v>1.89</v>
+        <v>2.56</v>
       </c>
       <c r="F13">
-        <v>2.7</v>
+        <v>3.94</v>
       </c>
       <c r="G13">
-        <v>4.27</v>
+        <v>6.87</v>
       </c>
       <c r="H13">
-        <v>7.62</v>
+        <v>6.569999999999999</v>
       </c>
       <c r="I13">
-        <v>9.520000000000001</v>
+        <v>10.77</v>
       </c>
       <c r="J13">
-        <v>13.35</v>
+        <v>14.72</v>
       </c>
       <c r="K13">
-        <v>17.45</v>
+        <v>15.05</v>
       </c>
       <c r="L13">
-        <v>20.85</v>
+        <v>19.91</v>
       </c>
       <c r="M13">
-        <v>21.11</v>
+        <v>17.87</v>
       </c>
       <c r="N13">
-        <v>3.13</v>
+        <v>4.300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2116,16 +2131,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2136,13 +2151,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2150,16 +2165,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2167,16 +2182,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2187,13 +2202,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2201,16 +2216,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2218,16 +2233,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2235,16 +2250,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2255,13 +2270,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2269,16 +2284,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2286,16 +2301,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2306,13 +2321,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>-15</v>
+        <v>-21</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2323,13 +2338,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>-28</v>
+        <v>-27</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2339,36 +2354,39 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2390,63 +2408,72 @@
       <c r="G2">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>9</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>9</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2468,89 +2495,101 @@
       <c r="G5">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>-2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-1</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>-2</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-4</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
+      <c r="H7">
+        <v>-3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>-1</v>
       </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>-2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F8">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="G8">
-        <v>-4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-12</v>
+      </c>
+      <c r="H8">
+        <v>-5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2572,63 +2611,72 @@
       <c r="G9">
         <v>-5</v>
       </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9">
+        <v>-9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>-11</v>
+      </c>
+      <c r="G10">
         <v>-4</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>-6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10">
+        <v>-10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>-12</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>-12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-6</v>
+      </c>
+      <c r="H11">
+        <v>-14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2650,11 +2698,14 @@
       <c r="G12">
         <v>-15</v>
       </c>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12">
+        <v>-21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2676,8 +2727,11 @@
       <c r="G13">
         <v>-28</v>
       </c>
-      <c r="H13" t="s">
-        <v>45</v>
+      <c r="H13">
+        <v>-27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2695,25 +2749,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/Family Fantasy 2024.xlsx
+++ b/Family Fantasy 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="67">
   <si>
     <t>Breeces Pieces</t>
   </si>
@@ -55,31 +55,34 @@
     <t>For Me to Poop on</t>
   </si>
   <si>
-    <t>AnaKen SkyWalkers</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
+    <t>RIP Godwin</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>8-0-0</t>
+  </si>
+  <si>
+    <t>0-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -145,36 +148,36 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
     <t>↑9</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑7</t>
+    <t>↓5</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -627,13 +633,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -645,16 +651,16 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -665,37 +671,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -709,31 +715,31 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -750,31 +756,31 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
@@ -785,16 +791,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -803,22 +809,22 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -829,34 +835,34 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
@@ -867,40 +873,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -914,34 +920,34 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -949,40 +955,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -990,37 +996,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
         <v>16</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -1031,26 +1037,26 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
       <c r="I12" t="s">
         <v>13</v>
       </c>
@@ -1058,13 +1064,13 @@
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1072,40 +1078,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1123,13 +1129,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1137,13 +1143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1151,13 +1157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1165,13 +1171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.833333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1179,13 +1185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.25</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1193,13 +1199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3.25</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1207,13 +1213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1221,13 +1227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1235,13 +1241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>3.833333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1249,13 +1255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>3.916666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1263,13 +1269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>3.916666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1280,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1294,10 +1300,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>4.75</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1315,16 +1321,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1335,13 +1341,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5.666666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D2">
         <v>-0.333333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1352,13 +1358,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>5.166666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D3">
-        <v>0.166666666666667</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1369,13 +1375,13 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1383,16 +1389,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3.666666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D5">
-        <v>-0.3333333333333335</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1400,16 +1406,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>3.666666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D6">
-        <v>0.6666666666666665</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1420,13 +1426,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>3.583333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D7">
-        <v>-1.416666666666667</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1434,16 +1440,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>3.416666666666667</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D8">
-        <v>1.416666666666667</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1451,16 +1457,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>3.166666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.8333333333333335</v>
+        <v>-0.5833333333333335</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1468,16 +1474,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1488,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.416666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D11">
-        <v>1.416666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1502,16 +1508,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>2.083333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="D12">
-        <v>-0.9166666666666665</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1519,16 +1525,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>1.666666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D13">
-        <v>-0.3333333333333333</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1546,134 +1552,134 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>38.44</v>
+        <v>36.34</v>
       </c>
       <c r="C2">
-        <v>22.73</v>
+        <v>33.25</v>
       </c>
       <c r="D2">
-        <v>15.61</v>
+        <v>16.49</v>
       </c>
       <c r="E2">
-        <v>10.58</v>
+        <v>6.569999999999999</v>
       </c>
       <c r="F2">
-        <v>5.27</v>
+        <v>4.130000000000001</v>
       </c>
       <c r="G2">
-        <v>3.51</v>
+        <v>1.71</v>
       </c>
       <c r="H2">
-        <v>2.12</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="I2">
-        <v>0.9199999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="J2">
-        <v>0.6</v>
+        <v>0.22</v>
       </c>
       <c r="K2">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="L2">
         <v>0.02</v>
       </c>
       <c r="M2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="N2">
-        <v>87.36</v>
+        <v>92.64999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>34.05</v>
+        <v>33.58</v>
       </c>
       <c r="C3">
-        <v>33.93</v>
+        <v>20.96</v>
       </c>
       <c r="D3">
-        <v>17.14</v>
+        <v>15.38</v>
       </c>
       <c r="E3">
-        <v>7.98</v>
+        <v>10.53</v>
       </c>
       <c r="F3">
-        <v>3.55</v>
+        <v>8.66</v>
       </c>
       <c r="G3">
-        <v>1.61</v>
+        <v>3.6</v>
       </c>
       <c r="H3">
+        <v>2.67</v>
+      </c>
+      <c r="I3">
+        <v>2.48</v>
+      </c>
+      <c r="J3">
         <v>1.01</v>
       </c>
-      <c r="I3">
-        <v>0.41</v>
-      </c>
-      <c r="J3">
-        <v>0.23</v>
-      </c>
       <c r="K3">
-        <v>0.08</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="L3">
-        <v>0.01</v>
+        <v>0.42</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="N3">
-        <v>93.10000000000001</v>
+        <v>80.45</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1681,43 +1687,43 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>10.65</v>
+        <v>10.18</v>
       </c>
       <c r="C4">
-        <v>11.76</v>
+        <v>11.71</v>
       </c>
       <c r="D4">
-        <v>13.78</v>
+        <v>11.07</v>
       </c>
       <c r="E4">
-        <v>13.78</v>
+        <v>14.07</v>
       </c>
       <c r="F4">
-        <v>11.41</v>
+        <v>12.2</v>
       </c>
       <c r="G4">
-        <v>12.23</v>
+        <v>7.470000000000001</v>
       </c>
       <c r="H4">
-        <v>7.3</v>
+        <v>10.21</v>
       </c>
       <c r="I4">
-        <v>6.329999999999999</v>
+        <v>8.81</v>
       </c>
       <c r="J4">
-        <v>5.96</v>
+        <v>4.12</v>
       </c>
       <c r="K4">
-        <v>3.1</v>
+        <v>4.62</v>
       </c>
       <c r="L4">
-        <v>2.28</v>
+        <v>3.19</v>
       </c>
       <c r="M4">
-        <v>1.42</v>
+        <v>2.35</v>
       </c>
       <c r="N4">
-        <v>49.97</v>
+        <v>47.03</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1725,43 +1731,43 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>6.41</v>
+        <v>6.950000000000001</v>
       </c>
       <c r="C5">
-        <v>8.67</v>
+        <v>8.559999999999999</v>
       </c>
       <c r="D5">
-        <v>11.68</v>
+        <v>10.2</v>
       </c>
       <c r="E5">
-        <v>10.76</v>
+        <v>13.44</v>
       </c>
       <c r="F5">
-        <v>12.19</v>
+        <v>8.98</v>
       </c>
       <c r="G5">
-        <v>12.41</v>
+        <v>8.59</v>
       </c>
       <c r="H5">
-        <v>7.93</v>
+        <v>12.97</v>
       </c>
       <c r="I5">
-        <v>9.539999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="J5">
-        <v>7.960000000000001</v>
+        <v>5.11</v>
       </c>
       <c r="K5">
-        <v>5.11</v>
+        <v>7.290000000000001</v>
       </c>
       <c r="L5">
-        <v>4.22</v>
+        <v>5.35</v>
       </c>
       <c r="M5">
-        <v>3.12</v>
+        <v>4.04</v>
       </c>
       <c r="N5">
-        <v>37.52</v>
+        <v>39.15</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1769,219 +1775,219 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>2.94</v>
+        <v>3.37</v>
       </c>
       <c r="C6">
-        <v>5.66</v>
+        <v>4.72</v>
       </c>
       <c r="D6">
-        <v>8.49</v>
+        <v>7.8</v>
       </c>
       <c r="E6">
-        <v>8.94</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F6">
-        <v>11.92</v>
+        <v>6.32</v>
       </c>
       <c r="G6">
-        <v>10.36</v>
+        <v>10.34</v>
       </c>
       <c r="H6">
-        <v>8.85</v>
+        <v>13.46</v>
       </c>
       <c r="I6">
-        <v>11.99</v>
+        <v>7.07</v>
       </c>
       <c r="J6">
-        <v>8.880000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="K6">
-        <v>7.920000000000001</v>
+        <v>11.37</v>
       </c>
       <c r="L6">
-        <v>7.86</v>
+        <v>8.77</v>
       </c>
       <c r="M6">
-        <v>6.19</v>
+        <v>8.93</v>
       </c>
       <c r="N6">
-        <v>26.03</v>
+        <v>25.76</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="C7">
-        <v>4.34</v>
+        <v>3.84</v>
       </c>
       <c r="D7">
-        <v>6.88</v>
+        <v>6.18</v>
       </c>
       <c r="E7">
-        <v>7.82</v>
+        <v>7.56</v>
       </c>
       <c r="F7">
-        <v>11.59</v>
+        <v>6.329999999999999</v>
       </c>
       <c r="G7">
-        <v>8.9</v>
+        <v>11.77</v>
       </c>
       <c r="H7">
-        <v>9.82</v>
+        <v>11.05</v>
       </c>
       <c r="I7">
-        <v>12.74</v>
+        <v>5.92</v>
       </c>
       <c r="J7">
-        <v>8.57</v>
+        <v>11.42</v>
       </c>
       <c r="K7">
-        <v>9.569999999999999</v>
+        <v>12.11</v>
       </c>
       <c r="L7">
-        <v>8.98</v>
+        <v>9.790000000000001</v>
       </c>
       <c r="M7">
-        <v>8.6</v>
+        <v>11.95</v>
       </c>
       <c r="N7">
-        <v>21.23</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>3.58</v>
+        <v>4.14</v>
       </c>
       <c r="D8">
-        <v>6.950000000000001</v>
+        <v>7.32</v>
       </c>
       <c r="E8">
-        <v>9.210000000000001</v>
+        <v>7.39</v>
       </c>
       <c r="F8">
-        <v>10.74</v>
+        <v>10.45</v>
       </c>
       <c r="G8">
-        <v>7.93</v>
+        <v>11.52</v>
       </c>
       <c r="H8">
-        <v>11.68</v>
+        <v>6.41</v>
       </c>
       <c r="I8">
-        <v>12.3</v>
+        <v>11.1</v>
       </c>
       <c r="J8">
-        <v>7.93</v>
+        <v>12.29</v>
       </c>
       <c r="K8">
-        <v>10.26</v>
+        <v>9.01</v>
       </c>
       <c r="L8">
-        <v>8.94</v>
+        <v>9.24</v>
       </c>
       <c r="M8">
-        <v>8.75</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="N8">
-        <v>21.47</v>
+        <v>20.85</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="C9">
-        <v>3.34</v>
+        <v>3.95</v>
       </c>
       <c r="D9">
-        <v>6.17</v>
+        <v>6.9</v>
       </c>
       <c r="E9">
-        <v>8.880000000000001</v>
+        <v>6.73</v>
       </c>
       <c r="F9">
-        <v>9.66</v>
+        <v>7.86</v>
       </c>
       <c r="G9">
-        <v>8.49</v>
+        <v>12.86</v>
       </c>
       <c r="H9">
-        <v>12.37</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="I9">
-        <v>9.94</v>
+        <v>6.97</v>
       </c>
       <c r="J9">
-        <v>9.120000000000001</v>
+        <v>12.38</v>
       </c>
       <c r="K9">
-        <v>10.98</v>
+        <v>10.75</v>
       </c>
       <c r="L9">
-        <v>9.859999999999999</v>
+        <v>9.06</v>
       </c>
       <c r="M9">
-        <v>9.619999999999999</v>
+        <v>11.22</v>
       </c>
       <c r="N9">
-        <v>19.96</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
       <c r="C10">
-        <v>3.52</v>
+        <v>3.76</v>
       </c>
       <c r="D10">
-        <v>6.52</v>
+        <v>6.73</v>
       </c>
       <c r="E10">
-        <v>9.779999999999999</v>
+        <v>7.249999999999999</v>
       </c>
       <c r="F10">
-        <v>9.35</v>
+        <v>9.66</v>
       </c>
       <c r="G10">
-        <v>10.11</v>
+        <v>12.29</v>
       </c>
       <c r="H10">
-        <v>13.29</v>
+        <v>7.449999999999999</v>
       </c>
       <c r="I10">
-        <v>8.84</v>
+        <v>8.48</v>
       </c>
       <c r="J10">
-        <v>9.180000000000001</v>
+        <v>12.88</v>
       </c>
       <c r="K10">
-        <v>11.04</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="L10">
-        <v>8.27</v>
+        <v>9.9</v>
       </c>
       <c r="M10">
-        <v>8.709999999999999</v>
+        <v>10.54</v>
       </c>
       <c r="N10">
-        <v>21.21</v>
+        <v>19.33</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1989,131 +1995,131 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0.47</v>
+        <v>1.34</v>
       </c>
       <c r="C11">
-        <v>1.72</v>
+        <v>3.22</v>
       </c>
       <c r="D11">
-        <v>3.91</v>
+        <v>6.78</v>
       </c>
       <c r="E11">
-        <v>6.68</v>
+        <v>7.37</v>
       </c>
       <c r="F11">
-        <v>6.49</v>
+        <v>11.29</v>
       </c>
       <c r="G11">
-        <v>10.25</v>
+        <v>9.1</v>
       </c>
       <c r="H11">
-        <v>11.42</v>
+        <v>6.94</v>
       </c>
       <c r="I11">
-        <v>8.33</v>
+        <v>13.08</v>
       </c>
       <c r="J11">
-        <v>12.39</v>
+        <v>12.13</v>
       </c>
       <c r="K11">
-        <v>12.58</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="L11">
-        <v>11.96</v>
+        <v>10.76</v>
       </c>
       <c r="M11">
-        <v>13.8</v>
+        <v>9.6</v>
       </c>
       <c r="N11">
-        <v>12.78</v>
+        <v>18.71</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>0.1</v>
+        <v>0.51</v>
       </c>
       <c r="C12">
-        <v>0.44</v>
+        <v>1.32</v>
       </c>
       <c r="D12">
-        <v>1.5</v>
+        <v>3.11</v>
       </c>
       <c r="E12">
-        <v>3.03</v>
+        <v>5.08</v>
       </c>
       <c r="F12">
-        <v>3.89</v>
+        <v>8.34</v>
       </c>
       <c r="G12">
-        <v>7.33</v>
+        <v>5.92</v>
       </c>
       <c r="H12">
-        <v>7.64</v>
+        <v>8.469999999999999</v>
       </c>
       <c r="I12">
-        <v>7.89</v>
+        <v>14.31</v>
       </c>
       <c r="J12">
-        <v>14.46</v>
+        <v>10.39</v>
       </c>
       <c r="K12">
-        <v>14.13</v>
+        <v>11.24</v>
       </c>
       <c r="L12">
-        <v>17.69</v>
+        <v>16.11</v>
       </c>
       <c r="M12">
-        <v>21.9</v>
+        <v>15.2</v>
       </c>
       <c r="N12">
-        <v>5.07</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="C13">
-        <v>0.31</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="D13">
-        <v>1.37</v>
+        <v>2.04</v>
       </c>
       <c r="E13">
-        <v>2.56</v>
+        <v>4.14</v>
       </c>
       <c r="F13">
-        <v>3.94</v>
+        <v>5.779999999999999</v>
       </c>
       <c r="G13">
-        <v>6.87</v>
+        <v>4.83</v>
       </c>
       <c r="H13">
-        <v>6.569999999999999</v>
+        <v>10.36</v>
       </c>
       <c r="I13">
-        <v>10.77</v>
+        <v>12.64</v>
       </c>
       <c r="J13">
-        <v>14.72</v>
+        <v>10.07</v>
       </c>
       <c r="K13">
-        <v>15.05</v>
+        <v>15.11</v>
       </c>
       <c r="L13">
-        <v>19.91</v>
+        <v>17.39</v>
       </c>
       <c r="M13">
-        <v>17.87</v>
+        <v>16.88</v>
       </c>
       <c r="N13">
-        <v>4.300000000000001</v>
+        <v>6.94</v>
       </c>
     </row>
   </sheetData>
@@ -2131,16 +2137,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2148,16 +2154,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2165,16 +2171,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2185,13 +2191,13 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2202,13 +2208,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2216,16 +2222,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2233,16 +2239,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2253,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2270,13 +2276,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2287,7 +2293,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -2301,13 +2307,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>49</v>
@@ -2318,16 +2324,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>-21</v>
+        <v>-19</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2335,16 +2341,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>-27</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2354,97 +2360,106 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-2</v>
+      </c>
+      <c r="C2">
+        <v>-2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
         <v>9</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>16</v>
       </c>
       <c r="F2">
         <v>16</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>16</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2469,11 +2484,14 @@
       <c r="H4">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2498,69 +2516,78 @@
       <c r="H5">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>-4</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>-3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>-1</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>-2</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
-      </c>
-      <c r="D7">
+      <c r="I7">
         <v>-2</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>-4</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>-3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2585,11 +2612,14 @@
       <c r="H8">
         <v>-5</v>
       </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8">
+        <v>-4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2614,11 +2644,14 @@
       <c r="H9">
         <v>-9</v>
       </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9">
+        <v>-12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2643,95 +2676,107 @@
       <c r="H10">
         <v>-10</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10">
+        <v>-12</v>
+      </c>
+      <c r="J10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>-11</v>
+      </c>
+      <c r="C11">
+        <v>-9</v>
+      </c>
+      <c r="D11">
+        <v>-20</v>
+      </c>
+      <c r="E11">
+        <v>-19</v>
+      </c>
+      <c r="F11">
+        <v>-21</v>
+      </c>
+      <c r="G11">
+        <v>-28</v>
+      </c>
+      <c r="H11">
+        <v>-27</v>
+      </c>
+      <c r="I11">
+        <v>-18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>-4</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>-6</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>-14</v>
       </c>
-      <c r="I11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="I12">
+        <v>-19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>-9</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>-12</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>-11</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>-18</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>-20</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>-15</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>-21</v>
       </c>
-      <c r="I12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>-11</v>
-      </c>
-      <c r="C13">
-        <v>-9</v>
-      </c>
-      <c r="D13">
-        <v>-20</v>
-      </c>
-      <c r="E13">
-        <v>-19</v>
-      </c>
-      <c r="F13">
-        <v>-21</v>
-      </c>
-      <c r="G13">
-        <v>-28</v>
-      </c>
-      <c r="H13">
+      <c r="I13">
         <v>-27</v>
       </c>
-      <c r="I13" t="s">
-        <v>50</v>
+      <c r="J13" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2741,7 +2786,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2749,25 +2794,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2801,25 +2846,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-18</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2830,22 +2875,22 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>-19</v>
+        <v>-1</v>
       </c>
       <c r="F4">
-        <v>-5</v>
+        <v>-18</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2853,25 +2898,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>-19</v>
       </c>
       <c r="F5">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2879,25 +2924,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
       <c r="E6">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>-11</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2905,25 +2950,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>-2</v>
       </c>
       <c r="F7">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2931,25 +2976,51 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>-4</v>
       </c>
       <c r="F8">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Family Fantasy 2024.xlsx
+++ b/Family Fantasy 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="67">
   <si>
     <t>Breeces Pieces</t>
   </si>
@@ -58,31 +58,31 @@
     <t>RIP Godwin</t>
   </si>
   <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>8-0-0</t>
-  </si>
-  <si>
-    <t>0-8-0</t>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>9-0-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -148,34 +148,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑11</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑6</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -633,19 +633,19 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -654,7 +654,7 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -671,37 +671,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
         <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -712,37 +712,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -750,22 +750,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -774,16 +774,16 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -791,37 +791,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
         <v>20</v>
@@ -835,7 +835,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -853,19 +853,19 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -873,40 +873,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -914,7 +914,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -923,16 +923,16 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -941,10 +941,10 @@
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -955,19 +955,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -976,19 +976,19 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" t="s">
         <v>12</v>
-      </c>
-      <c r="L10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -996,37 +996,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="K11" t="s">
-        <v>15</v>
-      </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -1037,40 +1037,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
         <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1078,40 +1078,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
         <v>13</v>
       </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1146,10 +1146,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>2.916666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1157,10 +1157,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3.333333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -1171,13 +1171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1185,10 +1185,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3.583333333333333</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1199,13 +1199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3.583333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1213,13 +1213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>3.583333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1227,13 +1227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1244,10 +1244,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>4.333333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1255,13 +1255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>4.416666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1269,13 +1269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>4.416666666666667</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1286,10 +1286,10 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>4.916666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1300,7 +1300,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>5.416666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1341,13 +1341,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>6.666666666666667</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.333333333333333</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1364,7 +1364,7 @@
         <v>-0.333333333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1375,13 +1375,13 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1392,13 +1392,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>4.333333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D5">
-        <v>0.333333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1409,13 +1409,13 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3.916666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="D6">
-        <v>-1.083333333333333</v>
+        <v>-0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1423,16 +1423,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>3.833333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D7">
-        <v>-1.166666666666667</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1440,16 +1440,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>3.833333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D8">
-        <v>-0.1666666666666665</v>
+        <v>-0.75</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1457,16 +1457,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>3.416666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D9">
-        <v>-0.5833333333333335</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1474,16 +1474,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>3.416666666666667</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>1.416666666666667</v>
+        <v>-2</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.25</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D11">
-        <v>1.25</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1508,16 +1508,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>2.5</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1525,16 +1525,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>2.166666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.8333333333333335</v>
+        <v>0.8333333333333335</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1599,34 +1599,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36.34</v>
+        <v>40.3</v>
       </c>
       <c r="C2">
-        <v>33.25</v>
+        <v>29.42</v>
       </c>
       <c r="D2">
-        <v>16.49</v>
+        <v>14.99</v>
       </c>
       <c r="E2">
-        <v>6.569999999999999</v>
+        <v>8.66</v>
       </c>
       <c r="F2">
-        <v>4.130000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="G2">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="H2">
-        <v>0.5599999999999999</v>
+        <v>1.57</v>
       </c>
       <c r="I2">
-        <v>0.62</v>
+        <v>0.34</v>
       </c>
       <c r="J2">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="K2">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="L2">
         <v>0.02</v>
@@ -1635,7 +1635,7 @@
         <v>0.01</v>
       </c>
       <c r="N2">
-        <v>92.64999999999999</v>
+        <v>93.36999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1643,43 +1643,43 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>33.58</v>
+        <v>20.65</v>
       </c>
       <c r="C3">
-        <v>20.96</v>
+        <v>13.38</v>
       </c>
       <c r="D3">
-        <v>15.38</v>
+        <v>18.27</v>
       </c>
       <c r="E3">
-        <v>10.53</v>
+        <v>10.58</v>
       </c>
       <c r="F3">
-        <v>8.66</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="G3">
-        <v>3.6</v>
+        <v>12.1</v>
       </c>
       <c r="H3">
-        <v>2.67</v>
+        <v>7.049999999999999</v>
       </c>
       <c r="I3">
-        <v>2.48</v>
+        <v>2.15</v>
       </c>
       <c r="J3">
-        <v>1.01</v>
+        <v>3.48</v>
       </c>
       <c r="K3">
-        <v>0.5599999999999999</v>
+        <v>3.01</v>
       </c>
       <c r="L3">
-        <v>0.42</v>
+        <v>1.33</v>
       </c>
       <c r="M3">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="N3">
-        <v>80.45</v>
+        <v>62.88</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1687,43 +1687,43 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>10.18</v>
+        <v>11.41</v>
       </c>
       <c r="C4">
-        <v>11.71</v>
+        <v>11.72</v>
       </c>
       <c r="D4">
-        <v>11.07</v>
+        <v>12.95</v>
       </c>
       <c r="E4">
-        <v>14.07</v>
+        <v>7.539999999999999</v>
       </c>
       <c r="F4">
-        <v>12.2</v>
+        <v>10.92</v>
       </c>
       <c r="G4">
-        <v>7.470000000000001</v>
+        <v>14.84</v>
       </c>
       <c r="H4">
-        <v>10.21</v>
+        <v>6.06</v>
       </c>
       <c r="I4">
-        <v>8.81</v>
+        <v>4.14</v>
       </c>
       <c r="J4">
-        <v>4.12</v>
+        <v>7.28</v>
       </c>
       <c r="K4">
-        <v>4.62</v>
+        <v>6.47</v>
       </c>
       <c r="L4">
-        <v>3.19</v>
+        <v>3.31</v>
       </c>
       <c r="M4">
-        <v>2.35</v>
+        <v>3.36</v>
       </c>
       <c r="N4">
-        <v>47.03</v>
+        <v>43.62</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1731,175 +1731,175 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>6.950000000000001</v>
+        <v>5.79</v>
       </c>
       <c r="C5">
-        <v>8.559999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="D5">
-        <v>10.2</v>
+        <v>7.539999999999999</v>
       </c>
       <c r="E5">
-        <v>13.44</v>
+        <v>6.47</v>
       </c>
       <c r="F5">
-        <v>8.98</v>
+        <v>13.35</v>
       </c>
       <c r="G5">
-        <v>8.59</v>
+        <v>11.95</v>
       </c>
       <c r="H5">
-        <v>12.97</v>
+        <v>4.08</v>
       </c>
       <c r="I5">
-        <v>8.52</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="J5">
-        <v>5.11</v>
+        <v>12.51</v>
       </c>
       <c r="K5">
-        <v>7.290000000000001</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="L5">
-        <v>5.35</v>
+        <v>6.44</v>
       </c>
       <c r="M5">
-        <v>4.04</v>
+        <v>7.95</v>
       </c>
       <c r="N5">
-        <v>39.15</v>
+        <v>28.32</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>3.37</v>
+        <v>4.54</v>
       </c>
       <c r="C6">
-        <v>4.72</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D6">
-        <v>7.8</v>
+        <v>6.239999999999999</v>
       </c>
       <c r="E6">
-        <v>9.869999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="F6">
-        <v>6.32</v>
+        <v>13.04</v>
       </c>
       <c r="G6">
-        <v>10.34</v>
+        <v>5.44</v>
       </c>
       <c r="H6">
-        <v>13.46</v>
+        <v>5.45</v>
       </c>
       <c r="I6">
-        <v>7.07</v>
+        <v>12.9</v>
       </c>
       <c r="J6">
-        <v>7.98</v>
+        <v>11.82</v>
       </c>
       <c r="K6">
-        <v>11.37</v>
+        <v>5.69</v>
       </c>
       <c r="L6">
-        <v>8.77</v>
+        <v>8.92</v>
       </c>
       <c r="M6">
-        <v>8.93</v>
+        <v>9.610000000000001</v>
       </c>
       <c r="N6">
-        <v>25.76</v>
+        <v>27.13</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>2.08</v>
+        <v>4.44</v>
       </c>
       <c r="C7">
-        <v>3.84</v>
+        <v>6.06</v>
       </c>
       <c r="D7">
-        <v>6.18</v>
+        <v>6.09</v>
       </c>
       <c r="E7">
-        <v>7.56</v>
+        <v>7.8</v>
       </c>
       <c r="F7">
-        <v>6.329999999999999</v>
+        <v>13.45</v>
       </c>
       <c r="G7">
-        <v>11.77</v>
+        <v>8.6</v>
       </c>
       <c r="H7">
-        <v>11.05</v>
+        <v>3.87</v>
       </c>
       <c r="I7">
-        <v>5.92</v>
+        <v>10.4</v>
       </c>
       <c r="J7">
-        <v>11.42</v>
+        <v>13.44</v>
       </c>
       <c r="K7">
-        <v>12.11</v>
+        <v>7.17</v>
       </c>
       <c r="L7">
-        <v>9.790000000000001</v>
+        <v>8.129999999999999</v>
       </c>
       <c r="M7">
-        <v>11.95</v>
+        <v>10.55</v>
       </c>
       <c r="N7">
-        <v>19.66</v>
+        <v>24.39</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4.21</v>
       </c>
       <c r="C8">
-        <v>4.14</v>
+        <v>6.45</v>
       </c>
       <c r="D8">
-        <v>7.32</v>
+        <v>6.08</v>
       </c>
       <c r="E8">
-        <v>7.39</v>
+        <v>11.42</v>
       </c>
       <c r="F8">
-        <v>10.45</v>
+        <v>10.82</v>
       </c>
       <c r="G8">
-        <v>11.52</v>
+        <v>4.24</v>
       </c>
       <c r="H8">
-        <v>6.41</v>
+        <v>7.51</v>
       </c>
       <c r="I8">
-        <v>11.1</v>
+        <v>15.02</v>
       </c>
       <c r="J8">
-        <v>12.29</v>
+        <v>9.32</v>
       </c>
       <c r="K8">
-        <v>9.01</v>
+        <v>6.05</v>
       </c>
       <c r="L8">
-        <v>9.24</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="M8">
-        <v>9.130000000000001</v>
+        <v>9.180000000000001</v>
       </c>
       <c r="N8">
-        <v>20.85</v>
+        <v>28.16</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1907,87 +1907,87 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1.87</v>
+        <v>3.45</v>
       </c>
       <c r="C9">
-        <v>3.95</v>
+        <v>6.48</v>
       </c>
       <c r="D9">
-        <v>6.9</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="E9">
-        <v>6.73</v>
+        <v>11.5</v>
       </c>
       <c r="F9">
-        <v>7.86</v>
+        <v>8.34</v>
       </c>
       <c r="G9">
-        <v>12.86</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="H9">
-        <v>9.449999999999999</v>
+        <v>11.55</v>
       </c>
       <c r="I9">
-        <v>6.97</v>
+        <v>14.87</v>
       </c>
       <c r="J9">
-        <v>12.38</v>
+        <v>6.34</v>
       </c>
       <c r="K9">
-        <v>10.75</v>
+        <v>6.99</v>
       </c>
       <c r="L9">
-        <v>9.06</v>
+        <v>10.7</v>
       </c>
       <c r="M9">
-        <v>11.22</v>
+        <v>8.870000000000001</v>
       </c>
       <c r="N9">
-        <v>19.45</v>
+        <v>28.23</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>3.76</v>
       </c>
       <c r="D10">
-        <v>6.73</v>
+        <v>6.370000000000001</v>
       </c>
       <c r="E10">
-        <v>7.249999999999999</v>
+        <v>9.06</v>
       </c>
       <c r="F10">
-        <v>9.66</v>
+        <v>5.69</v>
       </c>
       <c r="G10">
-        <v>12.29</v>
+        <v>6.329999999999999</v>
       </c>
       <c r="H10">
-        <v>7.449999999999999</v>
+        <v>14.77</v>
       </c>
       <c r="I10">
-        <v>8.48</v>
+        <v>12.15</v>
       </c>
       <c r="J10">
-        <v>12.88</v>
+        <v>5.56</v>
       </c>
       <c r="K10">
-        <v>9.470000000000001</v>
+        <v>10.61</v>
       </c>
       <c r="L10">
-        <v>9.9</v>
+        <v>12.11</v>
       </c>
       <c r="M10">
-        <v>10.54</v>
+        <v>11.59</v>
       </c>
       <c r="N10">
-        <v>19.33</v>
+        <v>21.19</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1995,43 +1995,43 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>1.34</v>
+        <v>1.79</v>
       </c>
       <c r="C11">
-        <v>3.22</v>
+        <v>3.16</v>
       </c>
       <c r="D11">
-        <v>6.78</v>
+        <v>6.15</v>
       </c>
       <c r="E11">
-        <v>7.37</v>
+        <v>7.84</v>
       </c>
       <c r="F11">
-        <v>11.29</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>9.1</v>
+        <v>8.74</v>
       </c>
       <c r="H11">
-        <v>6.94</v>
+        <v>14.89</v>
       </c>
       <c r="I11">
-        <v>13.08</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J11">
-        <v>12.13</v>
+        <v>6.49</v>
       </c>
       <c r="K11">
-        <v>8.390000000000001</v>
+        <v>13.18</v>
       </c>
       <c r="L11">
-        <v>10.76</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>9.6</v>
+        <v>11.73</v>
       </c>
       <c r="N11">
-        <v>18.71</v>
+        <v>18.94</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2039,43 +2039,43 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>0.51</v>
+        <v>0.74</v>
       </c>
       <c r="C12">
-        <v>1.32</v>
+        <v>2.09</v>
       </c>
       <c r="D12">
-        <v>3.11</v>
+        <v>4.69</v>
       </c>
       <c r="E12">
-        <v>5.08</v>
+        <v>4.94</v>
       </c>
       <c r="F12">
-        <v>8.34</v>
+        <v>5.57</v>
       </c>
       <c r="G12">
-        <v>5.92</v>
+        <v>11.66</v>
       </c>
       <c r="H12">
-        <v>8.469999999999999</v>
+        <v>11.07</v>
       </c>
       <c r="I12">
-        <v>14.31</v>
+        <v>6.47</v>
       </c>
       <c r="J12">
-        <v>10.39</v>
+        <v>13.64</v>
       </c>
       <c r="K12">
-        <v>11.24</v>
+        <v>15.49</v>
       </c>
       <c r="L12">
-        <v>16.11</v>
+        <v>12.31</v>
       </c>
       <c r="M12">
-        <v>15.2</v>
+        <v>11.33</v>
       </c>
       <c r="N12">
-        <v>10.02</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2083,43 +2083,43 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>0.19</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="C13">
-        <v>0.5700000000000001</v>
+        <v>1.96</v>
       </c>
       <c r="D13">
-        <v>2.04</v>
+        <v>3.83</v>
       </c>
       <c r="E13">
-        <v>4.14</v>
+        <v>4.84</v>
       </c>
       <c r="F13">
-        <v>5.779999999999999</v>
+        <v>4.17</v>
       </c>
       <c r="G13">
-        <v>4.83</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="H13">
-        <v>10.36</v>
+        <v>12.13</v>
       </c>
       <c r="I13">
-        <v>12.64</v>
+        <v>6.35</v>
       </c>
       <c r="J13">
-        <v>10.07</v>
+        <v>9.91</v>
       </c>
       <c r="K13">
-        <v>15.11</v>
+        <v>16.99</v>
       </c>
       <c r="L13">
-        <v>17.39</v>
+        <v>14.03</v>
       </c>
       <c r="M13">
-        <v>16.88</v>
+        <v>15.22</v>
       </c>
       <c r="N13">
-        <v>6.94</v>
+        <v>11.31</v>
       </c>
     </row>
   </sheetData>
@@ -2157,10 +2157,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -2171,13 +2171,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -2188,13 +2188,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -2208,10 +2208,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -2222,13 +2222,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
@@ -2239,16 +2239,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2256,16 +2256,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2273,16 +2273,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2293,13 +2293,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2310,13 +2310,13 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2324,16 +2324,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>-19</v>
+        <v>-24</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2341,16 +2341,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2360,42 +2360,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2423,75 +2426,84 @@
       <c r="I2">
         <v>37</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
         <v>23</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>32</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>24</v>
-      </c>
-      <c r="I4">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2519,139 +2531,154 @@
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>-2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>-2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-1</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>-2</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-4</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>-3</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>-8</v>
+      </c>
+      <c r="D8">
+        <v>-4</v>
+      </c>
+      <c r="E8">
+        <v>-5</v>
+      </c>
+      <c r="F8">
+        <v>-7</v>
+      </c>
+      <c r="G8">
+        <v>-5</v>
+      </c>
+      <c r="H8">
+        <v>-9</v>
+      </c>
+      <c r="I8">
+        <v>-12</v>
+      </c>
+      <c r="J8">
+        <v>-6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>-1</v>
       </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>-2</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>-2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>-2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
+      <c r="E9">
         <v>-3</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>-12</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>-12</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>-5</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>-4</v>
       </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="J9">
         <v>-8</v>
       </c>
-      <c r="D9">
-        <v>-4</v>
-      </c>
-      <c r="E9">
-        <v>-5</v>
-      </c>
-      <c r="F9">
-        <v>-7</v>
-      </c>
-      <c r="G9">
-        <v>-5</v>
-      </c>
-      <c r="H9">
-        <v>-9</v>
-      </c>
-      <c r="I9">
-        <v>-12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2679,11 +2706,14 @@
       <c r="I10">
         <v>-12</v>
       </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10">
+        <v>-8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2711,72 +2741,81 @@
       <c r="I11">
         <v>-18</v>
       </c>
-      <c r="J11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11">
+        <v>-15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>-9</v>
+      </c>
+      <c r="C12">
+        <v>-12</v>
+      </c>
+      <c r="D12">
+        <v>-11</v>
+      </c>
+      <c r="E12">
+        <v>-18</v>
+      </c>
+      <c r="F12">
+        <v>-20</v>
+      </c>
+      <c r="G12">
+        <v>-15</v>
+      </c>
+      <c r="H12">
+        <v>-21</v>
+      </c>
+      <c r="I12">
+        <v>-27</v>
+      </c>
+      <c r="J12">
+        <v>-24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>-4</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>-6</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>-14</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>-19</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J13">
+        <v>-28</v>
+      </c>
+      <c r="K13" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>-9</v>
-      </c>
-      <c r="C13">
-        <v>-12</v>
-      </c>
-      <c r="D13">
-        <v>-11</v>
-      </c>
-      <c r="E13">
-        <v>-18</v>
-      </c>
-      <c r="F13">
-        <v>-20</v>
-      </c>
-      <c r="G13">
-        <v>-15</v>
-      </c>
-      <c r="H13">
-        <v>-21</v>
-      </c>
-      <c r="I13">
-        <v>-27</v>
-      </c>
-      <c r="J13" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2820,25 +2859,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>-28</v>
       </c>
       <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
-      </c>
-      <c r="G2">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2846,25 +2885,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2872,22 +2911,22 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>-24</v>
       </c>
       <c r="F4">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -2898,25 +2937,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2924,10 +2963,10 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -2936,10 +2975,10 @@
         <v>-1</v>
       </c>
       <c r="F6">
-        <v>-11</v>
+        <v>-18</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -2950,25 +2989,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
       <c r="E7">
-        <v>-2</v>
+        <v>-19</v>
       </c>
       <c r="F7">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2976,25 +3015,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F8">
+        <v>-11</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
         <v>4</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3002,25 +3041,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>-12</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Family Fantasy 2024.xlsx
+++ b/Family Fantasy 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="69">
   <si>
     <t>Breeces Pieces</t>
   </si>
@@ -55,34 +55,34 @@
     <t>For Me to Poop on</t>
   </si>
   <si>
-    <t>RIP Godwin</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>9-0-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
+    <t>Oh My Josh</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>10-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -148,19 +148,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↑6</t>
@@ -169,12 +178,6 @@
     <t>↓4</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -633,10 +639,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -651,10 +657,10 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -671,37 +677,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -730,13 +736,13 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -768,16 +774,16 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -794,37 +800,37 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -835,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -853,13 +859,13 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
@@ -894,7 +900,7 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
@@ -920,10 +926,10 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -938,10 +944,10 @@
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
         <v>15</v>
@@ -964,7 +970,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -973,16 +979,16 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
@@ -1002,13 +1008,13 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1017,19 +1023,19 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1037,37 +1043,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
         <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
         <v>15</v>
@@ -1084,31 +1090,31 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
         <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>16</v>
@@ -1146,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>3.666666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1157,13 +1163,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.833333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1171,10 +1177,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4.083333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1185,13 +1191,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>4.083333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1199,13 +1205,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>4.166666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1213,13 +1219,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4.25</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1227,13 +1233,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>4.25</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1241,13 +1247,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1255,10 +1261,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1269,13 +1275,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>4.916666666666667</v>
+        <v>5.25</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1283,13 +1289,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>5.166666666666667</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1300,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>6.333333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1341,13 +1347,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>7.583333333333333</v>
+        <v>8.5</v>
       </c>
       <c r="D2">
-        <v>-0.416666666666667</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1358,7 +1364,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>5.666666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D3">
         <v>-0.333333333333333</v>
@@ -1375,10 +1381,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>5.583333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D4">
-        <v>0.583333333333333</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -1392,13 +1398,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>4.583333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D5">
-        <v>0.583333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1406,16 +1412,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>4.5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1423,16 +1429,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4.416666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="D7">
-        <v>1.416666666666667</v>
+        <v>-0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1440,16 +1446,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="D8">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1457,16 +1463,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>4.25</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D9">
-        <v>0.25</v>
+        <v>-2.583333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1474,16 +1480,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D10">
-        <v>-2</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1494,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.416666666666667</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D11">
-        <v>1.416666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1511,13 +1517,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>2.916666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="D12">
-        <v>-1.083333333333333</v>
+        <v>-1.25</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1528,10 +1534,10 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>2.833333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D13">
-        <v>0.8333333333333335</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1596,90 +1602,90 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>40.3</v>
+        <v>28.4</v>
       </c>
       <c r="C2">
-        <v>29.42</v>
+        <v>14.85</v>
       </c>
       <c r="D2">
-        <v>14.99</v>
+        <v>9.719999999999999</v>
       </c>
       <c r="E2">
-        <v>8.66</v>
+        <v>17.87</v>
       </c>
       <c r="F2">
-        <v>2.25</v>
+        <v>11.05</v>
       </c>
       <c r="G2">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H2">
-        <v>1.57</v>
+        <v>3.35</v>
       </c>
       <c r="I2">
-        <v>0.34</v>
+        <v>6.18</v>
       </c>
       <c r="J2">
-        <v>0.21</v>
+        <v>3.56</v>
       </c>
       <c r="K2">
-        <v>0.13</v>
+        <v>0.76</v>
       </c>
       <c r="L2">
-        <v>0.02</v>
+        <v>1.13</v>
       </c>
       <c r="M2">
-        <v>0.01</v>
+        <v>0.73</v>
       </c>
       <c r="N2">
-        <v>93.36999999999999</v>
+        <v>87.64</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>20.65</v>
+        <v>26.28</v>
       </c>
       <c r="C3">
-        <v>13.38</v>
+        <v>39.07</v>
       </c>
       <c r="D3">
-        <v>18.27</v>
+        <v>15.13</v>
       </c>
       <c r="E3">
-        <v>10.58</v>
+        <v>9.09</v>
       </c>
       <c r="F3">
-        <v>7.399999999999999</v>
+        <v>6.74</v>
       </c>
       <c r="G3">
-        <v>12.1</v>
+        <v>1.65</v>
       </c>
       <c r="H3">
-        <v>7.049999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="I3">
-        <v>2.15</v>
+        <v>0.86</v>
       </c>
       <c r="J3">
-        <v>3.48</v>
+        <v>0.6</v>
       </c>
       <c r="K3">
-        <v>3.01</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="L3">
-        <v>1.33</v>
+        <v>0.03</v>
       </c>
       <c r="M3">
-        <v>0.6</v>
+        <v>0.01</v>
       </c>
       <c r="N3">
-        <v>62.88</v>
+        <v>98.42999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1687,43 +1693,43 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>11.41</v>
+        <v>13.18</v>
       </c>
       <c r="C4">
-        <v>11.72</v>
+        <v>5.92</v>
       </c>
       <c r="D4">
-        <v>12.95</v>
+        <v>11.32</v>
       </c>
       <c r="E4">
-        <v>7.539999999999999</v>
+        <v>16.08</v>
       </c>
       <c r="F4">
-        <v>10.92</v>
+        <v>7.32</v>
       </c>
       <c r="G4">
-        <v>14.84</v>
+        <v>2.67</v>
       </c>
       <c r="H4">
-        <v>6.06</v>
+        <v>10.49</v>
       </c>
       <c r="I4">
-        <v>4.14</v>
+        <v>13.63</v>
       </c>
       <c r="J4">
-        <v>7.28</v>
+        <v>5.25</v>
       </c>
       <c r="K4">
-        <v>6.47</v>
+        <v>3.12</v>
       </c>
       <c r="L4">
-        <v>3.31</v>
+        <v>5.87</v>
       </c>
       <c r="M4">
-        <v>3.36</v>
+        <v>5.149999999999999</v>
       </c>
       <c r="N4">
-        <v>43.62</v>
+        <v>66.98</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1731,131 +1737,131 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.79</v>
+        <v>9.9</v>
       </c>
       <c r="C5">
-        <v>8.52</v>
+        <v>5.11</v>
       </c>
       <c r="D5">
-        <v>7.539999999999999</v>
+        <v>12.48</v>
       </c>
       <c r="E5">
-        <v>6.47</v>
+        <v>11.96</v>
       </c>
       <c r="F5">
-        <v>13.35</v>
+        <v>3.49</v>
       </c>
       <c r="G5">
-        <v>11.95</v>
+        <v>4.68</v>
       </c>
       <c r="H5">
-        <v>4.08</v>
+        <v>14.72</v>
       </c>
       <c r="I5">
-        <v>7.180000000000001</v>
+        <v>12.91</v>
       </c>
       <c r="J5">
-        <v>12.51</v>
+        <v>3.68</v>
       </c>
       <c r="K5">
-        <v>8.219999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="L5">
-        <v>6.44</v>
+        <v>8.98</v>
       </c>
       <c r="M5">
-        <v>7.95</v>
+        <v>7.37</v>
       </c>
       <c r="N5">
-        <v>28.32</v>
+        <v>62.34</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>4.54</v>
+        <v>3.96</v>
       </c>
       <c r="C6">
-        <v>7.000000000000001</v>
+        <v>3.96</v>
       </c>
       <c r="D6">
-        <v>6.239999999999999</v>
+        <v>8.19</v>
       </c>
       <c r="E6">
-        <v>9.35</v>
+        <v>5.88</v>
       </c>
       <c r="F6">
-        <v>13.04</v>
+        <v>2.07</v>
       </c>
       <c r="G6">
-        <v>5.44</v>
+        <v>8.75</v>
       </c>
       <c r="H6">
-        <v>5.45</v>
+        <v>16.86</v>
       </c>
       <c r="I6">
-        <v>12.9</v>
+        <v>9.24</v>
       </c>
       <c r="J6">
-        <v>11.82</v>
+        <v>2.95</v>
       </c>
       <c r="K6">
-        <v>5.69</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="L6">
-        <v>8.92</v>
+        <v>13.71</v>
       </c>
       <c r="M6">
-        <v>9.610000000000001</v>
+        <v>14.54</v>
       </c>
       <c r="N6">
-        <v>27.13</v>
+        <v>49.67</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>4.44</v>
+        <v>3.68</v>
       </c>
       <c r="C7">
-        <v>6.06</v>
+        <v>4.87</v>
       </c>
       <c r="D7">
-        <v>6.09</v>
+        <v>7.61</v>
       </c>
       <c r="E7">
-        <v>7.8</v>
+        <v>3.51</v>
       </c>
       <c r="F7">
-        <v>13.45</v>
+        <v>5.850000000000001</v>
       </c>
       <c r="G7">
-        <v>8.6</v>
+        <v>15.49</v>
       </c>
       <c r="H7">
-        <v>3.87</v>
+        <v>11.54</v>
       </c>
       <c r="I7">
-        <v>10.4</v>
+        <v>3.28</v>
       </c>
       <c r="J7">
-        <v>13.44</v>
+        <v>7.12</v>
       </c>
       <c r="K7">
-        <v>7.17</v>
+        <v>14.84</v>
       </c>
       <c r="L7">
-        <v>8.129999999999999</v>
+        <v>10.94</v>
       </c>
       <c r="M7">
-        <v>10.55</v>
+        <v>11.27</v>
       </c>
       <c r="N7">
-        <v>24.39</v>
+        <v>52.55</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1863,43 +1869,43 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>4.21</v>
+        <v>3.6</v>
       </c>
       <c r="C8">
-        <v>6.45</v>
+        <v>3.8</v>
       </c>
       <c r="D8">
-        <v>6.08</v>
+        <v>7.93</v>
       </c>
       <c r="E8">
-        <v>11.42</v>
+        <v>4.42</v>
       </c>
       <c r="F8">
-        <v>10.82</v>
+        <v>3.15</v>
       </c>
       <c r="G8">
-        <v>4.24</v>
+        <v>12.33</v>
       </c>
       <c r="H8">
-        <v>7.51</v>
+        <v>15.99</v>
       </c>
       <c r="I8">
-        <v>15.02</v>
+        <v>5.08</v>
       </c>
       <c r="J8">
-        <v>9.32</v>
+        <v>4.56</v>
       </c>
       <c r="K8">
-        <v>6.05</v>
+        <v>12.47</v>
       </c>
       <c r="L8">
-        <v>9.700000000000001</v>
+        <v>13.61</v>
       </c>
       <c r="M8">
-        <v>9.180000000000001</v>
+        <v>13.06</v>
       </c>
       <c r="N8">
-        <v>28.16</v>
+        <v>51.22</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1907,43 +1913,43 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>3.45</v>
+        <v>2.82</v>
       </c>
       <c r="C9">
-        <v>6.48</v>
+        <v>5.37</v>
       </c>
       <c r="D9">
-        <v>6.800000000000001</v>
+        <v>5.83</v>
       </c>
       <c r="E9">
-        <v>11.5</v>
+        <v>6.58</v>
       </c>
       <c r="F9">
-        <v>8.34</v>
+        <v>13.98</v>
       </c>
       <c r="G9">
-        <v>4.109999999999999</v>
+        <v>11.21</v>
       </c>
       <c r="H9">
-        <v>11.55</v>
+        <v>3.49</v>
       </c>
       <c r="I9">
-        <v>14.87</v>
+        <v>9.01</v>
       </c>
       <c r="J9">
-        <v>6.34</v>
+        <v>16.37</v>
       </c>
       <c r="K9">
-        <v>6.99</v>
+        <v>10.01</v>
       </c>
       <c r="L9">
-        <v>10.7</v>
+        <v>7.340000000000001</v>
       </c>
       <c r="M9">
-        <v>8.870000000000001</v>
+        <v>7.99</v>
       </c>
       <c r="N9">
-        <v>28.23</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1951,175 +1957,175 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>2.76</v>
       </c>
       <c r="C10">
-        <v>3.76</v>
+        <v>5.82</v>
       </c>
       <c r="D10">
-        <v>6.370000000000001</v>
+        <v>6.21</v>
       </c>
       <c r="E10">
         <v>9.06</v>
       </c>
       <c r="F10">
-        <v>5.69</v>
+        <v>15.23</v>
       </c>
       <c r="G10">
-        <v>6.329999999999999</v>
+        <v>7.94</v>
       </c>
       <c r="H10">
-        <v>14.77</v>
+        <v>4.41</v>
       </c>
       <c r="I10">
-        <v>12.15</v>
+        <v>12.28</v>
       </c>
       <c r="J10">
-        <v>5.56</v>
+        <v>15.06</v>
       </c>
       <c r="K10">
-        <v>10.61</v>
+        <v>6.81</v>
       </c>
       <c r="L10">
-        <v>12.11</v>
+        <v>7.3</v>
       </c>
       <c r="M10">
-        <v>11.59</v>
+        <v>7.12</v>
       </c>
       <c r="N10">
-        <v>21.19</v>
+        <v>51.42999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>1.79</v>
+        <v>2.35</v>
       </c>
       <c r="C11">
-        <v>3.16</v>
+        <v>4.17</v>
       </c>
       <c r="D11">
-        <v>6.15</v>
+        <v>5.46</v>
       </c>
       <c r="E11">
-        <v>7.84</v>
+        <v>3.27</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="G11">
-        <v>8.74</v>
+        <v>14.84</v>
       </c>
       <c r="H11">
-        <v>14.89</v>
+        <v>7.41</v>
       </c>
       <c r="I11">
-        <v>8.029999999999999</v>
+        <v>3.21</v>
       </c>
       <c r="J11">
-        <v>6.49</v>
+        <v>11.57</v>
       </c>
       <c r="K11">
-        <v>13.18</v>
+        <v>16.83</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>9.94</v>
       </c>
       <c r="M11">
-        <v>11.73</v>
+        <v>12.58</v>
       </c>
       <c r="N11">
-        <v>18.94</v>
+        <v>45.86999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.74</v>
+        <v>1.78</v>
       </c>
       <c r="C12">
-        <v>2.09</v>
+        <v>3.97</v>
       </c>
       <c r="D12">
-        <v>4.69</v>
+        <v>5.4</v>
       </c>
       <c r="E12">
-        <v>4.94</v>
+        <v>3.71</v>
       </c>
       <c r="F12">
-        <v>5.57</v>
+        <v>11.49</v>
       </c>
       <c r="G12">
-        <v>11.66</v>
+        <v>13.64</v>
       </c>
       <c r="H12">
-        <v>11.07</v>
+        <v>4.37</v>
       </c>
       <c r="I12">
-        <v>6.47</v>
+        <v>5.74</v>
       </c>
       <c r="J12">
-        <v>13.64</v>
+        <v>15.62</v>
       </c>
       <c r="K12">
-        <v>15.49</v>
+        <v>14.07</v>
       </c>
       <c r="L12">
-        <v>12.31</v>
+        <v>9.180000000000001</v>
       </c>
       <c r="M12">
-        <v>11.33</v>
+        <v>11.03</v>
       </c>
       <c r="N12">
-        <v>12.46</v>
+        <v>44.36</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>0.6799999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="C13">
-        <v>1.96</v>
+        <v>3.09</v>
       </c>
       <c r="D13">
-        <v>3.83</v>
+        <v>4.72</v>
       </c>
       <c r="E13">
-        <v>4.84</v>
+        <v>8.57</v>
       </c>
       <c r="F13">
-        <v>4.17</v>
+        <v>11.26</v>
       </c>
       <c r="G13">
-        <v>9.890000000000001</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="H13">
-        <v>12.13</v>
+        <v>6.9</v>
       </c>
       <c r="I13">
-        <v>6.35</v>
+        <v>18.58</v>
       </c>
       <c r="J13">
-        <v>9.91</v>
+        <v>13.66</v>
       </c>
       <c r="K13">
-        <v>16.99</v>
+        <v>6.41</v>
       </c>
       <c r="L13">
-        <v>14.03</v>
+        <v>11.97</v>
       </c>
       <c r="M13">
-        <v>15.22</v>
+        <v>9.15</v>
       </c>
       <c r="N13">
-        <v>11.31</v>
+        <v>40.23</v>
       </c>
     </row>
   </sheetData>
@@ -2157,10 +2163,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -2174,7 +2180,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -2191,7 +2197,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -2205,16 +2211,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2222,16 +2228,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2239,16 +2245,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2256,13 +2262,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>47</v>
@@ -2273,13 +2279,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>48</v>
@@ -2290,16 +2296,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2310,13 +2316,13 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2327,13 +2333,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>-24</v>
+        <v>-18</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2344,13 +2350,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>-28</v>
+        <v>-32</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2360,45 +2366,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2429,11 +2438,14 @@
       <c r="J2">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2464,11 +2476,14 @@
       <c r="J3">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2499,221 +2514,242 @@
       <c r="J4">
         <v>17</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>-3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>11</v>
       </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
-      <c r="G5">
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
         <v>7</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>-1</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>-2</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>-2</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>3</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K7">
+        <v>-5</v>
+      </c>
+      <c r="L7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>-1</v>
       </c>
-      <c r="D7">
-        <v>-2</v>
-      </c>
-      <c r="E7">
+      <c r="E8">
+        <v>-3</v>
+      </c>
+      <c r="F8">
+        <v>-12</v>
+      </c>
+      <c r="G8">
+        <v>-12</v>
+      </c>
+      <c r="H8">
+        <v>-5</v>
+      </c>
+      <c r="I8">
+        <v>-4</v>
+      </c>
+      <c r="J8">
+        <v>-8</v>
+      </c>
+      <c r="K8">
+        <v>-5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>-11</v>
+      </c>
+      <c r="G9">
         <v>-4</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>-3</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>-8</v>
-      </c>
-      <c r="D8">
-        <v>-4</v>
-      </c>
-      <c r="E8">
-        <v>-5</v>
-      </c>
-      <c r="F8">
-        <v>-7</v>
-      </c>
-      <c r="G8">
-        <v>-5</v>
-      </c>
-      <c r="H8">
-        <v>-9</v>
-      </c>
-      <c r="I8">
+      <c r="H9">
+        <v>-10</v>
+      </c>
+      <c r="I9">
         <v>-12</v>
-      </c>
-      <c r="J8">
-        <v>-6</v>
-      </c>
-      <c r="K8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>-2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="E9">
-        <v>-3</v>
-      </c>
-      <c r="F9">
-        <v>-12</v>
-      </c>
-      <c r="G9">
-        <v>-12</v>
-      </c>
-      <c r="H9">
-        <v>-5</v>
-      </c>
-      <c r="I9">
-        <v>-4</v>
       </c>
       <c r="J9">
         <v>-8</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9">
+        <v>-9</v>
+      </c>
+      <c r="L9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>-8</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F10">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="G10">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H10">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="I10">
         <v>-12</v>
       </c>
       <c r="J10">
-        <v>-8</v>
-      </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>-6</v>
+      </c>
+      <c r="K10">
+        <v>-12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2744,11 +2780,14 @@
       <c r="J11">
         <v>-15</v>
       </c>
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11">
+        <v>-13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2779,11 +2818,14 @@
       <c r="J12">
         <v>-24</v>
       </c>
-      <c r="K12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12">
+        <v>-18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2814,8 +2856,11 @@
       <c r="J13">
         <v>-28</v>
       </c>
-      <c r="K13" t="s">
-        <v>50</v>
+      <c r="K13">
+        <v>-32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2825,7 +2870,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2833,25 +2878,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2885,25 +2930,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2911,25 +2956,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>-24</v>
+        <v>-28</v>
       </c>
       <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
         <v>5</v>
-      </c>
-      <c r="G4">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2937,25 +2982,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>-32</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2963,22 +3008,22 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>-24</v>
       </c>
       <c r="F6">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -2989,25 +3034,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3015,10 +3060,10 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
         <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -3027,10 +3072,10 @@
         <v>-1</v>
       </c>
       <c r="F8">
-        <v>-11</v>
+        <v>-18</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -3041,25 +3086,51 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>-19</v>
+      </c>
+      <c r="F9">
+        <v>-5</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>-2</v>
-      </c>
-      <c r="F9">
-        <v>-12</v>
-      </c>
-      <c r="G9">
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>-11</v>
+      </c>
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="H9" t="s">
-        <v>6</v>
+      <c r="H10" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Family Fantasy 2024.xlsx
+++ b/Family Fantasy 2024.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="69">
-  <si>
-    <t>Breeces Pieces</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="70">
+  <si>
+    <t>Breece Hall Sucks</t>
   </si>
   <si>
     <t>Golden Receivers</t>
@@ -58,31 +58,31 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>10-0-0</t>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>10-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -148,36 +148,36 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑5</t>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -636,37 +639,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -683,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -715,25 +718,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -742,13 +745,13 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -756,40 +759,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -797,40 +800,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="M6" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -838,40 +841,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -879,40 +882,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -920,40 +923,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
         <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -961,40 +964,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
         <v>15</v>
-      </c>
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1008,19 +1011,19 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
@@ -1035,7 +1038,7 @@
         <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1046,19 +1049,19 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -1070,13 +1073,13 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1084,40 +1087,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
       <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1152,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>3.916666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1163,13 +1166,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1177,10 +1180,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4.416666666666667</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1194,10 +1197,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>4.5</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1205,13 +1208,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>4.75</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1219,13 +1222,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4.916666666666667</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1233,13 +1236,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4.916666666666667</v>
+        <v>5.75</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1247,13 +1250,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>5.166666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1261,13 +1264,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1275,13 +1278,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>5.25</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1292,10 +1295,10 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>5.583333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1306,7 +1309,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>7.083333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1347,10 +1350,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>8.5</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-0.4166666666666661</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -1361,16 +1364,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>6.666666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.333333333333333</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1378,16 +1381,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>6.166666666666667</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D4">
-        <v>1.166666666666667</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1404,7 +1407,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1412,16 +1415,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>4.583333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D6">
-        <v>-1.416666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1432,13 +1435,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="D7">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1446,16 +1449,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>4.5</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D8">
-        <v>1.5</v>
+        <v>-1.916666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1466,10 +1469,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4.416666666666667</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D9">
-        <v>-2.583333333333333</v>
+        <v>-2.083333333333333</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1480,16 +1483,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>4.416666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D10">
-        <v>0.416666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1497,16 +1500,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>3.833333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D11">
-        <v>1.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1517,13 +1520,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>3.75</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D12">
-        <v>-1.25</v>
+        <v>-1.833333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1534,13 +1537,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>3.333333333333333</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D13">
-        <v>1.333333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1602,134 +1605,134 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>28.4</v>
+        <v>17.85</v>
       </c>
       <c r="C2">
-        <v>14.85</v>
+        <v>13.75</v>
       </c>
       <c r="D2">
-        <v>9.719999999999999</v>
+        <v>2.41</v>
       </c>
       <c r="E2">
-        <v>17.87</v>
+        <v>5.489999999999999</v>
       </c>
       <c r="F2">
-        <v>11.05</v>
+        <v>18.52</v>
       </c>
       <c r="G2">
-        <v>2.4</v>
+        <v>16.82</v>
       </c>
       <c r="H2">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I2">
-        <v>6.18</v>
+        <v>0.46</v>
       </c>
       <c r="J2">
-        <v>3.56</v>
+        <v>3.17</v>
       </c>
       <c r="K2">
-        <v>0.76</v>
+        <v>7.670000000000001</v>
       </c>
       <c r="L2">
-        <v>1.13</v>
+        <v>6.32</v>
       </c>
       <c r="M2">
-        <v>0.73</v>
+        <v>4.04</v>
       </c>
       <c r="N2">
-        <v>87.64</v>
+        <v>78.34</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>26.28</v>
+        <v>14.88</v>
       </c>
       <c r="C3">
-        <v>39.07</v>
+        <v>23.06</v>
       </c>
       <c r="D3">
-        <v>15.13</v>
+        <v>8.5</v>
       </c>
       <c r="E3">
-        <v>9.09</v>
+        <v>2.17</v>
       </c>
       <c r="F3">
-        <v>6.74</v>
+        <v>11.67</v>
       </c>
       <c r="G3">
-        <v>1.65</v>
+        <v>18.89</v>
       </c>
       <c r="H3">
-        <v>0.47</v>
+        <v>7.69</v>
       </c>
       <c r="I3">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="J3">
-        <v>0.6</v>
+        <v>1.39</v>
       </c>
       <c r="K3">
-        <v>0.06999999999999999</v>
+        <v>4.66</v>
       </c>
       <c r="L3">
-        <v>0.03</v>
+        <v>4.46</v>
       </c>
       <c r="M3">
-        <v>0.01</v>
+        <v>2.03</v>
       </c>
       <c r="N3">
-        <v>98.42999999999999</v>
+        <v>86.86</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>13.18</v>
+        <v>9.01</v>
       </c>
       <c r="C4">
-        <v>5.92</v>
+        <v>27.21</v>
       </c>
       <c r="D4">
-        <v>11.32</v>
+        <v>20.65</v>
       </c>
       <c r="E4">
-        <v>16.08</v>
+        <v>4.92</v>
       </c>
       <c r="F4">
-        <v>7.32</v>
+        <v>5.91</v>
       </c>
       <c r="G4">
-        <v>2.67</v>
+        <v>15.07</v>
       </c>
       <c r="H4">
-        <v>10.49</v>
+        <v>9.75</v>
       </c>
       <c r="I4">
-        <v>13.63</v>
+        <v>1.5</v>
       </c>
       <c r="J4">
-        <v>5.25</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="K4">
-        <v>3.12</v>
+        <v>2.36</v>
       </c>
       <c r="L4">
-        <v>5.87</v>
+        <v>2.02</v>
       </c>
       <c r="M4">
-        <v>5.149999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="N4">
-        <v>66.98</v>
+        <v>92.52000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1737,87 +1740,87 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>9.9</v>
+        <v>8.92</v>
       </c>
       <c r="C5">
-        <v>5.11</v>
+        <v>2.45</v>
       </c>
       <c r="D5">
-        <v>12.48</v>
+        <v>6.31</v>
       </c>
       <c r="E5">
-        <v>11.96</v>
+        <v>14.81</v>
       </c>
       <c r="F5">
-        <v>3.49</v>
+        <v>11.01</v>
       </c>
       <c r="G5">
-        <v>4.68</v>
+        <v>2.51</v>
       </c>
       <c r="H5">
-        <v>14.72</v>
+        <v>0.91</v>
       </c>
       <c r="I5">
-        <v>12.91</v>
+        <v>7.01</v>
       </c>
       <c r="J5">
-        <v>3.68</v>
+        <v>16.86</v>
       </c>
       <c r="K5">
-        <v>4.72</v>
+        <v>12.29</v>
       </c>
       <c r="L5">
-        <v>8.98</v>
+        <v>5.18</v>
       </c>
       <c r="M5">
-        <v>7.37</v>
+        <v>11.74</v>
       </c>
       <c r="N5">
-        <v>62.34</v>
+        <v>46.91999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>3.96</v>
+        <v>8.73</v>
       </c>
       <c r="C6">
-        <v>3.96</v>
+        <v>3.53</v>
       </c>
       <c r="D6">
-        <v>8.19</v>
+        <v>1.62</v>
       </c>
       <c r="E6">
-        <v>5.88</v>
+        <v>9.09</v>
       </c>
       <c r="F6">
-        <v>2.07</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>8.75</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="H6">
-        <v>16.86</v>
+        <v>0.91</v>
       </c>
       <c r="I6">
-        <v>9.24</v>
+        <v>1.59</v>
       </c>
       <c r="J6">
-        <v>2.95</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="K6">
-        <v>9.890000000000001</v>
+        <v>17.11</v>
       </c>
       <c r="L6">
-        <v>13.71</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="M6">
-        <v>14.54</v>
+        <v>13.31</v>
       </c>
       <c r="N6">
-        <v>49.67</v>
+        <v>49.08</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1825,175 +1828,175 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>3.68</v>
+        <v>8.23</v>
       </c>
       <c r="C7">
-        <v>4.87</v>
+        <v>2.87</v>
       </c>
       <c r="D7">
-        <v>7.61</v>
+        <v>2.95</v>
       </c>
       <c r="E7">
-        <v>3.51</v>
+        <v>13.08</v>
       </c>
       <c r="F7">
-        <v>5.850000000000001</v>
+        <v>14.99</v>
       </c>
       <c r="G7">
-        <v>15.49</v>
+        <v>4.51</v>
       </c>
       <c r="H7">
-        <v>11.54</v>
+        <v>0.62</v>
       </c>
       <c r="I7">
-        <v>3.28</v>
+        <v>3.94</v>
       </c>
       <c r="J7">
-        <v>7.12</v>
+        <v>13.46</v>
       </c>
       <c r="K7">
-        <v>14.84</v>
+        <v>15.68</v>
       </c>
       <c r="L7">
-        <v>10.94</v>
+        <v>6.9</v>
       </c>
       <c r="M7">
-        <v>11.27</v>
+        <v>12.77</v>
       </c>
       <c r="N7">
-        <v>52.55</v>
+        <v>47.25</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>3.6</v>
+        <v>6.7</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>2.73</v>
       </c>
       <c r="D8">
-        <v>7.93</v>
+        <v>8.27</v>
       </c>
       <c r="E8">
-        <v>4.42</v>
+        <v>13.23</v>
       </c>
       <c r="F8">
-        <v>3.15</v>
+        <v>7.1</v>
       </c>
       <c r="G8">
-        <v>12.33</v>
+        <v>1.13</v>
       </c>
       <c r="H8">
-        <v>15.99</v>
+        <v>2.3</v>
       </c>
       <c r="I8">
-        <v>5.08</v>
+        <v>12.41</v>
       </c>
       <c r="J8">
-        <v>4.56</v>
+        <v>18.58</v>
       </c>
       <c r="K8">
-        <v>12.47</v>
+        <v>8.41</v>
       </c>
       <c r="L8">
-        <v>13.61</v>
+        <v>5.71</v>
       </c>
       <c r="M8">
-        <v>13.06</v>
+        <v>13.43</v>
       </c>
       <c r="N8">
-        <v>51.22</v>
+        <v>41.46</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2.82</v>
+        <v>6.01</v>
       </c>
       <c r="C9">
-        <v>5.37</v>
+        <v>2.99</v>
       </c>
       <c r="D9">
-        <v>5.83</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E9">
-        <v>6.58</v>
+        <v>11.62</v>
       </c>
       <c r="F9">
-        <v>13.98</v>
+        <v>4.7</v>
       </c>
       <c r="G9">
-        <v>11.21</v>
+        <v>0.76</v>
       </c>
       <c r="H9">
-        <v>3.49</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="I9">
-        <v>9.01</v>
+        <v>17.53</v>
       </c>
       <c r="J9">
-        <v>16.37</v>
+        <v>16.22</v>
       </c>
       <c r="K9">
-        <v>10.01</v>
+        <v>4.58</v>
       </c>
       <c r="L9">
-        <v>7.340000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="M9">
-        <v>7.99</v>
+        <v>11.84</v>
       </c>
       <c r="N9">
-        <v>49.28</v>
+        <v>41.23</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>2.76</v>
+        <v>5.73</v>
       </c>
       <c r="C10">
-        <v>5.82</v>
+        <v>4.130000000000001</v>
       </c>
       <c r="D10">
-        <v>6.21</v>
+        <v>10.69</v>
       </c>
       <c r="E10">
-        <v>9.06</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F10">
-        <v>15.23</v>
+        <v>2.53</v>
       </c>
       <c r="G10">
-        <v>7.94</v>
+        <v>1.46</v>
       </c>
       <c r="H10">
-        <v>4.41</v>
+        <v>11.17</v>
       </c>
       <c r="I10">
-        <v>12.28</v>
+        <v>20.8</v>
       </c>
       <c r="J10">
-        <v>15.06</v>
+        <v>9.77</v>
       </c>
       <c r="K10">
-        <v>6.81</v>
+        <v>3.54</v>
       </c>
       <c r="L10">
-        <v>7.3</v>
+        <v>10.21</v>
       </c>
       <c r="M10">
-        <v>7.12</v>
+        <v>10.26</v>
       </c>
       <c r="N10">
-        <v>51.42999999999999</v>
+        <v>45.42</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2001,87 +2004,87 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>2.35</v>
+        <v>5.17</v>
       </c>
       <c r="C11">
-        <v>4.17</v>
+        <v>6.73</v>
       </c>
       <c r="D11">
-        <v>5.46</v>
+        <v>10.13</v>
       </c>
       <c r="E11">
-        <v>3.27</v>
+        <v>5.4</v>
       </c>
       <c r="F11">
-        <v>8.369999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="G11">
-        <v>14.84</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="H11">
-        <v>7.41</v>
+        <v>21.15</v>
       </c>
       <c r="I11">
-        <v>3.21</v>
+        <v>10.88</v>
       </c>
       <c r="J11">
-        <v>11.57</v>
+        <v>2.31</v>
       </c>
       <c r="K11">
-        <v>16.83</v>
+        <v>7.26</v>
       </c>
       <c r="L11">
-        <v>9.94</v>
+        <v>13.38</v>
       </c>
       <c r="M11">
-        <v>12.58</v>
+        <v>6.12</v>
       </c>
       <c r="N11">
-        <v>45.86999999999999</v>
+        <v>60.05</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>1.78</v>
+        <v>4.81</v>
       </c>
       <c r="C12">
-        <v>3.97</v>
+        <v>4.91</v>
       </c>
       <c r="D12">
-        <v>5.4</v>
+        <v>10.51</v>
       </c>
       <c r="E12">
-        <v>3.71</v>
+        <v>7.42</v>
       </c>
       <c r="F12">
-        <v>11.49</v>
+        <v>1.64</v>
       </c>
       <c r="G12">
-        <v>13.64</v>
+        <v>4.48</v>
       </c>
       <c r="H12">
-        <v>4.37</v>
+        <v>17.39</v>
       </c>
       <c r="I12">
-        <v>5.74</v>
+        <v>17.85</v>
       </c>
       <c r="J12">
-        <v>15.62</v>
+        <v>4.75</v>
       </c>
       <c r="K12">
-        <v>14.07</v>
+        <v>4.69</v>
       </c>
       <c r="L12">
-        <v>9.180000000000001</v>
+        <v>12.91</v>
       </c>
       <c r="M12">
-        <v>11.03</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="N12">
-        <v>44.36</v>
+        <v>51.16</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2089,43 +2092,43 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>1.29</v>
+        <v>3.96</v>
       </c>
       <c r="C13">
-        <v>3.09</v>
+        <v>5.64</v>
       </c>
       <c r="D13">
-        <v>4.72</v>
+        <v>8.41</v>
       </c>
       <c r="E13">
-        <v>8.57</v>
+        <v>3.06</v>
       </c>
       <c r="F13">
-        <v>11.26</v>
+        <v>3.330000000000001</v>
       </c>
       <c r="G13">
-        <v>4.399999999999999</v>
+        <v>16.3</v>
       </c>
       <c r="H13">
-        <v>6.9</v>
+        <v>19.01</v>
       </c>
       <c r="I13">
-        <v>18.58</v>
+        <v>5.43</v>
       </c>
       <c r="J13">
-        <v>13.66</v>
+        <v>3.32</v>
       </c>
       <c r="K13">
-        <v>6.41</v>
+        <v>11.75</v>
       </c>
       <c r="L13">
-        <v>11.97</v>
+        <v>14.86</v>
       </c>
       <c r="M13">
-        <v>9.15</v>
+        <v>4.93</v>
       </c>
       <c r="N13">
-        <v>40.23</v>
+        <v>59.71</v>
       </c>
     </row>
   </sheetData>
@@ -2163,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -2180,10 +2183,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -2197,7 +2200,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -2211,16 +2214,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2228,16 +2231,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2245,16 +2248,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2262,16 +2265,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2279,16 +2282,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2296,16 +2299,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2313,16 +2316,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2333,10 +2336,10 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>-18</v>
+        <v>-23</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>50</v>
@@ -2350,7 +2353,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>-32</v>
+        <v>-28</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -2366,13 +2369,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
@@ -2404,10 +2407,13 @@
         <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2441,11 +2447,14 @@
       <c r="K2">
         <v>45</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2479,11 +2488,14 @@
       <c r="K3">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2517,277 +2529,301 @@
       <c r="K4">
         <v>18</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>-3</v>
+      </c>
+      <c r="F5">
+        <v>-12</v>
+      </c>
+      <c r="G5">
+        <v>-12</v>
+      </c>
+      <c r="H5">
+        <v>-5</v>
+      </c>
+      <c r="I5">
+        <v>-4</v>
+      </c>
+      <c r="J5">
+        <v>-8</v>
+      </c>
+      <c r="K5">
+        <v>-5</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>-1</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>-2</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>-4</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>-3</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="L5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>11</v>
       </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
-      <c r="G6">
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
         <v>7</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>5</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>-1</v>
       </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+      <c r="L7">
+        <v>-3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>-1</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>-2</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>-2</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>3</v>
-      </c>
-      <c r="K7">
-        <v>-5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>-2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>-3</v>
-      </c>
-      <c r="F8">
-        <v>-12</v>
-      </c>
-      <c r="G8">
-        <v>-12</v>
-      </c>
-      <c r="H8">
-        <v>-5</v>
-      </c>
-      <c r="I8">
-        <v>-4</v>
-      </c>
-      <c r="J8">
-        <v>-8</v>
       </c>
       <c r="K8">
         <v>-5</v>
       </c>
-      <c r="L8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8">
+        <v>-6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>-11</v>
+      </c>
+      <c r="C9">
+        <v>-9</v>
+      </c>
+      <c r="D9">
+        <v>-20</v>
+      </c>
+      <c r="E9">
+        <v>-19</v>
+      </c>
+      <c r="F9">
+        <v>-21</v>
+      </c>
+      <c r="G9">
+        <v>-28</v>
+      </c>
+      <c r="H9">
+        <v>-27</v>
+      </c>
+      <c r="I9">
+        <v>-18</v>
+      </c>
+      <c r="J9">
+        <v>-15</v>
+      </c>
+      <c r="K9">
+        <v>-13</v>
+      </c>
+      <c r="L9">
+        <v>-7</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>-11</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>-4</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>-10</v>
-      </c>
-      <c r="I9">
-        <v>-12</v>
-      </c>
-      <c r="J9">
-        <v>-8</v>
-      </c>
-      <c r="K9">
-        <v>-9</v>
-      </c>
-      <c r="L9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>-8</v>
-      </c>
-      <c r="D10">
-        <v>-4</v>
-      </c>
-      <c r="E10">
-        <v>-5</v>
-      </c>
-      <c r="F10">
-        <v>-7</v>
-      </c>
-      <c r="G10">
-        <v>-5</v>
-      </c>
-      <c r="H10">
-        <v>-9</v>
       </c>
       <c r="I10">
         <v>-12</v>
       </c>
       <c r="J10">
+        <v>-8</v>
+      </c>
+      <c r="K10">
+        <v>-9</v>
+      </c>
+      <c r="L10">
+        <v>-9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>-8</v>
+      </c>
+      <c r="D11">
+        <v>-4</v>
+      </c>
+      <c r="E11">
+        <v>-5</v>
+      </c>
+      <c r="F11">
+        <v>-7</v>
+      </c>
+      <c r="G11">
+        <v>-5</v>
+      </c>
+      <c r="H11">
+        <v>-9</v>
+      </c>
+      <c r="I11">
+        <v>-12</v>
+      </c>
+      <c r="J11">
         <v>-6</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-12</v>
       </c>
-      <c r="L10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>-11</v>
-      </c>
-      <c r="C11">
-        <v>-9</v>
-      </c>
-      <c r="D11">
-        <v>-20</v>
-      </c>
-      <c r="E11">
-        <v>-19</v>
-      </c>
-      <c r="F11">
-        <v>-21</v>
-      </c>
-      <c r="G11">
-        <v>-28</v>
-      </c>
-      <c r="H11">
-        <v>-27</v>
-      </c>
-      <c r="I11">
-        <v>-18</v>
-      </c>
-      <c r="J11">
-        <v>-15</v>
-      </c>
-      <c r="K11">
-        <v>-13</v>
-      </c>
-      <c r="L11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11">
+        <v>-14</v>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2821,11 +2857,14 @@
       <c r="K12">
         <v>-18</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12">
+        <v>-23</v>
+      </c>
+      <c r="M12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2859,7 +2898,10 @@
       <c r="K13">
         <v>-32</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13">
+        <v>-28</v>
+      </c>
+      <c r="M13" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2870,7 +2912,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2878,25 +2920,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2904,25 +2946,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>-28</v>
+        <v>38</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>-23</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2930,25 +2972,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>-18</v>
+        <v>-28</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2956,25 +2998,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2982,25 +3024,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5">
+        <v>-28</v>
+      </c>
+      <c r="F5">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>-32</v>
-      </c>
       <c r="G5">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3008,25 +3050,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>-24</v>
+        <v>-1</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>-32</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3034,25 +3076,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3060,25 +3102,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="F8">
-        <v>-18</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3086,25 +3128,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3112,10 +3154,10 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -3124,13 +3166,39 @@
         <v>-1</v>
       </c>
       <c r="F10">
-        <v>-11</v>
+        <v>-18</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>-19</v>
+      </c>
+      <c r="F11">
+        <v>-5</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Family Fantasy 2024.xlsx
+++ b/Family Fantasy 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="70">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -58,31 +58,34 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>11-1-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -148,36 +151,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓7</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -639,37 +639,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -695,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
@@ -718,40 +718,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -759,31 +759,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
@@ -792,7 +792,7 @@
         <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -803,37 +803,37 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
       <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -841,40 +841,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>14</v>
       </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -882,40 +882,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -923,40 +923,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -964,40 +964,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1005,40 +1005,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
-        <v>19</v>
-      </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1049,37 +1049,37 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" t="s">
         <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1087,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -1138,13 +1138,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1155,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>4.333333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1166,13 +1166,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1180,10 +1180,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4.583333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1197,10 +1197,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>4.833333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1211,10 +1211,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>5.166666666666667</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1225,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>5.416666666666667</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1236,13 +1236,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>5.75</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1250,13 +1250,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>5.833333333333333</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1264,13 +1264,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1278,10 +1278,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>6.083333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1292,13 +1292,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>6.25</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1309,10 +1309,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>7.25</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1330,16 +1330,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1350,10 +1350,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>8.583333333333334</v>
+        <v>9.5</v>
       </c>
       <c r="D2">
-        <v>-0.4166666666666661</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -1367,10 +1367,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>7.083333333333333</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D3">
-        <v>1.083333333333333</v>
+        <v>1.083333333333334</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1384,13 +1384,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>6.916666666666667</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-0.08333333333333304</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1401,13 +1401,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5.333333333333333</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D5">
-        <v>0.333333333333333</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1415,13 +1415,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5.333333333333333</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D6">
-        <v>1.333333333333333</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1432,16 +1432,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>5.25</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.75</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1449,16 +1449,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>5.083333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D8">
-        <v>-1.916666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1466,16 +1466,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>4.916666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D9">
-        <v>-2.083333333333333</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1483,16 +1483,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>4.833333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D10">
-        <v>1.833333333333333</v>
+        <v>-1.75</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1500,16 +1500,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>4.583333333333333</v>
-      </c>
-      <c r="D11">
-        <v>0.583333333333333</v>
-      </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1517,16 +1517,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>4.166666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D12">
-        <v>-1.833333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1534,16 +1534,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>3.916666666666667</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D13">
-        <v>1.916666666666667</v>
+        <v>-1.833333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1561,574 +1561,574 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>17.85</v>
+        <v>13.52</v>
       </c>
       <c r="C2">
-        <v>13.75</v>
+        <v>5.37</v>
       </c>
       <c r="D2">
-        <v>2.41</v>
+        <v>0.44</v>
       </c>
       <c r="E2">
-        <v>5.489999999999999</v>
+        <v>1.54</v>
       </c>
       <c r="F2">
-        <v>18.52</v>
+        <v>13.9</v>
       </c>
       <c r="G2">
-        <v>16.82</v>
+        <v>24.56</v>
       </c>
       <c r="H2">
-        <v>3.5</v>
+        <v>9.19</v>
       </c>
       <c r="I2">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="J2">
-        <v>3.17</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="K2">
-        <v>7.670000000000001</v>
+        <v>7.21</v>
       </c>
       <c r="L2">
-        <v>6.32</v>
+        <v>15.21</v>
       </c>
       <c r="M2">
-        <v>4.04</v>
+        <v>7.55</v>
       </c>
       <c r="N2">
-        <v>78.34</v>
+        <v>68.52000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>14.88</v>
+        <v>11.67</v>
       </c>
       <c r="C3">
-        <v>23.06</v>
+        <v>6.83</v>
       </c>
       <c r="D3">
-        <v>8.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E3">
-        <v>2.17</v>
+        <v>0.19</v>
       </c>
       <c r="F3">
-        <v>11.67</v>
+        <v>5.89</v>
       </c>
       <c r="G3">
-        <v>18.89</v>
+        <v>22.85</v>
       </c>
       <c r="H3">
-        <v>7.69</v>
+        <v>18.39</v>
       </c>
       <c r="I3">
-        <v>0.6</v>
+        <v>2.83</v>
       </c>
       <c r="J3">
-        <v>1.39</v>
+        <v>0.29</v>
       </c>
       <c r="K3">
-        <v>4.66</v>
+        <v>4.41</v>
       </c>
       <c r="L3">
-        <v>4.46</v>
+        <v>14.28</v>
       </c>
       <c r="M3">
-        <v>2.03</v>
+        <v>11.47</v>
       </c>
       <c r="N3">
-        <v>86.86</v>
+        <v>66.72</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>9.01</v>
+        <v>11.61</v>
       </c>
       <c r="C4">
-        <v>27.21</v>
+        <v>2.71</v>
       </c>
       <c r="D4">
-        <v>20.65</v>
+        <v>0.28</v>
       </c>
       <c r="E4">
-        <v>4.92</v>
+        <v>5.58</v>
       </c>
       <c r="F4">
-        <v>5.91</v>
+        <v>20.71</v>
       </c>
       <c r="G4">
-        <v>15.07</v>
+        <v>16.08</v>
       </c>
       <c r="H4">
-        <v>9.75</v>
+        <v>3.17</v>
       </c>
       <c r="I4">
-        <v>1.5</v>
+        <v>0.21</v>
       </c>
       <c r="J4">
-        <v>0.7100000000000001</v>
+        <v>3.05</v>
       </c>
       <c r="K4">
-        <v>2.36</v>
+        <v>13.24</v>
       </c>
       <c r="L4">
-        <v>2.02</v>
+        <v>17.73</v>
       </c>
       <c r="M4">
-        <v>0.89</v>
+        <v>5.63</v>
       </c>
       <c r="N4">
-        <v>92.52000000000001</v>
+        <v>60.14</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>8.92</v>
+        <v>10.24</v>
       </c>
       <c r="C5">
-        <v>2.45</v>
+        <v>1.53</v>
       </c>
       <c r="D5">
-        <v>6.31</v>
+        <v>1.56</v>
       </c>
       <c r="E5">
-        <v>14.81</v>
+        <v>12.28</v>
       </c>
       <c r="F5">
-        <v>11.01</v>
+        <v>21.01</v>
       </c>
       <c r="G5">
-        <v>2.51</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="H5">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="I5">
-        <v>7.01</v>
+        <v>0.64</v>
       </c>
       <c r="J5">
-        <v>16.86</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="K5">
-        <v>12.29</v>
+        <v>18.15</v>
       </c>
       <c r="L5">
-        <v>5.18</v>
+        <v>14.56</v>
       </c>
       <c r="M5">
-        <v>11.74</v>
+        <v>2.59</v>
       </c>
       <c r="N5">
-        <v>46.91999999999999</v>
+        <v>57.26000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>8.73</v>
+        <v>9.94</v>
       </c>
       <c r="C6">
-        <v>3.53</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="D6">
-        <v>1.62</v>
+        <v>4.73</v>
       </c>
       <c r="E6">
-        <v>9.09</v>
+        <v>17.56</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="G6">
-        <v>8.200000000000001</v>
+        <v>4.22</v>
       </c>
       <c r="H6">
-        <v>0.91</v>
+        <v>0.21</v>
       </c>
       <c r="I6">
-        <v>1.59</v>
+        <v>2.15</v>
       </c>
       <c r="J6">
-        <v>9.460000000000001</v>
+        <v>12.56</v>
       </c>
       <c r="K6">
-        <v>17.11</v>
+        <v>20.32</v>
       </c>
       <c r="L6">
-        <v>9.449999999999999</v>
+        <v>9.26</v>
       </c>
       <c r="M6">
-        <v>13.31</v>
+        <v>0.88</v>
       </c>
       <c r="N6">
-        <v>49.08</v>
+        <v>54.83000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>8.23</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C7">
-        <v>2.87</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D7">
-        <v>2.95</v>
+        <v>1.79</v>
       </c>
       <c r="E7">
-        <v>13.08</v>
+        <v>0.09</v>
       </c>
       <c r="F7">
-        <v>14.99</v>
+        <v>1.18</v>
       </c>
       <c r="G7">
-        <v>4.51</v>
+        <v>14.11</v>
       </c>
       <c r="H7">
-        <v>0.62</v>
+        <v>24.9</v>
       </c>
       <c r="I7">
-        <v>3.94</v>
+        <v>8.98</v>
       </c>
       <c r="J7">
-        <v>13.46</v>
+        <v>0.53</v>
       </c>
       <c r="K7">
-        <v>15.68</v>
+        <v>1.78</v>
       </c>
       <c r="L7">
-        <v>6.9</v>
+        <v>12.56</v>
       </c>
       <c r="M7">
-        <v>12.77</v>
+        <v>15.01</v>
       </c>
       <c r="N7">
-        <v>47.25</v>
+        <v>61.13999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>6.7</v>
+        <v>8.790000000000001</v>
       </c>
       <c r="C8">
-        <v>2.73</v>
+        <v>0.91</v>
       </c>
       <c r="D8">
-        <v>8.27</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="E8">
-        <v>13.23</v>
+        <v>18.97</v>
       </c>
       <c r="F8">
-        <v>7.1</v>
+        <v>10.98</v>
       </c>
       <c r="G8">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="H8">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="I8">
-        <v>12.41</v>
+        <v>5.87</v>
       </c>
       <c r="J8">
-        <v>18.58</v>
+        <v>20.25</v>
       </c>
       <c r="K8">
-        <v>8.41</v>
+        <v>19.25</v>
       </c>
       <c r="L8">
-        <v>5.71</v>
+        <v>4.53</v>
       </c>
       <c r="M8">
-        <v>13.43</v>
+        <v>0.29</v>
       </c>
       <c r="N8">
-        <v>41.46</v>
+        <v>49.81</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>6.01</v>
+        <v>8.33</v>
       </c>
       <c r="C9">
-        <v>2.99</v>
+        <v>11.34</v>
       </c>
       <c r="D9">
-        <v>9.550000000000001</v>
+        <v>3.23</v>
       </c>
       <c r="E9">
-        <v>11.62</v>
+        <v>0.2</v>
       </c>
       <c r="F9">
-        <v>4.7</v>
+        <v>0.18</v>
       </c>
       <c r="G9">
-        <v>0.76</v>
+        <v>5.2</v>
       </c>
       <c r="H9">
-        <v>5.600000000000001</v>
+        <v>23.27</v>
       </c>
       <c r="I9">
-        <v>17.53</v>
+        <v>19.25</v>
       </c>
       <c r="J9">
-        <v>16.22</v>
+        <v>2.86</v>
       </c>
       <c r="K9">
-        <v>4.58</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="L9">
-        <v>8.6</v>
+        <v>7.35</v>
       </c>
       <c r="M9">
-        <v>11.84</v>
+        <v>18.22</v>
       </c>
       <c r="N9">
-        <v>41.23</v>
+        <v>51.75</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>5.73</v>
+        <v>6.710000000000001</v>
       </c>
       <c r="C10">
-        <v>4.130000000000001</v>
+        <v>23.59</v>
       </c>
       <c r="D10">
-        <v>10.69</v>
+        <v>17.74</v>
       </c>
       <c r="E10">
-        <v>9.710000000000001</v>
+        <v>3.34</v>
       </c>
       <c r="F10">
-        <v>2.53</v>
+        <v>0.06</v>
       </c>
       <c r="G10">
-        <v>1.46</v>
+        <v>0.17</v>
       </c>
       <c r="H10">
-        <v>11.17</v>
+        <v>4.590000000000001</v>
       </c>
       <c r="I10">
-        <v>20.8</v>
+        <v>16.91</v>
       </c>
       <c r="J10">
-        <v>9.77</v>
+        <v>15.94</v>
       </c>
       <c r="K10">
-        <v>3.54</v>
+        <v>2.91</v>
       </c>
       <c r="L10">
-        <v>10.21</v>
+        <v>0.29</v>
       </c>
       <c r="M10">
-        <v>10.26</v>
+        <v>7.75</v>
       </c>
       <c r="N10">
-        <v>45.42</v>
+        <v>56.20000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>5.17</v>
+        <v>6.569999999999999</v>
       </c>
       <c r="C11">
-        <v>6.73</v>
+        <v>12.4</v>
       </c>
       <c r="D11">
-        <v>10.13</v>
+        <v>4.8</v>
       </c>
       <c r="E11">
-        <v>5.4</v>
+        <v>0.44</v>
       </c>
       <c r="F11">
-        <v>1.6</v>
+        <v>0.02</v>
       </c>
       <c r="G11">
-        <v>9.869999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="H11">
-        <v>21.15</v>
+        <v>12.92</v>
       </c>
       <c r="I11">
-        <v>10.88</v>
+        <v>25.94</v>
       </c>
       <c r="J11">
-        <v>2.31</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="K11">
-        <v>7.26</v>
+        <v>0.29</v>
       </c>
       <c r="L11">
-        <v>13.38</v>
+        <v>2.98</v>
       </c>
       <c r="M11">
-        <v>6.12</v>
+        <v>22.9</v>
       </c>
       <c r="N11">
-        <v>60.05</v>
+        <v>38.42</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>4.81</v>
+        <v>2.31</v>
       </c>
       <c r="C12">
-        <v>4.91</v>
+        <v>16.81</v>
       </c>
       <c r="D12">
-        <v>10.51</v>
+        <v>25.22</v>
       </c>
       <c r="E12">
-        <v>7.42</v>
+        <v>10.31</v>
       </c>
       <c r="F12">
-        <v>1.64</v>
+        <v>1.02</v>
       </c>
       <c r="G12">
-        <v>4.48</v>
+        <v>0.02</v>
       </c>
       <c r="H12">
-        <v>17.39</v>
+        <v>1.82</v>
       </c>
       <c r="I12">
-        <v>17.85</v>
+        <v>11.66</v>
       </c>
       <c r="J12">
-        <v>4.75</v>
+        <v>17.47</v>
       </c>
       <c r="K12">
-        <v>4.69</v>
+        <v>6.54</v>
       </c>
       <c r="L12">
-        <v>12.91</v>
+        <v>0.51</v>
       </c>
       <c r="M12">
-        <v>8.640000000000001</v>
+        <v>6.31</v>
       </c>
       <c r="N12">
-        <v>51.16</v>
+        <v>57.51000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>3.96</v>
+        <v>0.44</v>
       </c>
       <c r="C13">
-        <v>5.64</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D13">
-        <v>8.41</v>
+        <v>30.69</v>
       </c>
       <c r="E13">
-        <v>3.06</v>
+        <v>29.5</v>
       </c>
       <c r="F13">
-        <v>3.330000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="G13">
-        <v>16.3</v>
+        <v>0.39</v>
       </c>
       <c r="H13">
-        <v>19.01</v>
+        <v>0.49</v>
       </c>
       <c r="I13">
-        <v>5.43</v>
+        <v>4.95</v>
       </c>
       <c r="J13">
-        <v>3.32</v>
+        <v>9.879999999999999</v>
       </c>
       <c r="K13">
-        <v>11.75</v>
+        <v>5.33</v>
       </c>
       <c r="L13">
-        <v>14.86</v>
+        <v>0.74</v>
       </c>
       <c r="M13">
-        <v>4.93</v>
+        <v>1.4</v>
       </c>
       <c r="N13">
-        <v>59.71</v>
+        <v>77.7</v>
       </c>
     </row>
   </sheetData>
@@ -2146,16 +2146,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2166,13 +2166,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2183,13 +2183,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2200,13 +2200,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2214,16 +2214,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2231,16 +2231,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2251,13 +2251,13 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2265,16 +2265,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2285,13 +2285,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2299,16 +2299,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2322,10 +2322,10 @@
         <v>-14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2333,16 +2333,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>-23</v>
+        <v>-26</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2350,16 +2350,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>-28</v>
+        <v>-27</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2369,51 +2369,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2450,11 +2453,14 @@
       <c r="L2">
         <v>38</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2491,11 +2497,14 @@
       <c r="L3">
         <v>33</v>
       </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2532,93 +2541,102 @@
       <c r="L4">
         <v>14</v>
       </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
         <v>-2</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>-4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>-3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>-2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>-1</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>-3</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>-12</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>-12</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>-5</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>-4</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>-8</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>-5</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="M5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="M6">
         <v>-1</v>
       </c>
-      <c r="D6">
-        <v>-2</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>-4</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>-3</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2655,52 +2673,58 @@
       <c r="L7">
         <v>-3</v>
       </c>
-      <c r="M7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>-11</v>
       </c>
       <c r="G8">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="I8">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="K8">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="L8">
-        <v>-6</v>
-      </c>
-      <c r="M8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>-9</v>
+      </c>
+      <c r="M8">
+        <v>-3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2737,52 +2761,58 @@
       <c r="L9">
         <v>-7</v>
       </c>
-      <c r="M9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9">
+        <v>-9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F10">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>-2</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>-5</v>
+      </c>
+      <c r="L10">
+        <v>-6</v>
+      </c>
+      <c r="M10">
         <v>-10</v>
       </c>
-      <c r="I10">
-        <v>-12</v>
-      </c>
-      <c r="J10">
-        <v>-8</v>
-      </c>
-      <c r="K10">
-        <v>-9</v>
-      </c>
-      <c r="L10">
-        <v>-9</v>
-      </c>
-      <c r="M10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2819,90 +2849,99 @@
       <c r="L11">
         <v>-14</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11">
+        <v>-14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>-4</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>-6</v>
+      </c>
+      <c r="H12">
+        <v>-14</v>
+      </c>
+      <c r="I12">
+        <v>-19</v>
+      </c>
+      <c r="J12">
+        <v>-28</v>
+      </c>
+      <c r="K12">
+        <v>-32</v>
+      </c>
+      <c r="L12">
+        <v>-28</v>
+      </c>
+      <c r="M12">
+        <v>-26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>-9</v>
+      </c>
+      <c r="C13">
+        <v>-12</v>
+      </c>
+      <c r="D13">
+        <v>-11</v>
+      </c>
+      <c r="E13">
+        <v>-18</v>
+      </c>
+      <c r="F13">
+        <v>-20</v>
+      </c>
+      <c r="G13">
+        <v>-15</v>
+      </c>
+      <c r="H13">
+        <v>-21</v>
+      </c>
+      <c r="I13">
+        <v>-27</v>
+      </c>
+      <c r="J13">
+        <v>-24</v>
+      </c>
+      <c r="K13">
+        <v>-18</v>
+      </c>
+      <c r="L13">
+        <v>-23</v>
+      </c>
+      <c r="M13">
+        <v>-27</v>
+      </c>
+      <c r="N13" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>-9</v>
-      </c>
-      <c r="C12">
-        <v>-12</v>
-      </c>
-      <c r="D12">
-        <v>-11</v>
-      </c>
-      <c r="E12">
-        <v>-18</v>
-      </c>
-      <c r="F12">
-        <v>-20</v>
-      </c>
-      <c r="G12">
-        <v>-15</v>
-      </c>
-      <c r="H12">
-        <v>-21</v>
-      </c>
-      <c r="I12">
-        <v>-27</v>
-      </c>
-      <c r="J12">
-        <v>-24</v>
-      </c>
-      <c r="K12">
-        <v>-18</v>
-      </c>
-      <c r="L12">
-        <v>-23</v>
-      </c>
-      <c r="M12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>-4</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>-6</v>
-      </c>
-      <c r="H13">
-        <v>-14</v>
-      </c>
-      <c r="I13">
-        <v>-19</v>
-      </c>
-      <c r="J13">
-        <v>-28</v>
-      </c>
-      <c r="K13">
-        <v>-32</v>
-      </c>
-      <c r="L13">
-        <v>-28</v>
-      </c>
-      <c r="M13" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +2951,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3154,25 +3193,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="F10">
-        <v>-18</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3183,21 +3222,47 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-18</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>-19</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>-5</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>14</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Family Fantasy 2024.xlsx
+++ b/Family Fantasy 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="75">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -58,34 +58,37 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>11-1-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>12-1-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -151,28 +154,37 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -209,6 +221,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -642,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -660,10 +675,10 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -695,10 +710,10 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -707,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
         <v>18</v>
@@ -718,13 +733,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -733,13 +748,13 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -751,7 +766,7 @@
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -759,40 +774,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -800,40 +815,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="M6" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -841,28 +856,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
@@ -871,10 +886,10 @@
         <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -888,13 +903,13 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -903,16 +918,16 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
         <v>16</v>
@@ -923,13 +938,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -938,25 +953,25 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -964,10 +979,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -976,7 +991,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -991,13 +1006,13 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1011,7 +1026,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -1023,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -1032,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1052,34 +1067,34 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1096,31 +1111,31 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1138,13 +1153,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1155,10 +1170,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>4.666666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1169,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.083333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1180,13 +1195,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>5.416666666666667</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1194,13 +1209,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5.5</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1208,13 +1223,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>5.916666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1222,13 +1237,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1236,13 +1251,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>6.083333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1250,13 +1265,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>6.333333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1264,13 +1279,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>6.416666666666667</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1278,10 +1293,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>6.5</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1292,13 +1307,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>6.666666666666667</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1309,10 +1324,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>7.416666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1330,16 +1345,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1350,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="D2">
         <v>-0.5</v>
@@ -1367,13 +1382,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>8.083333333333334</v>
+        <v>8.75</v>
       </c>
       <c r="D3">
-        <v>1.083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1384,13 +1399,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1398,16 +1413,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5.916666666666667</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D5">
-        <v>-0.08333333333333304</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1418,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>5.833333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D6">
-        <v>-0.166666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1432,16 +1447,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>5.833333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D7">
-        <v>0.833333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1449,16 +1464,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>5.416666666666667</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D8">
-        <v>0.416666666666667</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1469,10 +1484,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>5.333333333333333</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D9">
-        <v>-1.666666666666667</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -1486,13 +1501,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="D10">
-        <v>-1.75</v>
+        <v>-2.5</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1500,16 +1515,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1517,16 +1532,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>4.666666666666667</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D12">
-        <v>1.666666666666667</v>
+        <v>-2.083333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1534,16 +1549,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>4.166666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D13">
-        <v>-1.833333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1561,486 +1576,486 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>13.52</v>
+        <v>27.3</v>
       </c>
       <c r="C2">
-        <v>5.37</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>24.56</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>9.19</v>
+        <v>72.7</v>
       </c>
       <c r="I2">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.21</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.21</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>7.55</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>68.52000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>11.67</v>
+        <v>23.15</v>
       </c>
       <c r="C3">
-        <v>6.83</v>
+        <v>6.09</v>
       </c>
       <c r="D3">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.89</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>22.85</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>18.39</v>
+        <v>21.21</v>
       </c>
       <c r="I3">
-        <v>2.83</v>
+        <v>49.55</v>
       </c>
       <c r="J3">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.41</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.28</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.47</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>66.72</v>
+        <v>50.45</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>11.61</v>
+        <v>19.92</v>
       </c>
       <c r="C4">
-        <v>2.71</v>
+        <v>12.4</v>
       </c>
       <c r="D4">
-        <v>0.28</v>
+        <v>1.2</v>
       </c>
       <c r="E4">
-        <v>5.58</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>20.71</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>16.08</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.17</v>
+        <v>4.89</v>
       </c>
       <c r="I4">
-        <v>0.21</v>
+        <v>31.96</v>
       </c>
       <c r="J4">
-        <v>3.05</v>
+        <v>29.63</v>
       </c>
       <c r="K4">
-        <v>13.24</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>17.73</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>5.63</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>60.14</v>
+        <v>38.41</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>10.24</v>
+        <v>14.86</v>
       </c>
       <c r="C5">
-        <v>1.53</v>
+        <v>19.34</v>
       </c>
       <c r="D5">
-        <v>1.56</v>
+        <v>3.95</v>
       </c>
       <c r="E5">
-        <v>12.28</v>
+        <v>0.13</v>
       </c>
       <c r="F5">
-        <v>21.01</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>9.890000000000001</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.75</v>
+        <v>1.07</v>
       </c>
       <c r="I5">
-        <v>0.64</v>
+        <v>13.34</v>
       </c>
       <c r="J5">
-        <v>6.800000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="K5">
-        <v>18.15</v>
+        <v>14.77</v>
       </c>
       <c r="L5">
-        <v>14.56</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2.59</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>57.26000000000001</v>
+        <v>39.35000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>9.94</v>
+        <v>9.31</v>
       </c>
       <c r="C6">
-        <v>0.9199999999999999</v>
+        <v>21.29</v>
       </c>
       <c r="D6">
-        <v>4.73</v>
+        <v>10.52</v>
       </c>
       <c r="E6">
-        <v>17.56</v>
+        <v>0.91</v>
       </c>
       <c r="F6">
-        <v>17.25</v>
+        <v>0.01</v>
       </c>
       <c r="G6">
-        <v>4.22</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="I6">
-        <v>2.15</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="J6">
-        <v>12.56</v>
+        <v>22.16</v>
       </c>
       <c r="K6">
-        <v>20.32</v>
+        <v>26.11</v>
       </c>
       <c r="L6">
-        <v>9.26</v>
+        <v>5.46</v>
       </c>
       <c r="M6">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>54.83000000000001</v>
+        <v>42.16</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>9.869999999999999</v>
+        <v>4.36</v>
       </c>
       <c r="C7">
-        <v>9.199999999999999</v>
+        <v>20.23</v>
       </c>
       <c r="D7">
-        <v>1.79</v>
+        <v>16.7</v>
       </c>
       <c r="E7">
+        <v>3.34</v>
+      </c>
+      <c r="F7">
         <v>0.09</v>
       </c>
-      <c r="F7">
-        <v>1.18</v>
-      </c>
       <c r="G7">
-        <v>14.11</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>24.9</v>
+        <v>0.01</v>
       </c>
       <c r="I7">
-        <v>8.98</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="J7">
-        <v>0.53</v>
+        <v>11.29</v>
       </c>
       <c r="K7">
-        <v>1.78</v>
+        <v>26.75</v>
       </c>
       <c r="L7">
-        <v>12.56</v>
+        <v>15.19</v>
       </c>
       <c r="M7">
-        <v>15.01</v>
+        <v>1.1</v>
       </c>
       <c r="N7">
-        <v>61.13999999999999</v>
+        <v>44.73</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>8.790000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C8">
-        <v>0.91</v>
+        <v>14.46</v>
       </c>
       <c r="D8">
-        <v>8.619999999999999</v>
+        <v>23.09</v>
       </c>
       <c r="E8">
-        <v>18.97</v>
+        <v>8.43</v>
       </c>
       <c r="F8">
-        <v>10.98</v>
+        <v>0.51</v>
       </c>
       <c r="G8">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>5.87</v>
+        <v>0.1</v>
       </c>
       <c r="J8">
-        <v>20.25</v>
+        <v>3.77</v>
       </c>
       <c r="K8">
-        <v>19.25</v>
+        <v>19.56</v>
       </c>
       <c r="L8">
-        <v>4.53</v>
+        <v>23.89</v>
       </c>
       <c r="M8">
-        <v>0.29</v>
+        <v>5.09</v>
       </c>
       <c r="N8">
-        <v>49.81</v>
+        <v>47.59</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>11.34</v>
+        <v>6.19</v>
       </c>
       <c r="D9">
-        <v>3.23</v>
+        <v>25.83</v>
       </c>
       <c r="E9">
-        <v>0.2</v>
+        <v>16.66</v>
       </c>
       <c r="F9">
-        <v>0.18</v>
+        <v>2.03</v>
       </c>
       <c r="G9">
-        <v>5.2</v>
+        <v>0.01</v>
       </c>
       <c r="H9">
-        <v>23.27</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>19.25</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2.86</v>
+        <v>0.6</v>
       </c>
       <c r="K9">
-        <v>0.5700000000000001</v>
+        <v>10.17</v>
       </c>
       <c r="L9">
-        <v>7.35</v>
+        <v>25.99</v>
       </c>
       <c r="M9">
-        <v>18.22</v>
+        <v>12.52</v>
       </c>
       <c r="N9">
-        <v>51.75</v>
+        <v>50.71999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>6.710000000000001</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>23.59</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>17.74</v>
+        <v>18.71</v>
       </c>
       <c r="E10">
-        <v>3.34</v>
+        <v>26.06</v>
       </c>
       <c r="F10">
-        <v>0.06</v>
+        <v>5.52</v>
       </c>
       <c r="G10">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="H10">
-        <v>4.590000000000001</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>16.91</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>15.94</v>
+        <v>0.01</v>
       </c>
       <c r="K10">
-        <v>2.91</v>
+        <v>2.52</v>
       </c>
       <c r="L10">
-        <v>0.29</v>
+        <v>21.31</v>
       </c>
       <c r="M10">
-        <v>7.75</v>
+        <v>25.76</v>
       </c>
       <c r="N10">
-        <v>56.20000000000002</v>
+        <v>50.39999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>6.569999999999999</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.44</v>
+        <v>44.47</v>
       </c>
       <c r="F11">
-        <v>0.02</v>
+        <v>25.49</v>
       </c>
       <c r="G11">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="H11">
-        <v>12.92</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>25.94</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>9.470000000000001</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
       <c r="L11">
-        <v>2.98</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="M11">
-        <v>22.9</v>
+        <v>21.88</v>
       </c>
       <c r="N11">
-        <v>38.42</v>
+        <v>71.11000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2048,43 +2063,43 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>16.81</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>25.22</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>10.31</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.02</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="G12">
-        <v>0.02</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="H12">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>11.66</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>17.47</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>6.54</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.51</v>
+        <v>1.27</v>
       </c>
       <c r="M12">
-        <v>6.31</v>
+        <v>24.16</v>
       </c>
       <c r="N12">
-        <v>57.51000000000001</v>
+        <v>74.56999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2092,43 +2107,43 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>8.390000000000001</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>30.69</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.39</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="H13">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>9.879999999999999</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>5.33</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.4</v>
+        <v>9.49</v>
       </c>
       <c r="N13">
-        <v>77.7</v>
+        <v>90.51000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2146,16 +2161,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2166,13 +2181,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2183,13 +2198,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2197,16 +2212,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2214,16 +2229,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2231,16 +2246,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2248,16 +2263,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2265,16 +2280,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>-3</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2282,16 +2297,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2299,16 +2314,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2316,16 +2331,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2333,7 +2348,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>-26</v>
@@ -2342,7 +2357,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2350,16 +2365,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>-27</v>
+        <v>-34</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2369,54 +2384,57 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>67</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2456,11 +2474,14 @@
       <c r="M2">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2500,448 +2521,481 @@
       <c r="M3">
         <v>41</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>-3</v>
+      </c>
+      <c r="F4">
+        <v>-12</v>
+      </c>
+      <c r="G4">
+        <v>-12</v>
+      </c>
+      <c r="H4">
+        <v>-5</v>
+      </c>
+      <c r="I4">
+        <v>-4</v>
+      </c>
+      <c r="J4">
+        <v>-8</v>
+      </c>
+      <c r="K4">
+        <v>-5</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4">
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
         <v>23</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>32</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>28</v>
       </c>
-      <c r="J4">
-        <v>17</v>
-      </c>
-      <c r="K4">
+      <c r="J5">
+        <v>17</v>
+      </c>
+      <c r="K5">
         <v>18</v>
       </c>
-      <c r="L4">
-        <v>14</v>
-      </c>
-      <c r="M4">
+      <c r="L5">
+        <v>14</v>
+      </c>
+      <c r="M5">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5">
-        <v>-2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>-11</v>
+      </c>
+      <c r="G6">
         <v>-4</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>-3</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>-2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6">
-        <v>-3</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
+        <v>-10</v>
+      </c>
+      <c r="I6">
         <v>-12</v>
-      </c>
-      <c r="G6">
-        <v>-12</v>
-      </c>
-      <c r="H6">
-        <v>-5</v>
-      </c>
-      <c r="I6">
-        <v>-4</v>
       </c>
       <c r="J6">
         <v>-8</v>
       </c>
       <c r="K6">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="L6">
+        <v>-9</v>
+      </c>
+      <c r="M6">
+        <v>-3</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>-3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>-1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M6">
-        <v>-1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
         <v>5</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>-1</v>
-      </c>
-      <c r="L7">
-        <v>-3</v>
-      </c>
-      <c r="M7">
-        <v>-1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
       </c>
       <c r="C8">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>-2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>-2</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>-5</v>
+      </c>
+      <c r="L8">
+        <v>-6</v>
+      </c>
+      <c r="M8">
+        <v>-10</v>
+      </c>
+      <c r="N8">
+        <v>-3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>-3</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
+      <c r="N9">
+        <v>-8</v>
+      </c>
+      <c r="O9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>-8</v>
+      </c>
+      <c r="D10">
+        <v>-4</v>
+      </c>
+      <c r="E10">
+        <v>-5</v>
+      </c>
+      <c r="F10">
+        <v>-7</v>
+      </c>
+      <c r="G10">
+        <v>-5</v>
+      </c>
+      <c r="H10">
+        <v>-9</v>
+      </c>
+      <c r="I10">
+        <v>-12</v>
+      </c>
+      <c r="J10">
+        <v>-6</v>
+      </c>
+      <c r="K10">
+        <v>-12</v>
+      </c>
+      <c r="L10">
+        <v>-14</v>
+      </c>
+      <c r="M10">
+        <v>-14</v>
+      </c>
+      <c r="N10">
+        <v>-13</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
         <v>-11</v>
       </c>
-      <c r="G8">
+      <c r="C11">
+        <v>-9</v>
+      </c>
+      <c r="D11">
+        <v>-20</v>
+      </c>
+      <c r="E11">
+        <v>-19</v>
+      </c>
+      <c r="F11">
+        <v>-21</v>
+      </c>
+      <c r="G11">
+        <v>-28</v>
+      </c>
+      <c r="H11">
+        <v>-27</v>
+      </c>
+      <c r="I11">
+        <v>-18</v>
+      </c>
+      <c r="J11">
+        <v>-15</v>
+      </c>
+      <c r="K11">
+        <v>-13</v>
+      </c>
+      <c r="L11">
+        <v>-7</v>
+      </c>
+      <c r="M11">
+        <v>-9</v>
+      </c>
+      <c r="N11">
+        <v>-19</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>-9</v>
+      </c>
+      <c r="C12">
+        <v>-12</v>
+      </c>
+      <c r="D12">
+        <v>-11</v>
+      </c>
+      <c r="E12">
+        <v>-18</v>
+      </c>
+      <c r="F12">
+        <v>-20</v>
+      </c>
+      <c r="G12">
+        <v>-15</v>
+      </c>
+      <c r="H12">
+        <v>-21</v>
+      </c>
+      <c r="I12">
+        <v>-27</v>
+      </c>
+      <c r="J12">
+        <v>-24</v>
+      </c>
+      <c r="K12">
+        <v>-18</v>
+      </c>
+      <c r="L12">
+        <v>-23</v>
+      </c>
+      <c r="M12">
+        <v>-27</v>
+      </c>
+      <c r="N12">
+        <v>-26</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
         <v>-4</v>
       </c>
-      <c r="H8">
-        <v>-10</v>
-      </c>
-      <c r="I8">
-        <v>-12</v>
-      </c>
-      <c r="J8">
-        <v>-8</v>
-      </c>
-      <c r="K8">
-        <v>-9</v>
-      </c>
-      <c r="L8">
-        <v>-9</v>
-      </c>
-      <c r="M8">
-        <v>-3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>-11</v>
-      </c>
-      <c r="C9">
-        <v>-9</v>
-      </c>
-      <c r="D9">
-        <v>-20</v>
-      </c>
-      <c r="E9">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>-6</v>
+      </c>
+      <c r="H13">
+        <v>-14</v>
+      </c>
+      <c r="I13">
         <v>-19</v>
       </c>
-      <c r="F9">
-        <v>-21</v>
-      </c>
-      <c r="G9">
+      <c r="J13">
         <v>-28</v>
       </c>
-      <c r="H9">
-        <v>-27</v>
-      </c>
-      <c r="I9">
-        <v>-18</v>
-      </c>
-      <c r="J9">
-        <v>-15</v>
-      </c>
-      <c r="K9">
-        <v>-13</v>
-      </c>
-      <c r="L9">
-        <v>-7</v>
-      </c>
-      <c r="M9">
-        <v>-9</v>
-      </c>
-      <c r="N9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>-1</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>-2</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>-2</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>-5</v>
-      </c>
-      <c r="L10">
-        <v>-6</v>
-      </c>
-      <c r="M10">
-        <v>-10</v>
-      </c>
-      <c r="N10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>-8</v>
-      </c>
-      <c r="D11">
-        <v>-4</v>
-      </c>
-      <c r="E11">
-        <v>-5</v>
-      </c>
-      <c r="F11">
-        <v>-7</v>
-      </c>
-      <c r="G11">
-        <v>-5</v>
-      </c>
-      <c r="H11">
-        <v>-9</v>
-      </c>
-      <c r="I11">
-        <v>-12</v>
-      </c>
-      <c r="J11">
-        <v>-6</v>
-      </c>
-      <c r="K11">
-        <v>-12</v>
-      </c>
-      <c r="L11">
-        <v>-14</v>
-      </c>
-      <c r="M11">
-        <v>-14</v>
-      </c>
-      <c r="N11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>-4</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>-6</v>
-      </c>
-      <c r="H12">
-        <v>-14</v>
-      </c>
-      <c r="I12">
-        <v>-19</v>
-      </c>
-      <c r="J12">
+      <c r="K13">
+        <v>-32</v>
+      </c>
+      <c r="L13">
         <v>-28</v>
       </c>
-      <c r="K12">
-        <v>-32</v>
-      </c>
-      <c r="L12">
-        <v>-28</v>
-      </c>
-      <c r="M12">
+      <c r="M13">
         <v>-26</v>
       </c>
-      <c r="N12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>-9</v>
-      </c>
-      <c r="C13">
-        <v>-12</v>
-      </c>
-      <c r="D13">
-        <v>-11</v>
-      </c>
-      <c r="E13">
-        <v>-18</v>
-      </c>
-      <c r="F13">
-        <v>-20</v>
-      </c>
-      <c r="G13">
-        <v>-15</v>
-      </c>
-      <c r="H13">
-        <v>-21</v>
-      </c>
-      <c r="I13">
-        <v>-27</v>
-      </c>
-      <c r="J13">
-        <v>-24</v>
-      </c>
-      <c r="K13">
-        <v>-18</v>
-      </c>
-      <c r="L13">
-        <v>-23</v>
-      </c>
-      <c r="M13">
-        <v>-27</v>
-      </c>
-      <c r="N13" t="s">
-        <v>47</v>
+      <c r="N13">
+        <v>-34</v>
+      </c>
+      <c r="O13" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2951,7 +3005,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2959,25 +3013,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3193,25 +3247,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>-26</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3219,51 +3273,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="F11">
-        <v>-18</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>-19</v>
-      </c>
-      <c r="F12">
-        <v>-5</v>
-      </c>
-      <c r="G12">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Family Fantasy 2024.xlsx
+++ b/Family Fantasy 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="74">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -58,37 +58,40 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>12-1-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>13-1-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -157,34 +160,25 @@
     <t>↑6</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↑1</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -224,6 +218,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -654,31 +651,31 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -695,37 +692,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -733,40 +730,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -774,40 +771,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -815,10 +812,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -827,28 +824,28 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -856,22 +853,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -880,10 +877,10 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
@@ -897,31 +894,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
@@ -930,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -938,10 +935,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -950,28 +947,28 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -982,7 +979,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1000,19 +997,19 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1020,37 +1017,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
         <v>12</v>
@@ -1061,37 +1058,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
         <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
         <v>12</v>
@@ -1102,40 +1099,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
         <v>21</v>
       </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1153,13 +1150,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1170,10 +1167,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>5.083333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1184,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1198,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.166666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1209,13 +1206,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>6.166666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1226,10 +1223,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>6.25</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1237,13 +1234,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>6.25</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1251,13 +1248,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1268,10 +1265,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>6.833333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1279,13 +1276,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>6.916666666666667</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1293,13 +1290,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>7.083333333333333</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1307,13 +1304,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>7.166666666666667</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1324,10 +1321,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>8.333333333333334</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1345,16 +1342,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1365,13 +1362,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="D2">
         <v>-0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1382,13 +1379,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>8.75</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="D3">
-        <v>0.75</v>
+        <v>0.5833333333333339</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1399,13 +1396,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>7.416666666666667</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>-0.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1416,13 +1413,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.583333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="D5">
-        <v>1.583333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1430,16 +1427,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="D6">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1447,16 +1444,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>6.166666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D7">
-        <v>0.166666666666667</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1464,16 +1461,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>5.916666666666667</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D8">
-        <v>1.916666666666667</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1481,16 +1478,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>5.833333333333333</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>-1.166666666666667</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1501,13 +1498,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>5.5</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D10">
-        <v>-2.5</v>
+        <v>-2.083333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1515,16 +1512,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>5.5</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1535,13 +1532,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>4.916666666666667</v>
+        <v>5.25</v>
       </c>
       <c r="D12">
-        <v>-2.083333333333333</v>
+        <v>-2.75</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1552,13 +1549,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>4.666666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D13">
-        <v>1.666666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1576,46 +1573,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1623,7 +1620,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>27.3</v>
+        <v>24.22</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1641,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>72.7</v>
+        <v>75.78</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1667,10 +1664,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>23.15</v>
+        <v>23.39</v>
       </c>
       <c r="C3">
-        <v>6.09</v>
+        <v>5.09</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1685,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>21.21</v>
+        <v>19.13</v>
       </c>
       <c r="I3">
-        <v>49.55</v>
+        <v>52.39</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1703,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>50.45</v>
+        <v>47.61</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1711,13 +1708,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>19.92</v>
+        <v>20.44</v>
       </c>
       <c r="C4">
-        <v>12.4</v>
+        <v>10.88</v>
       </c>
       <c r="D4">
-        <v>1.2</v>
+        <v>0.77</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1729,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.89</v>
+        <v>4.32</v>
       </c>
       <c r="I4">
-        <v>31.96</v>
+        <v>31.64</v>
       </c>
       <c r="J4">
-        <v>29.63</v>
+        <v>31.95</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1747,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>38.41</v>
+        <v>36.41</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1755,16 +1752,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>14.86</v>
+        <v>14.3</v>
       </c>
       <c r="C5">
-        <v>19.34</v>
+        <v>15.69</v>
       </c>
       <c r="D5">
-        <v>3.95</v>
+        <v>2.64</v>
       </c>
       <c r="E5">
-        <v>0.13</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1773,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.07</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="I5">
-        <v>13.34</v>
+        <v>12.56</v>
       </c>
       <c r="J5">
-        <v>32.54</v>
+        <v>36.39</v>
       </c>
       <c r="K5">
-        <v>14.77</v>
+        <v>17.65</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1791,115 +1788,115 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>39.35000000000001</v>
+        <v>33.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>9.31</v>
+        <v>11.11</v>
       </c>
       <c r="C6">
-        <v>21.29</v>
+        <v>23.67</v>
       </c>
       <c r="D6">
-        <v>10.52</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E6">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
       <c r="F6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.12</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="I6">
-        <v>4.109999999999999</v>
+        <v>2.76</v>
       </c>
       <c r="J6">
-        <v>22.16</v>
+        <v>19.55</v>
       </c>
       <c r="K6">
-        <v>26.11</v>
+        <v>27.02</v>
       </c>
       <c r="L6">
-        <v>5.46</v>
+        <v>6.54</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>42.16</v>
+        <v>44.13</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>4.36</v>
+        <v>5.16</v>
       </c>
       <c r="C7">
-        <v>20.23</v>
+        <v>21.28</v>
       </c>
       <c r="D7">
-        <v>16.7</v>
+        <v>16.66</v>
       </c>
       <c r="E7">
-        <v>3.34</v>
+        <v>2.6</v>
       </c>
       <c r="F7">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9400000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="J7">
-        <v>11.29</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="K7">
-        <v>26.75</v>
+        <v>26.56</v>
       </c>
       <c r="L7">
-        <v>15.19</v>
+        <v>16.85</v>
       </c>
       <c r="M7">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="N7">
-        <v>44.73</v>
+        <v>45.74999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="C8">
-        <v>14.46</v>
+        <v>15.87</v>
       </c>
       <c r="D8">
-        <v>23.09</v>
+        <v>23.25</v>
       </c>
       <c r="E8">
-        <v>8.43</v>
+        <v>6.79</v>
       </c>
       <c r="F8">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1908,42 +1905,42 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J8">
-        <v>3.77</v>
+        <v>2.83</v>
       </c>
       <c r="K8">
-        <v>19.56</v>
+        <v>18.73</v>
       </c>
       <c r="L8">
-        <v>23.89</v>
+        <v>24.59</v>
       </c>
       <c r="M8">
-        <v>5.09</v>
+        <v>6.140000000000001</v>
       </c>
       <c r="N8">
-        <v>47.59</v>
+        <v>47.66</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.19</v>
+        <v>7.52</v>
       </c>
       <c r="D9">
-        <v>25.83</v>
+        <v>24.8</v>
       </c>
       <c r="E9">
-        <v>16.66</v>
+        <v>13.26</v>
       </c>
       <c r="F9">
-        <v>2.03</v>
+        <v>1.1</v>
       </c>
       <c r="G9">
         <v>0.01</v>
@@ -1955,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6</v>
+        <v>0.41</v>
       </c>
       <c r="K9">
-        <v>10.17</v>
+        <v>8.52</v>
       </c>
       <c r="L9">
-        <v>25.99</v>
+        <v>28.72</v>
       </c>
       <c r="M9">
-        <v>12.52</v>
+        <v>15.66</v>
       </c>
       <c r="N9">
-        <v>50.71999999999999</v>
+        <v>46.69</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1981,16 +1978,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>18.71</v>
+        <v>23.18</v>
       </c>
       <c r="E10">
-        <v>26.06</v>
+        <v>27.24</v>
       </c>
       <c r="F10">
-        <v>5.52</v>
+        <v>4.56</v>
       </c>
       <c r="G10">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2002,16 +1999,16 @@
         <v>0.01</v>
       </c>
       <c r="K10">
-        <v>2.52</v>
+        <v>1.46</v>
       </c>
       <c r="L10">
-        <v>21.31</v>
+        <v>17.22</v>
       </c>
       <c r="M10">
-        <v>25.76</v>
+        <v>26.28</v>
       </c>
       <c r="N10">
-        <v>50.39999999999999</v>
+        <v>55.03</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2028,13 +2025,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>44.47</v>
+        <v>49.46</v>
       </c>
       <c r="F11">
-        <v>25.49</v>
+        <v>22.02</v>
       </c>
       <c r="G11">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2046,16 +2043,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="L11">
-        <v>6.890000000000001</v>
+        <v>5.27</v>
       </c>
       <c r="M11">
-        <v>21.88</v>
+        <v>22.44</v>
       </c>
       <c r="N11">
-        <v>71.11000000000001</v>
+        <v>72.23</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2075,10 +2072,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>66.34999999999999</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="G12">
-        <v>8.219999999999999</v>
+        <v>6.43</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2093,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.27</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="M12">
-        <v>24.16</v>
+        <v>20.86</v>
       </c>
       <c r="N12">
-        <v>74.56999999999999</v>
+        <v>78.32999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2122,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>90.51000000000001</v>
+        <v>92.75999999999999</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2140,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>9.49</v>
+        <v>7.24</v>
       </c>
       <c r="N13">
-        <v>90.51000000000001</v>
+        <v>92.75999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2161,16 +2158,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2178,16 +2175,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2195,16 +2192,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2212,16 +2209,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2229,16 +2226,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2246,16 +2243,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2266,13 +2263,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2280,16 +2277,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2297,16 +2294,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2317,13 +2314,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2334,13 +2331,13 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>-19</v>
+        <v>-25</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2351,10 +2348,10 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>-26</v>
+        <v>-32</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
         <v>52</v>
@@ -2368,13 +2365,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>-34</v>
+        <v>-35</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2384,292 +2381,310 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="K2">
+        <v>27</v>
+      </c>
+      <c r="L2">
+        <v>33</v>
+      </c>
+      <c r="M2">
+        <v>41</v>
+      </c>
+      <c r="N2">
+        <v>44</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
         <v>45</v>
       </c>
-      <c r="L2">
-        <v>38</v>
-      </c>
-      <c r="M2">
-        <v>42</v>
-      </c>
-      <c r="N2">
-        <v>48</v>
-      </c>
-      <c r="O2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>9</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J3">
+        <v>40</v>
+      </c>
+      <c r="K3">
+        <v>45</v>
+      </c>
+      <c r="L3">
+        <v>38</v>
+      </c>
+      <c r="M3">
+        <v>42</v>
+      </c>
+      <c r="N3">
+        <v>48</v>
+      </c>
+      <c r="O3">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
         <v>23</v>
       </c>
-      <c r="K3">
-        <v>27</v>
-      </c>
-      <c r="L3">
-        <v>33</v>
-      </c>
-      <c r="M3">
-        <v>41</v>
-      </c>
-      <c r="N3">
-        <v>44</v>
-      </c>
-      <c r="O3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
         <v>-2</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>-2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>-5</v>
+      </c>
+      <c r="L5">
+        <v>-6</v>
+      </c>
+      <c r="M5">
+        <v>-10</v>
+      </c>
+      <c r="N5">
+        <v>-3</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>-2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>-1</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>-3</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>-12</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>-12</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>-5</v>
       </c>
-      <c r="I4">
+      <c r="I6">
         <v>-4</v>
-      </c>
-      <c r="J4">
-        <v>-8</v>
-      </c>
-      <c r="K4">
-        <v>-5</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>-1</v>
-      </c>
-      <c r="N4">
-        <v>8</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>23</v>
-      </c>
-      <c r="H5">
-        <v>32</v>
-      </c>
-      <c r="I5">
-        <v>28</v>
-      </c>
-      <c r="J5">
-        <v>17</v>
-      </c>
-      <c r="K5">
-        <v>18</v>
-      </c>
-      <c r="L5">
-        <v>14</v>
-      </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>-11</v>
-      </c>
-      <c r="G6">
-        <v>-4</v>
-      </c>
-      <c r="H6">
-        <v>-10</v>
-      </c>
-      <c r="I6">
-        <v>-12</v>
       </c>
       <c r="J6">
         <v>-8</v>
       </c>
       <c r="K6">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="L6">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2712,105 +2727,114 @@
       <c r="N7">
         <v>-1</v>
       </c>
-      <c r="O7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>-3</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="N8">
+        <v>-8</v>
+      </c>
+      <c r="O8">
+        <v>-2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>9</v>
       </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>-2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>-2</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>-5</v>
-      </c>
-      <c r="L8">
-        <v>-6</v>
-      </c>
-      <c r="M8">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>-11</v>
+      </c>
+      <c r="G9">
+        <v>-4</v>
+      </c>
+      <c r="H9">
         <v>-10</v>
       </c>
-      <c r="N8">
+      <c r="I9">
+        <v>-12</v>
+      </c>
+      <c r="J9">
+        <v>-8</v>
+      </c>
+      <c r="K9">
+        <v>-9</v>
+      </c>
+      <c r="L9">
+        <v>-9</v>
+      </c>
+      <c r="M9">
         <v>-3</v>
       </c>
-      <c r="O8" t="s">
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>-3</v>
+      </c>
+      <c r="P9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>-1</v>
-      </c>
-      <c r="L9">
-        <v>-3</v>
-      </c>
-      <c r="M9">
-        <v>-1</v>
-      </c>
-      <c r="N9">
-        <v>-8</v>
-      </c>
-      <c r="O9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2853,11 +2877,14 @@
       <c r="N10">
         <v>-13</v>
       </c>
-      <c r="O10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>-14</v>
+      </c>
+      <c r="P10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2900,11 +2927,14 @@
       <c r="N11">
         <v>-19</v>
       </c>
-      <c r="O11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>-25</v>
+      </c>
+      <c r="P11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2947,11 +2977,14 @@
       <c r="N12">
         <v>-26</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12">
+        <v>-32</v>
+      </c>
+      <c r="P12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2994,8 +3027,11 @@
       <c r="N13">
         <v>-34</v>
       </c>
-      <c r="O13" t="s">
-        <v>54</v>
+      <c r="O13">
+        <v>-35</v>
+      </c>
+      <c r="P13" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3013,25 +3049,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3143,25 +3179,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>-32</v>
       </c>
       <c r="F6">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3169,25 +3205,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>-24</v>
+        <v>-1</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>-32</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3195,25 +3231,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>-14</v>
+        <v>-24</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3221,25 +3257,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3247,25 +3283,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-26</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3273,25 +3309,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>-26</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Family Fantasy 2024.xlsx
+++ b/Family Fantasy 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="81">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -58,40 +58,49 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>13-1-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>12-2-1</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>13-2-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>3-11-1</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>14-1-0</t>
+  </si>
+  <si>
+    <t>2-13-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -157,28 +166,37 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↓1</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -221,6 +239,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -651,37 +672,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
         <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -692,37 +713,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -733,37 +754,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -771,40 +792,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -824,28 +845,28 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -853,37 +874,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -894,40 +915,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -935,40 +956,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -979,37 +1000,37 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" t="s">
-        <v>14</v>
-      </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1017,37 +1038,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s">
         <v>12</v>
@@ -1058,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -1067,31 +1088,31 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s">
         <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1102,37 +1123,37 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
         <v>22</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>13</v>
       </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1150,13 +1171,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1167,10 +1188,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>5.416666666666667</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1181,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1195,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.333333333333333</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1206,13 +1227,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>6.75</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1223,10 +1244,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>6.916666666666667</v>
+        <v>7.25</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1234,10 +1255,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>6.916666666666667</v>
+        <v>7.5</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1248,13 +1269,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1262,13 +1283,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>7.083333333333333</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1276,13 +1297,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>7.416666666666667</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1290,13 +1311,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>7.416666666666667</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1307,10 +1328,10 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>7.916666666666667</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1321,10 +1342,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>8.833333333333334</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1342,16 +1363,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1362,13 +1383,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>11.5</v>
+        <v>11.91666666666667</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-0.08333333333333393</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1379,13 +1400,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>9.583333333333334</v>
+        <v>10.5</v>
       </c>
       <c r="D3">
-        <v>0.5833333333333339</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1396,13 +1417,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1666666666666661</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1419,7 +1440,7 @@
         <v>1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1430,10 +1451,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>6.75</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1447,13 +1468,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>6.666666666666667</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>-0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1464,10 +1485,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>6.166666666666667</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>1.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1478,16 +1499,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>-2.083333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1495,16 +1516,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>5.916666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="D10">
-        <v>-2.083333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1515,10 +1536,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>5.833333333333333</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>-1.166666666666667</v>
+        <v>-2</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -1532,13 +1553,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>5.25</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D12">
-        <v>-2.75</v>
+        <v>-2.083333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1549,13 +1570,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>4.833333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D13">
-        <v>1.833333333333333</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1573,46 +1594,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1620,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>24.22</v>
+        <v>25.28</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1638,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>75.78</v>
+        <v>74.72</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1664,10 +1685,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>23.39</v>
+        <v>23.86</v>
       </c>
       <c r="C3">
-        <v>5.09</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1682,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>19.13</v>
+        <v>19.89</v>
       </c>
       <c r="I3">
-        <v>52.39</v>
+        <v>50.86000000000001</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1700,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>47.61</v>
+        <v>49.14</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1708,13 +1729,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20.44</v>
+        <v>19.78</v>
       </c>
       <c r="C4">
-        <v>10.88</v>
+        <v>12.06</v>
       </c>
       <c r="D4">
-        <v>0.77</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1726,13 +1747,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.32</v>
+        <v>4.49</v>
       </c>
       <c r="I4">
-        <v>31.64</v>
+        <v>31.69</v>
       </c>
       <c r="J4">
-        <v>31.95</v>
+        <v>31.08</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1744,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>36.41</v>
+        <v>37.23</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1752,16 +1773,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>14.3</v>
+        <v>14.07</v>
       </c>
       <c r="C5">
-        <v>15.69</v>
+        <v>16.09</v>
       </c>
       <c r="D5">
-        <v>2.64</v>
+        <v>3.22</v>
       </c>
       <c r="E5">
-        <v>0.06999999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1770,16 +1791,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.7000000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="I5">
-        <v>12.56</v>
+        <v>13.33</v>
       </c>
       <c r="J5">
-        <v>36.39</v>
+        <v>35.38</v>
       </c>
       <c r="K5">
-        <v>17.65</v>
+        <v>17.01</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1788,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>33.40000000000001</v>
+        <v>34.27999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1796,43 +1817,43 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>11.11</v>
+        <v>10.75</v>
       </c>
       <c r="C6">
-        <v>23.67</v>
+        <v>22.98</v>
       </c>
       <c r="D6">
-        <v>8.699999999999999</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E6">
-        <v>0.58</v>
+        <v>0.74</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.06999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="I6">
-        <v>2.76</v>
+        <v>3.27</v>
       </c>
       <c r="J6">
-        <v>19.55</v>
+        <v>20.38</v>
       </c>
       <c r="K6">
-        <v>27.02</v>
+        <v>26.47</v>
       </c>
       <c r="L6">
-        <v>6.54</v>
+        <v>6.260000000000001</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>44.13</v>
+        <v>43.62</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1840,16 +1861,16 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>5.16</v>
+        <v>4.95</v>
       </c>
       <c r="C7">
-        <v>21.28</v>
+        <v>21.53</v>
       </c>
       <c r="D7">
-        <v>16.66</v>
+        <v>16.7</v>
       </c>
       <c r="E7">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="F7">
         <v>0.05</v>
@@ -1858,25 +1879,25 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I7">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="J7">
-        <v>8.859999999999999</v>
+        <v>9.610000000000001</v>
       </c>
       <c r="K7">
-        <v>26.56</v>
+        <v>26.66</v>
       </c>
       <c r="L7">
-        <v>16.85</v>
+        <v>15.69</v>
       </c>
       <c r="M7">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="N7">
-        <v>45.74999999999999</v>
+        <v>45.93999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1884,19 +1905,19 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="C8">
-        <v>15.87</v>
+        <v>14.63</v>
       </c>
       <c r="D8">
-        <v>23.25</v>
+        <v>23.23</v>
       </c>
       <c r="E8">
-        <v>6.79</v>
+        <v>7.02</v>
       </c>
       <c r="F8">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1905,22 +1926,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J8">
-        <v>2.83</v>
+        <v>3.18</v>
       </c>
       <c r="K8">
-        <v>18.73</v>
+        <v>19.29</v>
       </c>
       <c r="L8">
-        <v>24.59</v>
+        <v>24.96</v>
       </c>
       <c r="M8">
-        <v>6.140000000000001</v>
+        <v>6.01</v>
       </c>
       <c r="N8">
-        <v>47.66</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1931,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.52</v>
+        <v>7.32</v>
       </c>
       <c r="D9">
-        <v>24.8</v>
+        <v>25.24</v>
       </c>
       <c r="E9">
-        <v>13.26</v>
+        <v>13.5</v>
       </c>
       <c r="F9">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="G9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1952,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="K9">
-        <v>8.52</v>
+        <v>8.870000000000001</v>
       </c>
       <c r="L9">
-        <v>28.72</v>
+        <v>29.02</v>
       </c>
       <c r="M9">
-        <v>15.66</v>
+        <v>14.35</v>
       </c>
       <c r="N9">
-        <v>46.69</v>
+        <v>47.39</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1978,16 +1999,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>23.18</v>
+        <v>21.67</v>
       </c>
       <c r="E10">
-        <v>27.24</v>
+        <v>28.13</v>
       </c>
       <c r="F10">
-        <v>4.56</v>
+        <v>4.78</v>
       </c>
       <c r="G10">
-        <v>0.05</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1996,19 +2017,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="L10">
-        <v>17.22</v>
+        <v>17.59</v>
       </c>
       <c r="M10">
-        <v>26.28</v>
+        <v>26.13</v>
       </c>
       <c r="N10">
-        <v>55.03</v>
+        <v>54.65</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2025,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>49.46</v>
+        <v>47.8</v>
       </c>
       <c r="F11">
-        <v>22.02</v>
+        <v>23.59</v>
       </c>
       <c r="G11">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2043,16 +2064,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.06</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="L11">
-        <v>5.27</v>
+        <v>5.609999999999999</v>
       </c>
       <c r="M11">
-        <v>22.44</v>
+        <v>22.13</v>
       </c>
       <c r="N11">
-        <v>72.23</v>
+        <v>72.19</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2072,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>71.89999999999999</v>
+        <v>69.93000000000001</v>
       </c>
       <c r="G12">
-        <v>6.43</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2090,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8099999999999999</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="M12">
-        <v>20.86</v>
+        <v>22.6</v>
       </c>
       <c r="N12">
-        <v>78.32999999999998</v>
+        <v>76.53</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2119,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>92.75999999999999</v>
+        <v>92.53</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2137,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>7.24</v>
+        <v>7.470000000000001</v>
       </c>
       <c r="N13">
-        <v>92.75999999999999</v>
+        <v>92.53</v>
       </c>
     </row>
   </sheetData>
@@ -2158,16 +2179,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2178,13 +2199,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2195,13 +2216,13 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2212,13 +2233,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2226,16 +2247,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2243,16 +2264,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2260,16 +2281,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2277,16 +2298,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>-2</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2294,16 +2315,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2311,16 +2332,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>-14</v>
+        <v>-22</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2328,16 +2349,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>-25</v>
+        <v>-23</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2348,13 +2369,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>-32</v>
+        <v>-25</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2365,13 +2386,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>-35</v>
+        <v>-26</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2381,60 +2402,63 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2480,11 +2504,14 @@
       <c r="O2">
         <v>50</v>
       </c>
-      <c r="P2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2530,11 +2557,14 @@
       <c r="O3">
         <v>49</v>
       </c>
-      <c r="P3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>48</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2580,361 +2610,385 @@
       <c r="O4">
         <v>7</v>
       </c>
-      <c r="P4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>-12</v>
       </c>
       <c r="G5">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="I5">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="K5">
         <v>-5</v>
       </c>
       <c r="L5">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
         <v>-3</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>-2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6">
-        <v>-3</v>
-      </c>
-      <c r="F6">
-        <v>-12</v>
-      </c>
-      <c r="G6">
-        <v>-12</v>
-      </c>
-      <c r="H6">
-        <v>-5</v>
-      </c>
-      <c r="I6">
-        <v>-4</v>
-      </c>
-      <c r="J6">
-        <v>-8</v>
-      </c>
-      <c r="K6">
-        <v>-5</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
       </c>
       <c r="M6">
         <v>-1</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>-2</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-11</v>
+      </c>
+      <c r="G7">
+        <v>-4</v>
+      </c>
+      <c r="H7">
+        <v>-10</v>
+      </c>
+      <c r="I7">
+        <v>-12</v>
+      </c>
+      <c r="J7">
+        <v>-8</v>
+      </c>
+      <c r="K7">
+        <v>-9</v>
+      </c>
+      <c r="L7">
+        <v>-9</v>
+      </c>
+      <c r="M7">
+        <v>-3</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>-3</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>-1</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>-2</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>-4</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>-3</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>5</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>2</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>-1</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>-2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="B9">
         <v>5</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>-1</v>
-      </c>
-      <c r="L8">
-        <v>-3</v>
-      </c>
-      <c r="M8">
-        <v>-1</v>
-      </c>
-      <c r="N8">
-        <v>-8</v>
-      </c>
-      <c r="O8">
-        <v>-2</v>
-      </c>
-      <c r="P8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>-2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>-2</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>-5</v>
+      </c>
+      <c r="L9">
+        <v>-6</v>
+      </c>
+      <c r="M9">
+        <v>-10</v>
+      </c>
+      <c r="N9">
+        <v>-3</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>-6</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
         <v>-11</v>
       </c>
-      <c r="G9">
+      <c r="C10">
+        <v>-9</v>
+      </c>
+      <c r="D10">
+        <v>-20</v>
+      </c>
+      <c r="E10">
+        <v>-19</v>
+      </c>
+      <c r="F10">
+        <v>-21</v>
+      </c>
+      <c r="G10">
+        <v>-28</v>
+      </c>
+      <c r="H10">
+        <v>-27</v>
+      </c>
+      <c r="I10">
+        <v>-18</v>
+      </c>
+      <c r="J10">
+        <v>-15</v>
+      </c>
+      <c r="K10">
+        <v>-13</v>
+      </c>
+      <c r="L10">
+        <v>-7</v>
+      </c>
+      <c r="M10">
+        <v>-9</v>
+      </c>
+      <c r="N10">
+        <v>-19</v>
+      </c>
+      <c r="O10">
+        <v>-25</v>
+      </c>
+      <c r="P10">
+        <v>-22</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>-8</v>
+      </c>
+      <c r="D11">
         <v>-4</v>
       </c>
-      <c r="H9">
-        <v>-10</v>
-      </c>
-      <c r="I9">
+      <c r="E11">
+        <v>-5</v>
+      </c>
+      <c r="F11">
+        <v>-7</v>
+      </c>
+      <c r="G11">
+        <v>-5</v>
+      </c>
+      <c r="H11">
+        <v>-9</v>
+      </c>
+      <c r="I11">
         <v>-12</v>
       </c>
-      <c r="J9">
-        <v>-8</v>
-      </c>
-      <c r="K9">
-        <v>-9</v>
-      </c>
-      <c r="L9">
-        <v>-9</v>
-      </c>
-      <c r="M9">
-        <v>-3</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>-3</v>
-      </c>
-      <c r="P9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>-8</v>
-      </c>
-      <c r="D10">
-        <v>-4</v>
-      </c>
-      <c r="E10">
-        <v>-5</v>
-      </c>
-      <c r="F10">
-        <v>-7</v>
-      </c>
-      <c r="G10">
-        <v>-5</v>
-      </c>
-      <c r="H10">
-        <v>-9</v>
-      </c>
-      <c r="I10">
+      <c r="J11">
+        <v>-6</v>
+      </c>
+      <c r="K11">
         <v>-12</v>
       </c>
-      <c r="J10">
-        <v>-6</v>
-      </c>
-      <c r="K10">
-        <v>-12</v>
-      </c>
-      <c r="L10">
+      <c r="L11">
         <v>-14</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>-14</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>-13</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <v>-14</v>
       </c>
-      <c r="P10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>-11</v>
-      </c>
-      <c r="C11">
-        <v>-9</v>
-      </c>
-      <c r="D11">
-        <v>-20</v>
-      </c>
-      <c r="E11">
-        <v>-19</v>
-      </c>
-      <c r="F11">
-        <v>-21</v>
-      </c>
-      <c r="G11">
-        <v>-28</v>
-      </c>
-      <c r="H11">
-        <v>-27</v>
-      </c>
-      <c r="I11">
-        <v>-18</v>
-      </c>
-      <c r="J11">
-        <v>-15</v>
-      </c>
-      <c r="K11">
-        <v>-13</v>
-      </c>
-      <c r="L11">
-        <v>-7</v>
-      </c>
-      <c r="M11">
-        <v>-9</v>
-      </c>
-      <c r="N11">
-        <v>-19</v>
-      </c>
-      <c r="O11">
-        <v>-25</v>
-      </c>
-      <c r="P11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11">
+        <v>-23</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2980,11 +3034,14 @@
       <c r="O12">
         <v>-32</v>
       </c>
-      <c r="P12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12">
+        <v>-25</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -3030,8 +3087,11 @@
       <c r="O13">
         <v>-35</v>
       </c>
-      <c r="P13" t="s">
-        <v>51</v>
+      <c r="P13">
+        <v>-26</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3049,25 +3109,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/Family Fantasy 2024.xlsx
+++ b/Family Fantasy 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="86">
   <si>
     <t>Breece Hall Sucks</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Gabe's Grand Team</t>
   </si>
   <si>
-    <t>Numb Nutz</t>
+    <t>Numb Nutz - CHAMP</t>
   </si>
   <si>
     <t>Your Mom</t>
@@ -58,49 +58,61 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
-  </si>
-  <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>12-2-1</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
-  </si>
-  <si>
-    <t>13-2-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>3-11-1</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>14-1-0</t>
-  </si>
-  <si>
-    <t>2-13-0</t>
+    <t>4-12-1</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>12-4-1</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>15-2-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>8-8-1</t>
+  </si>
+  <si>
+    <t>3-12-2</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>7-9-1</t>
+  </si>
+  <si>
+    <t>14-3-0</t>
+  </si>
+  <si>
+    <t>2-15-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -166,39 +178,36 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑7</t>
+    <t>↓8</t>
   </si>
   <si>
     <t>↑9</t>
   </si>
   <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -242,6 +251,12 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Week</t>
@@ -672,13 +687,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -690,19 +705,19 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -713,16 +728,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -731,19 +746,19 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -754,37 +769,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -792,40 +807,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -833,19 +848,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -857,16 +872,16 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
         <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -874,40 +889,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -915,34 +930,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
@@ -956,40 +971,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -997,40 +1012,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1038,19 +1053,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1059,19 +1074,19 @@
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
         <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1079,40 +1094,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1120,40 +1135,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
         <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1171,13 +1186,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1188,10 +1203,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1202,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1213,13 +1228,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>7.75</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1227,13 +1242,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7.083333333333333</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1241,13 +1256,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>7.25</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1255,13 +1270,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>7.5</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1269,10 +1284,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>7.916666666666667</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1283,13 +1298,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>7.916666666666667</v>
+        <v>8.75</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1297,13 +1312,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>7.916666666666667</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1311,13 +1326,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1325,13 +1340,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1342,10 +1357,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>9.083333333333334</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1363,16 +1378,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1383,13 +1398,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>11.91666666666667</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.08333333333333393</v>
+        <v>1.333333333333334</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1400,13 +1415,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>10.5</v>
+        <v>11.58333333333333</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.5833333333333339</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1417,13 +1432,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>8.166666666666666</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="D4">
-        <v>0.1666666666666661</v>
+        <v>-0.6666666666666661</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1431,16 +1446,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="D5">
-        <v>1.5</v>
+        <v>-2.25</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1451,13 +1466,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>7.333333333333333</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D6">
-        <v>-0.666666666666667</v>
+        <v>-0.6666666666666661</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1465,16 +1480,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1666666666666661</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1482,13 +1497,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1499,16 +1514,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>6.916666666666667</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D9">
-        <v>-2.083333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1519,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.25</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D10">
-        <v>2.25</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1536,13 +1551,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>-2</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1553,13 +1568,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>5.916666666666667</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D12">
-        <v>-2.083333333333333</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1570,13 +1585,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>5.416666666666667</v>
+        <v>5.75</v>
       </c>
       <c r="D13">
-        <v>2.416666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1594,46 +1609,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1641,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>25.28</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1659,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>74.72</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1685,10 +1700,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>23.86</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.390000000000001</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1703,10 +1718,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>19.89</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>50.86000000000001</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1721,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>49.14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1729,13 +1744,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>19.78</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>12.06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.8999999999999999</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1747,13 +1762,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.49</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>31.69</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>31.08</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1765,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>37.23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1773,16 +1788,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>14.07</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>16.09</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.11</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1791,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>13.33</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>35.38</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>17.01</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1809,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>34.27999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1817,43 +1832,43 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>22.98</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>9.039999999999999</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3.27</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>20.38</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>26.47</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.260000000000001</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>43.62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1861,43 +1876,43 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>21.53</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>16.7</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>9.610000000000001</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>26.66</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>15.69</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>45.93999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1905,43 +1920,43 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>14.63</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>23.23</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>7.02</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>19.29</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>24.96</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>6.01</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>46.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1952,16 +1967,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.32</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>25.24</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1970,22 +1985,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>8.870000000000001</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>29.02</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>14.35</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>47.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1999,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>21.67</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>28.13</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>4.78</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.06999999999999999</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2017,19 +2032,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>17.59</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>26.13</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>54.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2046,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>23.59</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2064,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.06999999999999999</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>5.609999999999999</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>22.13</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>72.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2093,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>69.93000000000001</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>6.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2111,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8699999999999999</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>22.6</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>76.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2140,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>92.53</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2158,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>7.470000000000001</v>
+        <v>100</v>
       </c>
       <c r="N13">
-        <v>92.53</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2179,16 +2194,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2196,16 +2211,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2213,16 +2228,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2230,16 +2245,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2247,16 +2262,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2264,16 +2279,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2281,16 +2296,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2301,13 +2316,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2315,16 +2330,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2332,16 +2347,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2349,16 +2364,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2366,16 +2381,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>-25</v>
+        <v>-23</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2383,16 +2398,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>-26</v>
+        <v>-34</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2402,381 +2417,423 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>77</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="K2">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P2">
-        <v>54</v>
-      </c>
-      <c r="Q2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2">
+        <v>57</v>
+      </c>
+      <c r="R2">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>9</v>
       </c>
       <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>23</v>
+      </c>
+      <c r="K3">
+        <v>27</v>
+      </c>
+      <c r="L3">
+        <v>33</v>
+      </c>
+      <c r="M3">
+        <v>41</v>
+      </c>
+      <c r="N3">
+        <v>44</v>
+      </c>
+      <c r="O3">
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <v>54</v>
+      </c>
+      <c r="Q3">
+        <v>49</v>
+      </c>
+      <c r="R3">
+        <v>57</v>
+      </c>
+      <c r="S3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>-3</v>
+      </c>
+      <c r="F4">
+        <v>-12</v>
+      </c>
+      <c r="G4">
+        <v>-12</v>
+      </c>
+      <c r="H4">
+        <v>-5</v>
+      </c>
+      <c r="I4">
+        <v>-4</v>
+      </c>
+      <c r="J4">
+        <v>-8</v>
+      </c>
+      <c r="K4">
+        <v>-5</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
         <v>16</v>
       </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>26</v>
-      </c>
-      <c r="I3">
-        <v>37</v>
-      </c>
-      <c r="J3">
-        <v>40</v>
-      </c>
-      <c r="K3">
-        <v>45</v>
-      </c>
-      <c r="L3">
-        <v>38</v>
-      </c>
-      <c r="M3">
-        <v>42</v>
-      </c>
-      <c r="N3">
-        <v>48</v>
-      </c>
-      <c r="O3">
-        <v>49</v>
-      </c>
-      <c r="P3">
-        <v>48</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>23</v>
-      </c>
-      <c r="H4">
-        <v>32</v>
-      </c>
-      <c r="I4">
-        <v>28</v>
-      </c>
-      <c r="J4">
-        <v>17</v>
-      </c>
-      <c r="K4">
-        <v>18</v>
-      </c>
-      <c r="L4">
-        <v>14</v>
-      </c>
-      <c r="M4">
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <v>7</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>-2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
         <v>-1</v>
       </c>
-      <c r="E5">
+      <c r="L5">
         <v>-3</v>
-      </c>
-      <c r="F5">
-        <v>-12</v>
-      </c>
-      <c r="G5">
-        <v>-12</v>
-      </c>
-      <c r="H5">
-        <v>-5</v>
-      </c>
-      <c r="I5">
-        <v>-4</v>
-      </c>
-      <c r="J5">
-        <v>-8</v>
-      </c>
-      <c r="K5">
-        <v>-5</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
       </c>
       <c r="M5">
         <v>-1</v>
       </c>
       <c r="N5">
+        <v>-8</v>
+      </c>
+      <c r="O5">
+        <v>-2</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>-2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>-11</v>
+      </c>
+      <c r="G6">
+        <v>-4</v>
+      </c>
+      <c r="H6">
+        <v>-10</v>
+      </c>
+      <c r="I6">
+        <v>-12</v>
+      </c>
+      <c r="J6">
+        <v>-8</v>
+      </c>
+      <c r="K6">
+        <v>-9</v>
+      </c>
+      <c r="L6">
+        <v>-9</v>
+      </c>
+      <c r="M6">
+        <v>-3</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>-3</v>
+      </c>
+      <c r="P6">
+        <v>-1</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>-2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+      <c r="M7">
         <v>8</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
+      <c r="N7">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
-      <c r="G6">
+      <c r="O7">
         <v>7</v>
       </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
         <v>-1</v>
       </c>
-      <c r="L6">
+      <c r="R7">
         <v>-3</v>
       </c>
-      <c r="M6">
-        <v>-1</v>
-      </c>
-      <c r="N6">
-        <v>-8</v>
-      </c>
-      <c r="O6">
-        <v>-2</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>-11</v>
-      </c>
-      <c r="G7">
-        <v>-4</v>
-      </c>
-      <c r="H7">
-        <v>-10</v>
-      </c>
-      <c r="I7">
-        <v>-12</v>
-      </c>
-      <c r="J7">
-        <v>-8</v>
-      </c>
-      <c r="K7">
-        <v>-9</v>
-      </c>
-      <c r="L7">
-        <v>-9</v>
-      </c>
-      <c r="M7">
-        <v>-3</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>-3</v>
-      </c>
-      <c r="P7">
-        <v>-1</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2825,273 +2882,309 @@
       <c r="P8">
         <v>-2</v>
       </c>
-      <c r="Q8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8">
+        <v>-5</v>
+      </c>
+      <c r="R8">
+        <v>-3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>-6</v>
+      </c>
+      <c r="H9">
+        <v>-14</v>
+      </c>
+      <c r="I9">
+        <v>-19</v>
+      </c>
+      <c r="J9">
+        <v>-28</v>
+      </c>
+      <c r="K9">
+        <v>-32</v>
+      </c>
+      <c r="L9">
+        <v>-28</v>
+      </c>
+      <c r="M9">
+        <v>-26</v>
+      </c>
+      <c r="N9">
+        <v>-34</v>
+      </c>
+      <c r="O9">
+        <v>-35</v>
+      </c>
+      <c r="P9">
+        <v>-26</v>
+      </c>
+      <c r="Q9">
+        <v>-15</v>
+      </c>
+      <c r="R9">
+        <v>-11</v>
+      </c>
+      <c r="S9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>-1</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>7</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>-2</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>-2</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>-5</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>-6</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>-10</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>-3</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>5</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <v>-6</v>
       </c>
-      <c r="Q9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
+      <c r="Q10">
+        <v>-13</v>
+      </c>
+      <c r="R10">
+        <v>-21</v>
+      </c>
+      <c r="S10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>-9</v>
+      </c>
+      <c r="C11">
+        <v>-12</v>
+      </c>
+      <c r="D11">
+        <v>-11</v>
+      </c>
+      <c r="E11">
+        <v>-18</v>
+      </c>
+      <c r="F11">
+        <v>-20</v>
+      </c>
+      <c r="G11">
+        <v>-15</v>
+      </c>
+      <c r="H11">
+        <v>-21</v>
+      </c>
+      <c r="I11">
+        <v>-27</v>
+      </c>
+      <c r="J11">
+        <v>-24</v>
+      </c>
+      <c r="K11">
+        <v>-18</v>
+      </c>
+      <c r="L11">
+        <v>-23</v>
+      </c>
+      <c r="M11">
+        <v>-27</v>
+      </c>
+      <c r="N11">
+        <v>-26</v>
+      </c>
+      <c r="O11">
+        <v>-32</v>
+      </c>
+      <c r="P11">
+        <v>-25</v>
+      </c>
+      <c r="Q11">
+        <v>-31</v>
+      </c>
+      <c r="R11">
+        <v>-22</v>
+      </c>
+      <c r="S11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>-8</v>
+      </c>
+      <c r="D12">
+        <v>-4</v>
+      </c>
+      <c r="E12">
+        <v>-5</v>
+      </c>
+      <c r="F12">
+        <v>-7</v>
+      </c>
+      <c r="G12">
+        <v>-5</v>
+      </c>
+      <c r="H12">
+        <v>-9</v>
+      </c>
+      <c r="I12">
+        <v>-12</v>
+      </c>
+      <c r="J12">
+        <v>-6</v>
+      </c>
+      <c r="K12">
+        <v>-12</v>
+      </c>
+      <c r="L12">
+        <v>-14</v>
+      </c>
+      <c r="M12">
+        <v>-14</v>
+      </c>
+      <c r="N12">
+        <v>-13</v>
+      </c>
+      <c r="O12">
+        <v>-14</v>
+      </c>
+      <c r="P12">
+        <v>-23</v>
+      </c>
+      <c r="Q12">
+        <v>-21</v>
+      </c>
+      <c r="R12">
+        <v>-23</v>
+      </c>
+      <c r="S12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <v>-11</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <v>-9</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <v>-20</v>
       </c>
-      <c r="E10">
+      <c r="E13">
         <v>-19</v>
       </c>
-      <c r="F10">
+      <c r="F13">
         <v>-21</v>
       </c>
-      <c r="G10">
+      <c r="G13">
         <v>-28</v>
       </c>
-      <c r="H10">
+      <c r="H13">
         <v>-27</v>
       </c>
-      <c r="I10">
+      <c r="I13">
         <v>-18</v>
       </c>
-      <c r="J10">
+      <c r="J13">
         <v>-15</v>
       </c>
-      <c r="K10">
+      <c r="K13">
         <v>-13</v>
       </c>
-      <c r="L10">
+      <c r="L13">
         <v>-7</v>
       </c>
-      <c r="M10">
+      <c r="M13">
         <v>-9</v>
       </c>
-      <c r="N10">
+      <c r="N13">
         <v>-19</v>
       </c>
-      <c r="O10">
+      <c r="O13">
         <v>-25</v>
       </c>
-      <c r="P10">
+      <c r="P13">
         <v>-22</v>
       </c>
-      <c r="Q10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>-8</v>
-      </c>
-      <c r="D11">
-        <v>-4</v>
-      </c>
-      <c r="E11">
-        <v>-5</v>
-      </c>
-      <c r="F11">
-        <v>-7</v>
-      </c>
-      <c r="G11">
-        <v>-5</v>
-      </c>
-      <c r="H11">
-        <v>-9</v>
-      </c>
-      <c r="I11">
-        <v>-12</v>
-      </c>
-      <c r="J11">
-        <v>-6</v>
-      </c>
-      <c r="K11">
-        <v>-12</v>
-      </c>
-      <c r="L11">
-        <v>-14</v>
-      </c>
-      <c r="M11">
-        <v>-14</v>
-      </c>
-      <c r="N11">
-        <v>-13</v>
-      </c>
-      <c r="O11">
-        <v>-14</v>
-      </c>
-      <c r="P11">
-        <v>-23</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>-9</v>
-      </c>
-      <c r="C12">
-        <v>-12</v>
-      </c>
-      <c r="D12">
-        <v>-11</v>
-      </c>
-      <c r="E12">
-        <v>-18</v>
-      </c>
-      <c r="F12">
-        <v>-20</v>
-      </c>
-      <c r="G12">
-        <v>-15</v>
-      </c>
-      <c r="H12">
-        <v>-21</v>
-      </c>
-      <c r="I12">
-        <v>-27</v>
-      </c>
-      <c r="J12">
-        <v>-24</v>
-      </c>
-      <c r="K12">
-        <v>-18</v>
-      </c>
-      <c r="L12">
-        <v>-23</v>
-      </c>
-      <c r="M12">
-        <v>-27</v>
-      </c>
-      <c r="N12">
-        <v>-26</v>
-      </c>
-      <c r="O12">
-        <v>-32</v>
-      </c>
-      <c r="P12">
-        <v>-25</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>-4</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>-6</v>
-      </c>
-      <c r="H13">
-        <v>-14</v>
-      </c>
-      <c r="I13">
-        <v>-19</v>
-      </c>
-      <c r="J13">
-        <v>-28</v>
-      </c>
-      <c r="K13">
-        <v>-32</v>
-      </c>
-      <c r="L13">
-        <v>-28</v>
-      </c>
-      <c r="M13">
-        <v>-26</v>
-      </c>
-      <c r="N13">
+      <c r="Q13">
+        <v>-31</v>
+      </c>
+      <c r="R13">
         <v>-34</v>
       </c>
-      <c r="O13">
-        <v>-35</v>
-      </c>
-      <c r="P13">
-        <v>-26</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>58</v>
+      <c r="S13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3101,7 +3194,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3109,25 +3202,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3135,25 +3228,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>-23</v>
+        <v>-15</v>
       </c>
       <c r="G2">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3161,25 +3254,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>-28</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>-23</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3187,25 +3280,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
       <c r="E4">
-        <v>-18</v>
+        <v>49</v>
       </c>
       <c r="F4">
-        <v>27</v>
+        <v>-5</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3213,25 +3306,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>-28</v>
       </c>
       <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>7</v>
-      </c>
-      <c r="G5">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3239,22 +3332,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>-32</v>
+        <v>-18</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -3265,25 +3358,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>-28</v>
+      </c>
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>-32</v>
-      </c>
       <c r="G7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3291,22 +3384,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-24</v>
+        <v>-32</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -3317,25 +3410,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>-32</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3343,25 +3436,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3369,25 +3462,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>-14</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>-1</v>
-      </c>
-      <c r="F11">
-        <v>-26</v>
-      </c>
-      <c r="G11">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>25</v>
       </c>
-      <c r="H11" t="s">
-        <v>4</v>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
